--- a/metadata/rpharma_specs.xlsx
+++ b/metadata/rpharma_specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bs832471\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{7D220467-D1C0-4B22-9952-64DAEB9CC36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{246D51E4-FFA7-4F0F-AD47-5559D6265876}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21748AAC-1A96-4204-929E-ADF62FFEE5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14305" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14305" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -53,8 +53,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B06ECC66-2EC5-4793-8AF0-21D86957C06D}</author>
+  </authors>
+  <commentList>
+    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{B06ECC66-2EC5-4793-8AF0-21D86957C06D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Can we delete these records (46 - 69) ?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="615">
   <si>
     <t>Attribute</t>
   </si>
@@ -770,7 +788,7 @@
     <t>ADSL.RACE</t>
   </si>
   <si>
-    <t>ADSL.SAFFL</t>
+    <t>ADSL.ITTFL</t>
   </si>
   <si>
     <t>DOMAIN</t>
@@ -1445,48 +1463,48 @@
     <t>No Yes Response (Yes only)</t>
   </si>
   <si>
-    <t>ADVS_VSTEST</t>
+    <t>ADVS_PARAM</t>
   </si>
   <si>
     <t>C67153</t>
   </si>
   <si>
+    <t>Systolic Blood Pressure</t>
+  </si>
+  <si>
+    <t>C25298</t>
+  </si>
+  <si>
     <t>Diastolic Blood Pressure</t>
   </si>
   <si>
     <t>C25299</t>
   </si>
   <si>
+    <t>Pulse Rate</t>
+  </si>
+  <si>
+    <t>C49676</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>C25208</t>
+  </si>
+  <si>
     <t>Height</t>
   </si>
   <si>
     <t>C25347</t>
   </si>
   <si>
-    <t>Pulse Rate</t>
-  </si>
-  <si>
-    <t>C49676</t>
-  </si>
-  <si>
-    <t>Systolic Blood Pressure</t>
-  </si>
-  <si>
-    <t>C25298</t>
-  </si>
-  <si>
     <t>Temperature</t>
   </si>
   <si>
     <t>C174446</t>
   </si>
   <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>C25208</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -1511,33 +1529,30 @@
     <t>C25157</t>
   </si>
   <si>
-    <t>ADVS_VSTESTCD</t>
-  </si>
-  <si>
-    <t>Vital Signs Test Code</t>
+    <t>ADVS_PARAMCD</t>
   </si>
   <si>
     <t>C66741</t>
   </si>
   <si>
+    <t>SYSBP</t>
+  </si>
+  <si>
     <t>DIABP</t>
   </si>
   <si>
+    <t>PULSE</t>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+  </si>
+  <si>
     <t>HEIGHT</t>
   </si>
   <si>
-    <t>PULSE</t>
-  </si>
-  <si>
-    <t>SYSBP</t>
-  </si>
-  <si>
     <t>TEMP</t>
   </si>
   <si>
-    <t>WEIGHT</t>
-  </si>
-  <si>
     <t>MAP</t>
   </si>
   <si>
@@ -1547,6 +1562,9 @@
     <t>BSA</t>
   </si>
   <si>
+    <t>ADVS_PARAMN</t>
+  </si>
+  <si>
     <t>Dictionary</t>
   </si>
   <si>
@@ -1595,520 +1613,13 @@
     <t>Document</t>
   </si>
   <si>
-    <t>ADLB.ADT</t>
-  </si>
-  <si>
-    <t>Algorithm for ADT</t>
+    <t>ADVS.PARAM</t>
+  </si>
+  <si>
+    <t>Algorithm for ADVS.PARAM</t>
   </si>
   <si>
     <t>Computation</t>
-  </si>
-  <si>
-    <t>Date part of LB.LBDTC, converted to SAS date using date9. format</t>
-  </si>
-  <si>
-    <t>ADLB.ADTM</t>
-  </si>
-  <si>
-    <t>Algorithm for ADTM</t>
-  </si>
-  <si>
-    <t>Date and time part of LB.LBDTC, converted to SAS date/time using datetime20. format</t>
-  </si>
-  <si>
-    <t>ADLB.ANRHI</t>
-  </si>
-  <si>
-    <t>Algorithm for ANRHI</t>
-  </si>
-  <si>
-    <t>By default the value of LB.LBSTNRHI is used, unless there is a difference in the LB.LBSTRESU and the expected standard unit which necessitates a value conversion. Than the converted LB.LBSTNRHI value is used.</t>
-  </si>
-  <si>
-    <t>ADLB.ANRINDN</t>
-  </si>
-  <si>
-    <t>Algorithm for ANRINDN</t>
-  </si>
-  <si>
-    <t>Set to 2 for ANRIND='NORMAL'
-else set to 1 for ANRIND='LOW'
-else set to 3 for ANRIND='HIGH'</t>
-  </si>
-  <si>
-    <t>ADLB.ANRLO</t>
-  </si>
-  <si>
-    <t>Algorithm for ANRLO</t>
-  </si>
-  <si>
-    <t>By default the value of LB.LBSTNRLO is used, unless there is a difference in the LB.LBSTRESU and the expected standard unit which necessitates a value conversion. Than the converted LB.LBSTNRLO value is used.</t>
-  </si>
-  <si>
-    <t>ADLB.ASEQ</t>
-  </si>
-  <si>
-    <t>Assign withing each subject unique sequence number by sorting the dataset by USUBJID STUDYID PARAMCD AVISIT ADTM AVAL</t>
-  </si>
-  <si>
-    <t>ADLB.ATM</t>
-  </si>
-  <si>
-    <t>Algorithm for ATM</t>
-  </si>
-  <si>
-    <t>Time part of LB.LBDTC, converted using ISO format</t>
-  </si>
-  <si>
-    <t>ADLB.ATOXGR</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLB.ATOXGR</t>
-  </si>
-  <si>
-    <t>Concatenate "Grade" with character version of ATOXGRN when not missing of LB.LBTOXGR;
-When LB.LBTOXGR at Baseline is Missing then do:
-- if LBTESTCD in ("AST","ALT","ALP","BILI","EOS","CREAT") then set to Missing.
-- else set to "Grade 0" for other tests.</t>
-  </si>
-  <si>
-    <t>ADLB.ATOXGRN</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLB.ATOXGRN</t>
-  </si>
-  <si>
-    <t>Numeric version of LB.LBTOXGR</t>
-  </si>
-  <si>
-    <t>ADLB.AVAL</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLB.AVAL</t>
-  </si>
-  <si>
-    <t>Include only required TESTS As per SAP scetion 6.6.3:
- "Set to LB.LBSTRESN, check if LBSTRESU match with units from Standard Toxocity Grade derivation algorithm.
-When LB.LBSTRESN is missing and LB.LBSTRESC is available then as per document derive AVAL as:
-1. "&lt; x" becomes x-0.01 when x has 2 decimal places
-2. "&gt; x" becomes x+0.1 when x has 1 decimal place
-3. "&lt; x" becomes x+0 when x has 0 decimal places etc.</t>
-  </si>
-  <si>
-    <t>ADLB.BNRIND</t>
-  </si>
-  <si>
-    <t>Algorithm for BNRIND</t>
-  </si>
-  <si>
-    <t>Assign ADLB.ANRIND when ABLFL="Y" and retain for post-baseline records</t>
-  </si>
-  <si>
-    <t>ADLB.BNRINDN</t>
-  </si>
-  <si>
-    <t>Algorithm for BNRINDN</t>
-  </si>
-  <si>
-    <t>Assign ADLB.ANRINDN when ABLFL="Y" and retain for post-baseline records</t>
-  </si>
-  <si>
-    <t>ADLB.BTOXGR</t>
-  </si>
-  <si>
-    <t>Algorithm for BTOXGR</t>
-  </si>
-  <si>
-    <t>Assign ADLB.ATOXGR when ABLFL="Y" and retain for post-baseline records</t>
-  </si>
-  <si>
-    <t>ADLB.BTOXGRN</t>
-  </si>
-  <si>
-    <t>Algorithm for BTOXGRN</t>
-  </si>
-  <si>
-    <t>Assign ADLB.ATOXGRN when ABLFL="Y" and retain for post-baseline records</t>
-  </si>
-  <si>
-    <t>ADLB.CRIT1</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLB.CRIT1</t>
-  </si>
-  <si>
-    <t>Assign "Toxicity Grade 3+" if the record is post-baseline and is considered for Analysis (ANL01FL="Y") and ATOXGR is "Grade 3 or above"</t>
-  </si>
-  <si>
-    <t>ADLB.CRIT1FL</t>
-  </si>
-  <si>
-    <t>Algorithm for CRIT1FL</t>
-  </si>
-  <si>
-    <t>Derive flag 'Y' for the all post-baseline observations with toxicity wothening 3+ grades</t>
-  </si>
-  <si>
-    <t>ADLB.CRIT1FN</t>
-  </si>
-  <si>
-    <t>Algorithm for CRIT1FN</t>
-  </si>
-  <si>
-    <t>Set to 1 if CRIT1FL='Y'</t>
-  </si>
-  <si>
-    <t>ADLB.CRIT2</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLB.CRIT2</t>
-  </si>
-  <si>
-    <t>Assign "Toxicity Grade 4" if the record is post-baseline and is considered for Analysis (ANL01FL="Y") and ATOXGR is "Grade 4"</t>
-  </si>
-  <si>
-    <t>ADLB.CRIT2FL</t>
-  </si>
-  <si>
-    <t>Algorithm for CRIT2FL</t>
-  </si>
-  <si>
-    <t>Set flag to 'Y' for the all post-baseline observations with toxicity worsening to grade 4</t>
-  </si>
-  <si>
-    <t>ADLB.CRIT2FN</t>
-  </si>
-  <si>
-    <t>Algorithm for CRIT2FN</t>
-  </si>
-  <si>
-    <t>Set to 1 if CRIT2FL='Y'</t>
-  </si>
-  <si>
-    <t>ADLB.DTYPE</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLB.DTYPE</t>
-  </si>
-  <si>
-    <t>Assign text "AVERAGE"</t>
-  </si>
-  <si>
-    <t>ADLBIG.ADT</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.ADT</t>
-  </si>
-  <si>
-    <t>ADLBIG.ADTM</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.ADTM</t>
-  </si>
-  <si>
-    <t>ADLBIG.ANRHI</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.ANRHI</t>
-  </si>
-  <si>
-    <t>Assign LB.LBSTNRHI where LBTEST contains "Immunoglobulin"</t>
-  </si>
-  <si>
-    <t>ADLBIG.ANRINDN</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.ANRINDN</t>
-  </si>
-  <si>
-    <t>Assign numeric format NRINDN. for LB.LBNRIND where LBTEST contains "Immunoglobulin"</t>
-  </si>
-  <si>
-    <t>ADLBIG.ANRLO</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.ANRLO</t>
-  </si>
-  <si>
-    <t>Assign LB.LBSTNRLO where LBTEST contains "Immunoglobulin"</t>
-  </si>
-  <si>
-    <t>ADLBIG.ASEQ</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.ASEQ</t>
-  </si>
-  <si>
-    <t>Assigning unique sequence number for each record by sorting the dataset with USUBJID STUDYID PARAMN AVISITN ADT ATM</t>
-  </si>
-  <si>
-    <t>ADLBIG.ATM</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.ATM</t>
-  </si>
-  <si>
-    <t>Timepart of LB.LBDTC converted to SAS time</t>
-  </si>
-  <si>
-    <t>ADLBIG.ATOXGR</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.ATOXGR</t>
-  </si>
-  <si>
-    <t>if PARAMCD="IgG" then Assign "Grade 1" when Values lie within 550-700 mg/dL 
-"Grade 2" when Values lie within 400-549 mg/dL
-"Grade 3" when Values lie within 250-399 mg/dL
-"Grade 4" when Values are less than 250 mg/dL</t>
-  </si>
-  <si>
-    <t>ADLBIG.ATOXGRN</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.ATOXGRN</t>
-  </si>
-  <si>
-    <t>Assign to numeric version of ATOXGR using format GRADEN.</t>
-  </si>
-  <si>
-    <t>ADLBIG.AVAL</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.AVAL</t>
-  </si>
-  <si>
-    <t>Set to LB.LBSTRESN where LBTEST contains "Immunoglobulin"</t>
-  </si>
-  <si>
-    <t>ADLBIG.AVALC</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.AVALC</t>
-  </si>
-  <si>
-    <t>Set to LB.LBSTRESC where LBTEST contains "Immunoglobulin"  and when LBSTRESN is not available</t>
-  </si>
-  <si>
-    <t>ADLBIG.BNRIND</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.BNRIND</t>
-  </si>
-  <si>
-    <t>Assign ADLBIG.ANRIND when ABLFL="Y" and retain for post-baseline records</t>
-  </si>
-  <si>
-    <t>ADLBIG.BNRINDN</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.BNRINDN</t>
-  </si>
-  <si>
-    <t>Assign ADLBIG.ANRINDN when ABLFL="Y" and retain for post-baseline records</t>
-  </si>
-  <si>
-    <t>ADLBIG.BTOXGR</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.BTOXGR</t>
-  </si>
-  <si>
-    <t>Assign ADLBIG.ATOXGR when ABLFL="Y" and retain for post-baseline records</t>
-  </si>
-  <si>
-    <t>ADLBIG.BTOXGRN</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.BTOXGRN</t>
-  </si>
-  <si>
-    <t>Assign ADLBIG.ATOXGRN when ABLFL="Y" and retain for post-baseline records</t>
-  </si>
-  <si>
-    <t>ADLBIG.CRIT1</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.CRIT1</t>
-  </si>
-  <si>
-    <t>As per SAP section 6.6.3:
-Assign "Toxicity Grade 3+" if the record is post-baseline and is considered for Analysis (ANL01FL="Y") and ATOXGR is "Grade 3 or above"</t>
-  </si>
-  <si>
-    <t>ADLBIG.CRIT1FL</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.CRIT1FL</t>
-  </si>
-  <si>
-    <t>Derive flag as "Y" if the record is post-baseline and is considered for Analysis (ANL01FL="Y") and ATOXGR is "Grade 3 or above"</t>
-  </si>
-  <si>
-    <t>ADLBIG.CRIT1FN</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.CRIT1FN</t>
-  </si>
-  <si>
-    <t>Set to 1 if CRIT1FL="Y"</t>
-  </si>
-  <si>
-    <t>ADLBIG.CRIT2</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.CRIT2</t>
-  </si>
-  <si>
-    <t>As per SAP section 6.6.3:
-Assign "Toxicity Grade 4" if the record is post-baseline and is considered for Analysis (ANL01FL="Y") and ATOXGR is "Grade 4"</t>
-  </si>
-  <si>
-    <t>ADLBIG.CRIT2FL</t>
-  </si>
-  <si>
-    <t>Derive flag as "Y" if the record is post-baseline and is considered for Analysis (ANL01FL="Y") and ATOXGR is "Grade 4"</t>
-  </si>
-  <si>
-    <t>ADLBIG.CRIT2FN</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.CRIT2FN</t>
-  </si>
-  <si>
-    <t>Set to 1 if CRIT2FL="Y"</t>
-  </si>
-  <si>
-    <t>ADLBIG.DTYPE</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.DTYPE</t>
-  </si>
-  <si>
-    <t>ADLBIG.PARAM</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.PARAM</t>
-  </si>
-  <si>
-    <t>If LB.LBSTRESU is not missing then concatenate LB.LBSPEC || LB.LBTEST || (LB.LBSTRESU). 
-Otherwise, LB.LBSPEC ||LB.LBTEST .where LBTEST contains "Immunoglobulin"</t>
-  </si>
-  <si>
-    <t>ADLBIG.PARAMCD</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.PARAMCD</t>
-  </si>
-  <si>
-    <t>Where LBTESTCD="IGG";  if LBSPEC="SERUM OR PLASMA" then assign PARAMCD="LB1566"; else if LBSPEC="PLASMA/SERUM" then assign PARAMCD="LB0464"</t>
-  </si>
-  <si>
-    <t>ADLBIG.PARAMLBL</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.PARAMLBL</t>
-  </si>
-  <si>
-    <t>Set to LB.LBTEST concatenated with LB.LBSTRESU in parenthesis</t>
-  </si>
-  <si>
-    <t>ADLBIG.PARCAT1</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.PARCAT1</t>
-  </si>
-  <si>
-    <t>Set to propcase(LB.LBCAT) when LBTEST contains "Immunoglobulin"</t>
-  </si>
-  <si>
-    <t>ADLBIG.PARCAT1N</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.PARCAT1N</t>
-  </si>
-  <si>
-    <t>Assign numeric format for PARCAT1</t>
-  </si>
-  <si>
-    <t>ADLBIG.WRSTGRFL</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.WRSTGRFL</t>
-  </si>
-  <si>
-    <t>Set to "Y" when ATOXGRN is not missing and is the WORST case per USUBJID per PARAMETER through out the post-baseline visits</t>
-  </si>
-  <si>
-    <t>ADLBIG.WRSTGRFN</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLBIG.WRSTGRFN</t>
-  </si>
-  <si>
-    <t>Set to 1 if WRSTGRFL='Y'</t>
-  </si>
-  <si>
-    <t>ADLB.PARAM</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLB.PARAM</t>
-  </si>
-  <si>
-    <t>If LB.LBSTRESU is not missing then concatenate LB.LBSPEC||" " ||LB.LBMETHOD||" "||LB.LBTEST||" ("|| (LB.LBSTRESU)||")"
-Otherwise, LB.LBSPEC||" "||LB.LBMETHOD||" "||LB.LBTEST
-when LB.LBMETHOD is missing then consider LB.LBANMETH</t>
-  </si>
-  <si>
-    <t>ADLB.PARAMCD</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLB.PARAMCD</t>
-  </si>
-  <si>
-    <t>Derived by merging LB with ADLBPARM dictionary dataset where LB.LBTESTCD=ADLBPARM.LBTESTCD and LB.LBSPEC=ADLBPARM.LBSPEC and LB.LBANMETH=ADLBPARM.LBMETHOD.</t>
-  </si>
-  <si>
-    <t>ADLB.PARAMLBL</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLB.PARAMLBL</t>
-  </si>
-  <si>
-    <t>ADLB.PARCAT1</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLB.PARCAT1</t>
-  </si>
-  <si>
-    <t>Set to LB. LBCAT where LB. LBCAT in ("CHEMISTRY","HEMATOLOGY") in Propcase</t>
-  </si>
-  <si>
-    <t>ADLB.PARCAT1N</t>
-  </si>
-  <si>
-    <t>Algorithm for ADLB.PARCAT1N</t>
-  </si>
-  <si>
-    <t>Use format LBCATN. for LB.LBCAT variable</t>
-  </si>
-  <si>
-    <t>ADLB.WRSTGRFL</t>
-  </si>
-  <si>
-    <t>Algorithm for WRSTGRFL</t>
-  </si>
-  <si>
-    <t>ADLB.WRSTGRFN</t>
-  </si>
-  <si>
-    <t>Algorithm for WRSTGRFN</t>
-  </si>
-  <si>
-    <t>ADVS.PARAM</t>
-  </si>
-  <si>
-    <t>Algorithm for ADVS.PARAM</t>
   </si>
   <si>
     <t>Set to [VS.VSTEST] for parameters from VS domain,
@@ -2445,7 +1956,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2547,7 +2058,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2565,6 +2076,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Fanny Gautier" id="{A8DB0C90-0020-4899-927A-501E5804A665}" userId="S::fanny.gautier_cytel.com#ext#@phuseaccount.onmicrosoft.com::ad539d82-2fb0-466b-ad42-fb9a9b407ed9" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2862,6 +2379,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A46" dT="2024-10-03T14:47:34.88" personId="{A8DB0C90-0020-4899-927A-501E5804A665}" id="{B06ECC66-2EC5-4793-8AF0-21D86957C06D}">
+    <text>Can we delete these records (46 - 69) ?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
@@ -2871,13 +2396,13 @@
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="74.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2885,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2893,7 +2418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2901,7 +2426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2909,7 +2434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2917,7 +2442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2940,33 +2465,33 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="62.375" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>773</v>
+        <v>610</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>775</v>
+        <v>612</v>
       </c>
       <c r="B2" t="s">
-        <v>776</v>
+        <v>613</v>
       </c>
       <c r="C2" t="s">
-        <v>777</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -2984,19 +2509,19 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="58.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="9" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="50.75" customWidth="1"/>
+    <col min="5" max="5" width="58.625" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="9" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3025,7 +2550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3048,7 +2573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -3079,35 +2604,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129AE431-5806-471D-9C82-A144A32316F7}">
-  <dimension ref="A1:S128"/>
+  <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="12"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
@@ -3166,7 +2691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3196,7 +2721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A66" si="0">A2+1</f>
         <v>2</v>
@@ -3230,7 +2755,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3264,7 +2789,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3295,7 +2820,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3317,7 +2842,7 @@
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3339,7 +2864,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3361,7 +2886,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3392,7 +2917,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3426,7 +2951,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3460,7 +2985,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3497,7 +3022,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3519,7 +3044,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3541,7 +3066,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3578,7 +3103,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3615,7 +3140,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3646,7 +3171,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3680,7 +3205,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3711,7 +3236,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3733,7 +3258,7 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3755,7 +3280,7 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3789,7 +3314,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3826,7 +3351,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3860,7 +3385,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3897,7 +3422,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3931,7 +3456,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3968,7 +3493,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4002,7 +3527,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4036,7 +3561,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4070,7 +3595,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4104,7 +3629,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4141,7 +3666,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4175,7 +3700,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4209,7 +3734,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4240,7 +3765,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4274,7 +3799,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4308,7 +3833,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4342,7 +3867,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4376,7 +3901,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4410,7 +3935,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4432,7 +3957,7 @@
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4466,7 +3991,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4500,7 +4025,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4534,7 +4059,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4562,7 +4087,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4596,7 +4121,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4627,7 +4152,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4658,7 +4183,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4692,7 +4217,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4726,7 +4251,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4750,7 +4275,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4771,7 +4296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4795,7 +4320,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4825,7 +4350,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4855,7 +4380,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4885,7 +4410,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4915,7 +4440,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4946,7 +4471,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4976,7 +4501,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -5006,7 +4531,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -5036,7 +4561,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -5066,7 +4591,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -5096,7 +4621,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -5130,7 +4655,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -5164,25 +4689,25 @@
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E66" t="s">
         <v>48</v>
       </c>
-      <c r="F66" s="13" t="s">
-        <v>127</v>
+      <c r="F66" s="4">
+        <v>1</v>
       </c>
       <c r="I66" t="s">
         <v>25</v>
@@ -5198,7 +4723,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f t="shared" ref="A67:A122" si="1">A66+1</f>
         <v>66</v>
@@ -5232,7 +4757,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -5266,7 +4791,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -5300,7 +4825,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -5334,7 +4859,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -5368,7 +4893,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -5399,7 +4924,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -5430,7 +4955,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -5461,7 +4986,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -5492,7 +5017,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -5523,7 +5048,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -5554,7 +5079,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -5585,7 +5110,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -5616,7 +5141,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -5647,7 +5172,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -5678,7 +5203,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -5709,7 +5234,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -5746,7 +5271,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -5777,7 +5302,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -5808,7 +5333,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -5839,7 +5364,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -5870,7 +5395,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -5901,7 +5426,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -5932,7 +5457,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -5963,7 +5488,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -5994,7 +5519,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6025,7 +5550,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6056,7 +5581,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -6084,7 +5609,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -6107,12 +5632,15 @@
       <c r="I95" t="s">
         <v>25</v>
       </c>
+      <c r="K95" t="s">
+        <v>496</v>
+      </c>
       <c r="L95" s="3"/>
       <c r="M95" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6140,7 +5668,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -6165,7 +5693,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6190,7 +5718,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -6215,7 +5743,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -6240,7 +5768,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -6265,7 +5793,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -6290,7 +5818,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -6318,7 +5846,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -6343,7 +5871,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -6368,7 +5896,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -6393,7 +5921,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -6418,7 +5946,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -6443,7 +5971,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -6468,7 +5996,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -6493,7 +6021,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -6518,7 +6046,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -6543,7 +6071,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -6568,7 +6096,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -6593,7 +6121,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -6618,7 +6146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -6643,7 +6171,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -6668,7 +6196,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -6693,7 +6221,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -6718,7 +6246,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -6743,7 +6271,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -6771,7 +6299,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -6799,12 +6327,6 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15"/>
-    <row r="124" spans="1:13" ht="15"/>
-    <row r="125" spans="1:13" ht="15"/>
-    <row r="126" spans="1:13" ht="15"/>
-    <row r="127" spans="1:13" ht="15"/>
-    <row r="128" spans="1:13" ht="15"/>
   </sheetData>
   <autoFilter ref="A1:S122" xr:uid="{129AE431-5806-471D-9C82-A144A32316F7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6820,26 +6342,26 @@
       <selection pane="bottomLeft" activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" customWidth="1"/>
-    <col min="17" max="18" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="13" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="11.75" customWidth="1"/>
+    <col min="15" max="15" width="13.625" customWidth="1"/>
+    <col min="16" max="16" width="15.25" customWidth="1"/>
+    <col min="17" max="18" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -6909,31 +6431,31 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBC456A-1389-4826-89DD-7A3DE90BCF75}">
-  <dimension ref="A1:H89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBC456A-1389-4826-89DD-7A3DE90BCF75}">
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="59.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="59.75" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>365</v>
       </c>
@@ -6959,7 +6481,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -6976,7 +6498,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -6993,7 +6515,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -7010,7 +6532,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -7027,7 +6549,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -7044,7 +6566,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -7064,7 +6586,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -7084,7 +6606,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -7104,7 +6626,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -7124,7 +6646,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -7144,7 +6666,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -7167,7 +6689,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -7190,7 +6712,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -7213,7 +6735,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>386</v>
       </c>
@@ -7233,7 +6755,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>386</v>
       </c>
@@ -7250,7 +6772,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>386</v>
       </c>
@@ -7267,7 +6789,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -7290,7 +6812,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -7313,7 +6835,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -7336,7 +6858,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -7359,7 +6881,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -7379,7 +6901,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -7399,7 +6921,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -7419,7 +6941,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -7439,7 +6961,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -7459,7 +6981,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -7479,7 +7001,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>395</v>
       </c>
@@ -7490,7 +7012,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>395</v>
       </c>
@@ -7501,7 +7023,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>395</v>
       </c>
@@ -7515,7 +7037,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>399</v>
       </c>
@@ -7529,7 +7051,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>399</v>
       </c>
@@ -7543,7 +7065,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>399</v>
       </c>
@@ -7554,7 +7076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -7580,7 +7102,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -7606,7 +7128,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -7632,7 +7154,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -7658,7 +7180,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>155</v>
       </c>
@@ -7675,7 +7197,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -7692,7 +7214,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>155</v>
       </c>
@@ -7709,7 +7231,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -7729,7 +7251,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>159</v>
       </c>
@@ -7749,7 +7271,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>159</v>
       </c>
@@ -7769,7 +7291,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>419</v>
       </c>
@@ -7792,7 +7314,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>419</v>
       </c>
@@ -7815,7 +7337,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>425</v>
       </c>
@@ -7835,7 +7357,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>425</v>
       </c>
@@ -7855,7 +7377,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>425</v>
       </c>
@@ -7875,7 +7397,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>425</v>
       </c>
@@ -7895,7 +7417,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>431</v>
       </c>
@@ -7915,7 +7437,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>431</v>
       </c>
@@ -7935,7 +7457,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>437</v>
       </c>
@@ -7955,7 +7477,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>437</v>
       </c>
@@ -7975,7 +7497,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>439</v>
       </c>
@@ -8001,7 +7523,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>439</v>
       </c>
@@ -8027,7 +7549,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>439</v>
       </c>
@@ -8053,7 +7575,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>450</v>
       </c>
@@ -8073,7 +7595,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>450</v>
       </c>
@@ -8093,7 +7615,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>450</v>
       </c>
@@ -8113,7 +7635,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>452</v>
       </c>
@@ -8139,7 +7661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>452</v>
       </c>
@@ -8165,7 +7687,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>452</v>
       </c>
@@ -8191,7 +7713,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>452</v>
       </c>
@@ -8217,7 +7739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -8240,7 +7762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -8263,7 +7785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>122</v>
       </c>
@@ -8286,7 +7808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>388</v>
       </c>
@@ -8306,12 +7828,35 @@
         <v>388</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>463</v>
+      </c>
+      <c r="B71" t="s">
+        <v>307</v>
+      </c>
+      <c r="C71" t="s">
+        <v>464</v>
+      </c>
+      <c r="D71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E71" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" t="s">
+        <v>465</v>
+      </c>
+      <c r="G71" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>463</v>
       </c>
       <c r="B72" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="C72" t="s">
         <v>464</v>
@@ -8320,21 +7865,21 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>127</v>
+        <v>372</v>
       </c>
       <c r="F72" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G72" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>463</v>
       </c>
       <c r="B73" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="C73" t="s">
         <v>464</v>
@@ -8343,21 +7888,21 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>372</v>
+        <v>232</v>
       </c>
       <c r="F73" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G73" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>463</v>
       </c>
       <c r="B74" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="C74" t="s">
         <v>464</v>
@@ -8366,21 +7911,21 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>232</v>
+        <v>377</v>
       </c>
       <c r="F74" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G74" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>463</v>
       </c>
       <c r="B75" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="C75" t="s">
         <v>464</v>
@@ -8389,21 +7934,21 @@
         <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>377</v>
+        <v>61</v>
       </c>
       <c r="F75" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G75" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>463</v>
       </c>
       <c r="B76" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="C76" t="s">
         <v>464</v>
@@ -8412,21 +7957,21 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G76" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>463</v>
       </c>
       <c r="B77" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="C77" t="s">
         <v>464</v>
@@ -8435,21 +7980,21 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>477</v>
       </c>
       <c r="F77" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="G77" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>463</v>
       </c>
       <c r="B78" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="C78" t="s">
         <v>464</v>
@@ -8458,21 +8003,21 @@
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="F78" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G78" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>463</v>
       </c>
       <c r="B79" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="C79" t="s">
         <v>464</v>
@@ -8481,247 +8026,405 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="F79" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="G79" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="C80" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="D80" t="s">
         <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>482</v>
+        <v>127</v>
       </c>
       <c r="F80" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G80" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>485</v>
       </c>
       <c r="B81" t="s">
+        <v>311</v>
+      </c>
+      <c r="C81" t="s">
         <v>486</v>
       </c>
-      <c r="C81" t="s">
-        <v>487</v>
-      </c>
       <c r="D81" t="s">
         <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>127</v>
+        <v>372</v>
       </c>
       <c r="F81" t="s">
         <v>488</v>
       </c>
       <c r="G81" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>485</v>
       </c>
       <c r="B82" t="s">
+        <v>311</v>
+      </c>
+      <c r="C82" t="s">
         <v>486</v>
       </c>
-      <c r="C82" t="s">
-        <v>487</v>
-      </c>
       <c r="D82" t="s">
         <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>372</v>
+        <v>232</v>
       </c>
       <c r="F82" t="s">
         <v>489</v>
       </c>
       <c r="G82" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>485</v>
       </c>
       <c r="B83" t="s">
+        <v>311</v>
+      </c>
+      <c r="C83" t="s">
         <v>486</v>
       </c>
-      <c r="C83" t="s">
-        <v>487</v>
-      </c>
       <c r="D83" t="s">
         <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>232</v>
+        <v>377</v>
       </c>
       <c r="F83" t="s">
         <v>490</v>
       </c>
       <c r="G83" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>485</v>
       </c>
       <c r="B84" t="s">
+        <v>311</v>
+      </c>
+      <c r="C84" t="s">
         <v>486</v>
       </c>
-      <c r="C84" t="s">
-        <v>487</v>
-      </c>
       <c r="D84" t="s">
         <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>377</v>
+        <v>61</v>
       </c>
       <c r="F84" t="s">
         <v>491</v>
       </c>
       <c r="G84" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>485</v>
       </c>
       <c r="B85" t="s">
+        <v>311</v>
+      </c>
+      <c r="C85" t="s">
         <v>486</v>
       </c>
-      <c r="C85" t="s">
-        <v>487</v>
-      </c>
       <c r="D85" t="s">
         <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F85" t="s">
         <v>492</v>
       </c>
       <c r="G85" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>485</v>
       </c>
       <c r="B86" t="s">
+        <v>311</v>
+      </c>
+      <c r="C86" t="s">
         <v>486</v>
       </c>
-      <c r="C86" t="s">
-        <v>487</v>
-      </c>
       <c r="D86" t="s">
         <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>49</v>
+        <v>477</v>
       </c>
       <c r="F86" t="s">
         <v>493</v>
       </c>
       <c r="G86" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>485</v>
       </c>
       <c r="B87" t="s">
+        <v>311</v>
+      </c>
+      <c r="C87" t="s">
         <v>486</v>
       </c>
-      <c r="C87" t="s">
-        <v>487</v>
-      </c>
       <c r="D87" t="s">
         <v>48</v>
       </c>
       <c r="E87" t="s">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="F87" t="s">
         <v>494</v>
       </c>
       <c r="G87" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>485</v>
       </c>
       <c r="B88" t="s">
+        <v>311</v>
+      </c>
+      <c r="C88" t="s">
         <v>486</v>
       </c>
-      <c r="C88" t="s">
-        <v>487</v>
-      </c>
       <c r="D88" t="s">
         <v>48</v>
       </c>
       <c r="E88" t="s">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="F88" t="s">
         <v>495</v>
       </c>
       <c r="G88" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="B89" t="s">
-        <v>486</v>
-      </c>
-      <c r="C89" t="s">
+        <v>309</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" t="s">
+        <v>127</v>
+      </c>
+      <c r="F89" t="s">
+        <v>127</v>
+      </c>
+      <c r="H89" t="s">
         <v>487</v>
       </c>
-      <c r="D89" t="s">
-        <v>48</v>
-      </c>
-      <c r="E89" t="s">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>496</v>
+      </c>
+      <c r="B90" t="s">
+        <v>309</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" t="s">
+        <v>372</v>
+      </c>
+      <c r="F90" t="s">
+        <v>372</v>
+      </c>
+      <c r="H90" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>496</v>
+      </c>
+      <c r="B91" t="s">
+        <v>309</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" t="s">
+        <v>232</v>
+      </c>
+      <c r="F91" t="s">
+        <v>232</v>
+      </c>
+      <c r="H91" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>496</v>
+      </c>
+      <c r="B92" t="s">
+        <v>309</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" t="s">
+        <v>377</v>
+      </c>
+      <c r="F92" t="s">
+        <v>377</v>
+      </c>
+      <c r="H92" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>496</v>
+      </c>
+      <c r="B93" t="s">
+        <v>309</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H93" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>496</v>
+      </c>
+      <c r="B94" t="s">
+        <v>309</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" t="s">
+        <v>49</v>
+      </c>
+      <c r="F94" t="s">
+        <v>49</v>
+      </c>
+      <c r="H94" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>496</v>
+      </c>
+      <c r="B95" t="s">
+        <v>309</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" t="s">
+        <v>477</v>
+      </c>
+      <c r="F95" t="s">
+        <v>477</v>
+      </c>
+      <c r="H95" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>496</v>
+      </c>
+      <c r="B96" t="s">
+        <v>309</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" t="s">
+        <v>79</v>
+      </c>
+      <c r="F96" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>496</v>
+      </c>
+      <c r="B97" t="s">
+        <v>309</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" t="s">
         <v>482</v>
       </c>
-      <c r="F89" t="s">
-        <v>496</v>
-      </c>
-      <c r="G89" t="s">
-        <v>484</v>
+      <c r="F97" t="s">
+        <v>482</v>
+      </c>
+      <c r="H97" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8731,19 +8434,19 @@
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>365</v>
       </c>
@@ -8760,7 +8463,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>499</v>
       </c>
@@ -8777,7 +8480,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>502</v>
       </c>
@@ -8794,7 +8497,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>505</v>
       </c>
@@ -8819,21 +8522,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A27F77-A36A-4B0F-AB98-73EE4727DE22}">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="148.5703125" customWidth="1"/>
+    <col min="1" max="1" width="46.25" customWidth="1"/>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="148.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>365</v>
       </c>
@@ -8859,7 +8562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>513</v>
       </c>
@@ -8869,11 +8572,11 @@
       <c r="C2" t="s">
         <v>515</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="15" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>517</v>
       </c>
@@ -8883,11 +8586,11 @@
       <c r="C3" t="s">
         <v>515</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="15" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>520</v>
       </c>
@@ -8901,1251 +8604,452 @@
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>523</v>
       </c>
       <c r="B5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C5" t="s">
         <v>515</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.5">
-      <c r="A6" t="s">
-        <v>526</v>
-      </c>
       <c r="B6" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C6" t="s">
         <v>515</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C7" t="s">
         <v>515</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B8" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="C8" t="s">
         <v>515</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="57.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B9" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="C9" t="s">
         <v>515</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B10" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="C10" t="s">
         <v>515</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="85.7">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B11" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="C11" t="s">
         <v>515</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B12" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="C12" t="s">
         <v>515</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B13" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C13" t="s">
         <v>515</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B14" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C14" t="s">
         <v>515</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B15" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C15" t="s">
         <v>515</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="D15" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B16" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C16" t="s">
         <v>515</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B17" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C17" t="s">
         <v>515</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39.4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B18" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C18" t="s">
         <v>515</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="91.05" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B19" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="C19" t="s">
         <v>515</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B20" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C20" t="s">
         <v>515</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B21" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C21" t="s">
         <v>515</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B22" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C22" t="s">
         <v>515</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B23" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C23" t="s">
         <v>515</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B24" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C24" t="s">
         <v>515</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B25" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C25" t="s">
         <v>515</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B26" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C26" t="s">
         <v>515</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B27" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C27" t="s">
         <v>515</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B28" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C28" t="s">
         <v>515</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B29" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C29" t="s">
         <v>515</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="57.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B30" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C30" t="s">
         <v>515</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B31" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C31" t="s">
         <v>515</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B32" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C32" t="s">
         <v>515</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B33" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C33" t="s">
         <v>515</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B34" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C34" t="s">
         <v>515</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B35" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C35" t="s">
         <v>515</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B36" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C36" t="s">
         <v>515</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>616</v>
-      </c>
-      <c r="B37" t="s">
-        <v>617</v>
-      </c>
-      <c r="C37" t="s">
-        <v>515</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.5">
-      <c r="A38" t="s">
-        <v>619</v>
-      </c>
-      <c r="B38" t="s">
-        <v>620</v>
-      </c>
-      <c r="C38" t="s">
-        <v>515</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>622</v>
-      </c>
-      <c r="B39" t="s">
-        <v>623</v>
-      </c>
-      <c r="C39" t="s">
-        <v>515</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>625</v>
-      </c>
-      <c r="B40" t="s">
-        <v>626</v>
-      </c>
-      <c r="C40" t="s">
-        <v>515</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="28.5">
-      <c r="A41" t="s">
-        <v>628</v>
-      </c>
-      <c r="B41" t="s">
-        <v>629</v>
-      </c>
-      <c r="C41" t="s">
-        <v>515</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>631</v>
-      </c>
-      <c r="B42" t="s">
-        <v>623</v>
-      </c>
-      <c r="C42" t="s">
-        <v>515</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>633</v>
-      </c>
-      <c r="B43" t="s">
-        <v>634</v>
-      </c>
-      <c r="C43" t="s">
-        <v>515</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>636</v>
-      </c>
-      <c r="B44" t="s">
-        <v>637</v>
-      </c>
-      <c r="C44" t="s">
-        <v>515</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="28.5">
-      <c r="A45" t="s">
-        <v>638</v>
-      </c>
-      <c r="B45" t="s">
-        <v>639</v>
-      </c>
-      <c r="C45" t="s">
-        <v>515</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>641</v>
-      </c>
-      <c r="B46" t="s">
-        <v>642</v>
-      </c>
-      <c r="C46" t="s">
-        <v>515</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>644</v>
-      </c>
-      <c r="B47" t="s">
-        <v>645</v>
-      </c>
-      <c r="C47" t="s">
-        <v>515</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>647</v>
-      </c>
-      <c r="B48" t="s">
-        <v>648</v>
-      </c>
-      <c r="C48" t="s">
-        <v>515</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>650</v>
-      </c>
-      <c r="B49" t="s">
-        <v>651</v>
-      </c>
-      <c r="C49" t="s">
-        <v>515</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>653</v>
-      </c>
-      <c r="B50" t="s">
-        <v>654</v>
-      </c>
-      <c r="C50" t="s">
-        <v>515</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>656</v>
-      </c>
-      <c r="B51" t="s">
-        <v>657</v>
-      </c>
-      <c r="C51" t="s">
-        <v>515</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="42.75">
-      <c r="A52" t="s">
-        <v>659</v>
-      </c>
-      <c r="B52" t="s">
-        <v>660</v>
-      </c>
-      <c r="C52" t="s">
-        <v>515</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="28.5">
-      <c r="A53" t="s">
-        <v>662</v>
-      </c>
-      <c r="B53" t="s">
-        <v>663</v>
-      </c>
-      <c r="C53" t="s">
-        <v>515</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>665</v>
-      </c>
-      <c r="B54" t="s">
-        <v>666</v>
-      </c>
-      <c r="C54" t="s">
-        <v>515</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>667</v>
-      </c>
-      <c r="B55" t="s">
-        <v>668</v>
-      </c>
-      <c r="C55" t="s">
-        <v>515</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>670</v>
-      </c>
-      <c r="B56" t="s">
-        <v>671</v>
-      </c>
-      <c r="C56" t="s">
-        <v>515</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>673</v>
-      </c>
-      <c r="B57" t="s">
-        <v>674</v>
-      </c>
-      <c r="C57" t="s">
-        <v>515</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>675</v>
-      </c>
-      <c r="B58" t="s">
-        <v>676</v>
-      </c>
-      <c r="C58" t="s">
-        <v>515</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="30.75">
-      <c r="A60" t="s">
-        <v>677</v>
-      </c>
-      <c r="B60" t="s">
-        <v>678</v>
-      </c>
-      <c r="C60" t="s">
-        <v>515</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="30.75">
-      <c r="A61" t="s">
-        <v>680</v>
-      </c>
-      <c r="B61" t="s">
-        <v>681</v>
-      </c>
-      <c r="C61" t="s">
-        <v>515</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>683</v>
-      </c>
-      <c r="B62" t="s">
-        <v>684</v>
-      </c>
-      <c r="C62" t="s">
-        <v>515</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>686</v>
-      </c>
-      <c r="B63" t="s">
-        <v>684</v>
-      </c>
-      <c r="C63" t="s">
-        <v>515</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>688</v>
-      </c>
-      <c r="B64" t="s">
-        <v>684</v>
-      </c>
-      <c r="C64" t="s">
-        <v>515</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>690</v>
-      </c>
-      <c r="B65" t="s">
-        <v>684</v>
-      </c>
-      <c r="C65" t="s">
-        <v>515</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>692</v>
-      </c>
-      <c r="B66" t="s">
-        <v>684</v>
-      </c>
-      <c r="C66" t="s">
-        <v>515</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>694</v>
-      </c>
-      <c r="B67" t="s">
-        <v>684</v>
-      </c>
-      <c r="C67" t="s">
-        <v>515</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>696</v>
-      </c>
-      <c r="B68" t="s">
-        <v>684</v>
-      </c>
-      <c r="C68" t="s">
-        <v>515</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>698</v>
-      </c>
-      <c r="B69" t="s">
-        <v>684</v>
-      </c>
-      <c r="C69" t="s">
-        <v>515</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>700</v>
-      </c>
-      <c r="B70" t="s">
-        <v>684</v>
-      </c>
-      <c r="C70" t="s">
-        <v>515</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>702</v>
-      </c>
-      <c r="B71" t="s">
-        <v>703</v>
-      </c>
-      <c r="C71" t="s">
-        <v>515</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>705</v>
-      </c>
-      <c r="B72" t="s">
-        <v>706</v>
-      </c>
-      <c r="C72" t="s">
-        <v>515</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>708</v>
-      </c>
-      <c r="B73" t="s">
-        <v>709</v>
-      </c>
-      <c r="C73" t="s">
-        <v>515</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>711</v>
-      </c>
-      <c r="B74" t="s">
-        <v>712</v>
-      </c>
-      <c r="C74" t="s">
-        <v>515</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="42.75">
-      <c r="A75" t="s">
-        <v>714</v>
-      </c>
-      <c r="B75" t="s">
-        <v>715</v>
-      </c>
-      <c r="C75" t="s">
-        <v>515</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="39.4">
-      <c r="A76" t="s">
-        <v>717</v>
-      </c>
-      <c r="B76" t="s">
-        <v>718</v>
-      </c>
-      <c r="C76" t="s">
-        <v>515</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="91.15">
-      <c r="A77" t="s">
-        <v>720</v>
-      </c>
-      <c r="B77" t="s">
-        <v>721</v>
-      </c>
-      <c r="C77" t="s">
-        <v>515</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>723</v>
-      </c>
-      <c r="B78" t="s">
-        <v>724</v>
-      </c>
-      <c r="C78" t="s">
-        <v>515</v>
-      </c>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" ht="57.2">
-      <c r="A79" t="s">
-        <v>725</v>
-      </c>
-      <c r="B79" t="s">
-        <v>726</v>
-      </c>
-      <c r="C79" t="s">
-        <v>515</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="57.2">
-      <c r="A80" t="s">
-        <v>728</v>
-      </c>
-      <c r="B80" t="s">
-        <v>729</v>
-      </c>
-      <c r="C80" t="s">
-        <v>515</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="128.44999999999999">
-      <c r="A81" t="s">
-        <v>731</v>
-      </c>
-      <c r="B81" t="s">
-        <v>732</v>
-      </c>
-      <c r="C81" t="s">
-        <v>515</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="28.5">
-      <c r="A82" t="s">
-        <v>734</v>
-      </c>
-      <c r="B82" t="s">
-        <v>735</v>
-      </c>
-      <c r="C82" t="s">
-        <v>515</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="57.2">
-      <c r="A83" t="s">
-        <v>737</v>
-      </c>
-      <c r="B83" t="s">
-        <v>738</v>
-      </c>
-      <c r="C83" t="s">
-        <v>515</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="57.2">
-      <c r="A84" t="s">
-        <v>740</v>
-      </c>
-      <c r="B84" t="s">
-        <v>741</v>
-      </c>
-      <c r="C84" t="s">
-        <v>515</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>743</v>
-      </c>
-      <c r="B85" t="s">
-        <v>744</v>
-      </c>
-      <c r="C85" t="s">
-        <v>515</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="42.75">
-      <c r="A86" t="s">
-        <v>746</v>
-      </c>
-      <c r="B86" t="s">
-        <v>747</v>
-      </c>
-      <c r="C86" t="s">
-        <v>515</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>749</v>
-      </c>
-      <c r="B87" t="s">
-        <v>750</v>
-      </c>
-      <c r="C87" t="s">
-        <v>515</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>752</v>
-      </c>
-      <c r="B88" t="s">
-        <v>753</v>
-      </c>
-      <c r="C88" t="s">
-        <v>515</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>755</v>
-      </c>
-      <c r="B89" t="s">
-        <v>756</v>
-      </c>
-      <c r="C89" t="s">
-        <v>515</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="28.5">
-      <c r="A90" t="s">
-        <v>758</v>
-      </c>
-      <c r="B90" t="s">
-        <v>759</v>
-      </c>
-      <c r="C90" t="s">
-        <v>515</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>761</v>
-      </c>
-      <c r="B91" t="s">
-        <v>762</v>
-      </c>
-      <c r="C91" t="s">
-        <v>515</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>764</v>
-      </c>
-      <c r="B92" t="s">
-        <v>765</v>
-      </c>
-      <c r="C92" t="s">
-        <v>515</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="85.7">
-      <c r="A93" t="s">
-        <v>767</v>
-      </c>
-      <c r="B93" t="s">
-        <v>768</v>
-      </c>
-      <c r="C93" t="s">
-        <v>515</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="28.5">
-      <c r="A94" t="s">
-        <v>770</v>
-      </c>
-      <c r="B94" t="s">
-        <v>771</v>
-      </c>
-      <c r="C94" t="s">
-        <v>515</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15"/>
+        <v>609</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10160,14 +9064,14 @@
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="3" max="4" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="62.375" customWidth="1"/>
+    <col min="3" max="4" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>365</v>
       </c>
@@ -10437,13 +9341,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E58BEAF-C168-4A50-BC01-2C2CE605BA70}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E58BEAF-C168-4A50-BC01-2C2CE605BA70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d9de82e3-6650-437c-811c-4330ac3163a7"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="352660e0-d3e8-47c6-9ec5-fea43b473253"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99401450-4116-472E-9386-888FD56A9AF4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99401450-4116-472E-9386-888FD56A9AF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="352660e0-d3e8-47c6-9ec5-fea43b473253"/>
+    <ds:schemaRef ds:uri="d9de82e3-6650-437c-811c-4330ac3163a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A2FCDB-4CEB-4560-BC24-5417B97B9546}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A2FCDB-4CEB-4560-BC24-5417B97B9546}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/metadata/rpharma_specs.xlsx
+++ b/metadata/rpharma_specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bs832471\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E70ECA0-A6E3-4E6A-8982-227BAC6444F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B98A449-98E4-4220-B30A-9F1FB27BB831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14305" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14305" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="574">
   <si>
     <t>Attribute</t>
   </si>
@@ -1007,18 +1007,27 @@
     <t>Analysis Value</t>
   </si>
   <si>
+    <t>ADVS.AVAL</t>
+  </si>
+  <si>
     <t>AVALU</t>
   </si>
   <si>
     <t>Analysis Value Unit</t>
   </si>
   <si>
+    <t>ADVS.AVALU</t>
+  </si>
+  <si>
     <t>AVALCAT1</t>
   </si>
   <si>
     <t>Analysis Value Category 1</t>
   </si>
   <si>
+    <t>ADVS.AVALCAT1</t>
+  </si>
+  <si>
     <t>AVALCA1N</t>
   </si>
   <si>
@@ -1031,130 +1040,196 @@
     <t>Baseline Value</t>
   </si>
   <si>
+    <t>ADVS.BASE</t>
+  </si>
+  <si>
     <t>BASETYPE</t>
   </si>
   <si>
     <t>Baseline Type</t>
   </si>
   <si>
+    <t>ADVS.BASETYPE</t>
+  </si>
+  <si>
     <t>ABLFL</t>
   </si>
   <si>
     <t>Baseline Record Flag</t>
   </si>
   <si>
+    <t>ADVS.ABLFL</t>
+  </si>
+  <si>
     <t>CHG</t>
   </si>
   <si>
     <t>Change from Baseline</t>
   </si>
   <si>
+    <t>ADVS.CHG</t>
+  </si>
+  <si>
     <t>PCHG</t>
   </si>
   <si>
     <t>Percent Change from Baseline</t>
   </si>
   <si>
+    <t>ADVS.PCHG</t>
+  </si>
+  <si>
     <t>DTYPE</t>
   </si>
   <si>
     <t>Derivation Type</t>
   </si>
   <si>
+    <t>ADVS.DTYPE</t>
+  </si>
+  <si>
     <t>ANRHI</t>
   </si>
   <si>
     <t>Analysis Normal Range Upper Limit</t>
   </si>
   <si>
+    <t>ADVS.ANRHI</t>
+  </si>
+  <si>
     <t>ANRLO</t>
   </si>
   <si>
     <t>Analysis Normal Range Lower Limit</t>
   </si>
   <si>
+    <t>ADVS.ANRLO</t>
+  </si>
+  <si>
     <t>ANRIND</t>
   </si>
   <si>
     <t>Analysis Reference Range Indicator</t>
   </si>
   <si>
+    <t>ADVS.ANRIND</t>
+  </si>
+  <si>
     <t>BNRIND</t>
   </si>
   <si>
     <t>Baseline Reference Range Indicator</t>
   </si>
   <si>
+    <t>ADVS.BNRIND</t>
+  </si>
+  <si>
     <t>A1HI</t>
   </si>
   <si>
     <t>Analysis Range 1 Upper Limit (Marked)</t>
   </si>
   <si>
+    <t>ADVS.A1HI</t>
+  </si>
+  <si>
     <t>A1LO</t>
   </si>
   <si>
     <t>Analysis Range 1 Lower Limit (Marked)</t>
   </si>
   <si>
+    <t>ADVS.A1LO</t>
+  </si>
+  <si>
     <t>ADT</t>
   </si>
   <si>
     <t>Analysis Date</t>
   </si>
   <si>
+    <t>ADVS.ADT</t>
+  </si>
+  <si>
     <t>ADY</t>
   </si>
   <si>
     <t>Analysis Relative Day</t>
   </si>
   <si>
+    <t>ADVS.ADY</t>
+  </si>
+  <si>
     <t>ATPT</t>
   </si>
   <si>
     <t>Analysis Timepoint</t>
   </si>
   <si>
+    <t>ADVS.ATPT</t>
+  </si>
+  <si>
     <t>ATPTN</t>
   </si>
   <si>
     <t>Analysis Timepoint (N)</t>
   </si>
   <si>
+    <t>ADVS.ATPTN</t>
+  </si>
+  <si>
     <t>AVISIT</t>
   </si>
   <si>
     <t>Analysis Visit</t>
   </si>
   <si>
+    <t>ADVS.AVISIT</t>
+  </si>
+  <si>
     <t>AVISITN</t>
   </si>
   <si>
     <t>Analysis Visit (N)</t>
   </si>
   <si>
+    <t>ADVS.AVISITN</t>
+  </si>
+  <si>
     <t>TRTP</t>
   </si>
   <si>
     <t>Planned Treatment</t>
   </si>
   <si>
+    <t>ADVS.TRTP</t>
+  </si>
+  <si>
     <t>TRTA</t>
   </si>
   <si>
     <t>Actual Treatment</t>
   </si>
   <si>
+    <t>ADVS.TRTA</t>
+  </si>
+  <si>
     <t>ONTRTFL</t>
   </si>
   <si>
     <t>On Treatment Record Flag</t>
   </si>
   <si>
+    <t>ADVS.ONTRTFL</t>
+  </si>
+  <si>
     <t>ANL01FL</t>
   </si>
   <si>
     <t>Analysis Flag 01 Baseline Post-Baseline</t>
+  </si>
+  <si>
+    <t>ADVS.ANL01FL</t>
   </si>
   <si>
     <t>Where Clause</t>
@@ -1519,100 +1594,58 @@
 else set to 'BMI', or 'BSA' or ' MAP'</t>
   </si>
   <si>
-    <t>ADVS.AVAL where ADVS.PARAMCD = "PULSE"</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.AVAL</t>
   </si>
   <si>
     <t>Numeric Result/Finding in Standard Units [VS.VSSTRESN] where Vitals Test or Examination Name [VS.VSTEST]='Pulse Rate' for any Vitals Position [VS.VSPOS]</t>
   </si>
   <si>
-    <t>ADVS.AVAL where ADVS.PARAMCD = "TEMP"</t>
-  </si>
-  <si>
     <t>Numeric Result/Finding in Standard Units [VS.VSSTRESN] where Vitals Test or Examination Name [VS.VSTEST]='Temperature'</t>
   </si>
   <si>
-    <t>ADVS.AVAL where ADVS.PARAMCD = "WEIGHT"</t>
-  </si>
-  <si>
     <t>Numeric Result/Finding in Standard Units [VS.VSSTRESN] where Vitals Test or Examination Name [VS.VSTEST]='Weight'</t>
   </si>
   <si>
-    <t>ADVS.AVAL where ADVS.PARAMCD = "SYSBP"</t>
-  </si>
-  <si>
     <t>Numeric Result/Finding in Standard Units [VS.VSSTRESN] where Vitals Test or Examination Name [VS.VSTEST]='Systolic Blood Pressure' for any Vitals Position [VS.VSPOS]</t>
   </si>
   <si>
-    <t>ADVS.AVAL where ADVS.PARAMCD = "DIABP"</t>
-  </si>
-  <si>
     <t>Numeric Result/Finding in Standard Units [VS.VSSTRESN] where Vitals Test or Examination Name [VS.VSTEST]='Diastolic Blood Pressure' for any Vitals Position [VS.VSPOS]</t>
   </si>
   <si>
-    <t>ADVS.AVAL where ADVS.PARAMCD = "HEIGHT"</t>
-  </si>
-  <si>
     <t>Numeric Result/Finding in Standard Units [VS.VSSTRESN] where Vitals Test or Examination Name [VS.VSTEST]='Height'</t>
   </si>
   <si>
-    <t>ADVS.AVAL where ADVS.PARAMCD = "BMI"</t>
-  </si>
-  <si>
     <t xml:space="preserve">BMI: Set to (Weight (kg)) / (Height (cm)^2) </t>
   </si>
   <si>
-    <t>ADVS.AVAL where ADVS.PARAMCD = "BSA"</t>
-  </si>
-  <si>
     <t>BSA (Mosteller): set to sqrt(Height (cm) * Weight (kg) / 3600)</t>
   </si>
   <si>
-    <t>ADVS.AVAL where ADVS.PARAMCD = "MAP"</t>
-  </si>
-  <si>
     <t>MAP : Set to (2*(Diastolic Blood Pressure)+ Systolic Blood Pressure)/3</t>
   </si>
   <si>
-    <t>ADVS.AVALU</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.AVALU</t>
   </si>
   <si>
     <t>Set to VS.VSSTRESU</t>
   </si>
   <si>
-    <t>ADVS.AVALCAT1</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.AVALCAT1</t>
   </si>
   <si>
     <t>Set to null</t>
   </si>
   <si>
-    <t>ADVS.BASE</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.BASE</t>
   </si>
   <si>
     <t>Set to analysis value [ADVS.AVAL] identified as baseline (Baseline Record Flag [ADVS.ABLFL] = 'Y') for each subject [ADVS.USUBJID] and parameter [ADVS.PARAMCD] and baseline type [ADVS.BASETYPE]</t>
   </si>
   <si>
-    <t>ADVS.BASETYPE</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.BASETYPE</t>
   </si>
   <si>
     <t>Set to 'LAST'</t>
-  </si>
-  <si>
-    <t>ADVS.ABLFL</t>
   </si>
   <si>
     <t>Algorithm for ADVS.ABLFL</t>
@@ -1622,17 +1655,11 @@
 Else set to null</t>
   </si>
   <si>
-    <t>ADVS.CHG</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.CHG</t>
   </si>
   <si>
     <t>Set to Analysis Value [ADVS.AVAL] minus Baseline Value [ADVS.BASE]
 Populate only post-baseline records, ie. ADVS.AVISIT is not equal to the values 'BASELINE' or 'PRE-BASELINE' and is not missing (using ADVS.ADVISITN: not missing and greater than 0)</t>
-  </si>
-  <si>
-    <t>ADVS.PCHG</t>
   </si>
   <si>
     <t>Algorithm for ADVS.PCHG</t>
@@ -1645,13 +1672,7 @@
 Note: If Change from Baseline [CHG] is negative, then Percentage Change from Baseline [PCHG] will be negative as well.</t>
   </si>
   <si>
-    <t>ADVS.DTYPE</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.DTYPE</t>
-  </si>
-  <si>
-    <t>ADVS.ANRHI</t>
   </si>
   <si>
     <t>Algorithm for ADVS.ANRHI</t>
@@ -1663,9 +1684,6 @@
 else for ADVS.PARAMCD = 'TEMP' set to 37.5</t>
   </si>
   <si>
-    <t>ADVS.ANRLO</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.ANRLO</t>
   </si>
   <si>
@@ -1673,9 +1691,6 @@
 else for ADVS.PARAMCD = 'DIABP' set to 60,
 else for ADVS.PARAMCD = 'PULSE' set to 60, 
 else for ADVS.PARAMCD = 'TEMP' set to 36.5</t>
-  </si>
-  <si>
-    <t>ADVS.ANRIND</t>
   </si>
   <si>
     <t>Algorithm for ADVS.ANRIND</t>
@@ -1688,16 +1703,10 @@
 Else set to 'HIGH HIGH' if  analysis value [ADVS.AVAL] is greater than the marked abnormality upper limit [ADVS.A1HI] if it exists</t>
   </si>
   <si>
-    <t>ADVS.BNRIND</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.BNRIND</t>
   </si>
   <si>
     <t>Analysis Reference Range Indicator [ADVS.ANRIND] of the baseline observation identified by Baseline Observation Flag [ADVS.ABLFL]= 'Y' for each subject [ADVS.USUBJID] and parameter [ADVS.PARAMCD] and baseline type [ADVS.BASETYPE]</t>
-  </si>
-  <si>
-    <t>ADVS.A1HI</t>
   </si>
   <si>
     <t>Algorithm for ADVS.A1HI</t>
@@ -1709,9 +1718,6 @@
 else for ADVS.PARAMCD = 'TEMP' set to 38</t>
   </si>
   <si>
-    <t>ADVS.A1LO</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.A1LO</t>
   </si>
   <si>
@@ -1721,16 +1727,10 @@
 else for ADVS.PARAMCD = 'TEMP' set to  35</t>
   </si>
   <si>
-    <t>ADVS.ADT</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.ADT</t>
   </si>
   <si>
     <t>Set to date part of Date/Time of Measurements [VS.VSDTC] converted to numeric date.</t>
-  </si>
-  <si>
-    <t>ADVS.ADY</t>
   </si>
   <si>
     <t>Algorithm for ADVS.ADY</t>
@@ -1741,34 +1741,22 @@
 Else set to null, if Analysis Date [ADVS.ADT] or Date of First Exposure to Treatment [ADSL.TRTSDT] is missing</t>
   </si>
   <si>
-    <t>ADVS.ATPT</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.ATPT</t>
   </si>
   <si>
     <t>Set to Planned Time Point Name [VS.VSTPT]</t>
   </si>
   <si>
-    <t>ADVS.ATPTN</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.ATPTN</t>
   </si>
   <si>
     <t>Set to the Analysis Timepoint number associated with Analysis Timepoint [ADVS.ATPT] (usually Planned Time Point Name [VS.VSTPTNUM])</t>
   </si>
   <si>
-    <t>ADVS.AVISIT</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.AVISIT</t>
   </si>
   <si>
     <t>Title case the collected visit name [VS.VISIT] when it does not contains ('SCREEN', 'UNSCHED', 'RETRIEVAL', AMBUL')</t>
-  </si>
-  <si>
-    <t>ADVS.AVISITN</t>
   </si>
   <si>
     <t>Algorithm for ADVS.AVISITN</t>
@@ -1778,25 +1766,16 @@
 else keep the numeric part of ADVS.AVISIT</t>
   </si>
   <si>
-    <t>ADVS.TRTP</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.TRTP</t>
   </si>
   <si>
     <t>Set to Planned Treatment for Period 01 [ADSL.TRT01P]</t>
   </si>
   <si>
-    <t>ADVS.TRTA</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.TRTA</t>
   </si>
   <si>
     <t xml:space="preserve">Set to Actual Treatment for Period 01 [ADSL.TRT01A] </t>
-  </si>
-  <si>
-    <t>ADVS.ONTRTFL</t>
   </si>
   <si>
     <t>Algorithm for ADVS.ONTRTFL</t>
@@ -1808,9 +1787,6 @@
 Else set to null if Analysis Visit [ADVS.AVISIT] contains 'Baseline'
 Else set to null if Analysis Datetime [ADVS.ADT] &gt; Datetime of Last Exposure to Treatment [ADSL.TRTEDT]
 Else set to 'Y'</t>
-  </si>
-  <si>
-    <t>ADVS.ANL01FL</t>
   </si>
   <si>
     <t>Algorithm for ADVS.ANL01FL</t>
@@ -2343,24 +2319,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C2" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -2475,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129AE431-5806-471D-9C82-A144A32316F7}">
   <dimension ref="A1:S128"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="O97" sqref="O97:O122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5543,7 +5519,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15">
+    <row r="97" spans="1:15" ht="15">
       <c r="A97" s="4">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -5567,8 +5543,11 @@
       <c r="M97" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="15">
+      <c r="O97" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="15">
       <c r="A98" s="4">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -5577,10 +5556,10 @@
         <v>19</v>
       </c>
       <c r="C98" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D98" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E98" t="s">
         <v>48</v>
@@ -5592,8 +5571,11 @@
       <c r="M98" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="15">
+      <c r="O98" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="15">
       <c r="A99" s="4">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -5602,10 +5584,10 @@
         <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D99" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E99" t="s">
         <v>48</v>
@@ -5617,8 +5599,11 @@
       <c r="M99" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="15">
+      <c r="O99" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="15">
       <c r="A100" s="4">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -5627,10 +5612,10 @@
         <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D100" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E100" t="s">
         <v>69</v>
@@ -5643,7 +5628,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15">
+    <row r="101" spans="1:15" ht="15">
       <c r="A101" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -5652,10 +5637,10 @@
         <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D101" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E101" t="s">
         <v>210</v>
@@ -5667,8 +5652,11 @@
       <c r="M101" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="15">
+      <c r="O101" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="15">
       <c r="A102" s="4">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -5677,10 +5665,10 @@
         <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D102" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E102" t="s">
         <v>48</v>
@@ -5692,8 +5680,11 @@
       <c r="M102" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="15">
+      <c r="O102" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="15">
       <c r="A103" s="4">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -5702,10 +5693,10 @@
         <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D103" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E103" t="s">
         <v>48</v>
@@ -5720,8 +5711,11 @@
       <c r="M103" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="15">
+      <c r="O103" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="15">
       <c r="A104" s="4">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -5730,10 +5724,10 @@
         <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D104" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E104" t="s">
         <v>210</v>
@@ -5745,8 +5739,11 @@
       <c r="M104" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="15">
+      <c r="O104" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="15">
       <c r="A105" s="4">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -5755,10 +5752,10 @@
         <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="D105" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E105" t="s">
         <v>210</v>
@@ -5770,8 +5767,11 @@
       <c r="M105" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="15">
+      <c r="O105" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="15">
       <c r="A106" s="4">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -5780,10 +5780,10 @@
         <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D106" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="E106" t="s">
         <v>48</v>
@@ -5795,8 +5795,11 @@
       <c r="M106" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="15">
+      <c r="O106" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="15">
       <c r="A107" s="4">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -5805,10 +5808,10 @@
         <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D107" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E107" t="s">
         <v>210</v>
@@ -5820,8 +5823,11 @@
       <c r="M107" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="15">
+      <c r="O107" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="15">
       <c r="A108" s="4">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -5830,10 +5836,10 @@
         <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D108" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="E108" t="s">
         <v>210</v>
@@ -5845,8 +5851,11 @@
       <c r="M108" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="15">
+      <c r="O108" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="15">
       <c r="A109" s="4">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -5855,10 +5864,10 @@
         <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="D109" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="E109" t="s">
         <v>48</v>
@@ -5870,8 +5879,11 @@
       <c r="M109" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" ht="15">
+      <c r="O109" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="15">
       <c r="A110" s="4">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -5880,10 +5892,10 @@
         <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="D110" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="E110" t="s">
         <v>48</v>
@@ -5895,8 +5907,11 @@
       <c r="M110" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="15">
+      <c r="O110" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="15">
       <c r="A111" s="4">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -5905,10 +5920,10 @@
         <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="D111" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="E111" t="s">
         <v>210</v>
@@ -5920,8 +5935,11 @@
       <c r="M111" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="15">
+      <c r="O111" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="15">
       <c r="A112" s="4">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -5930,10 +5948,10 @@
         <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="D112" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="E112" t="s">
         <v>210</v>
@@ -5945,8 +5963,11 @@
       <c r="M112" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" ht="15">
+      <c r="O112" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="15">
       <c r="A113" s="4">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -5955,10 +5976,10 @@
         <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="D113" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="E113" t="s">
         <v>69</v>
@@ -5970,8 +5991,11 @@
       <c r="M113" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="15">
+      <c r="O113" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="15">
       <c r="A114" s="4">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -5980,10 +6004,10 @@
         <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="D114" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="E114" t="s">
         <v>69</v>
@@ -5995,8 +6019,11 @@
       <c r="M114" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" ht="15">
+      <c r="O114" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="15">
       <c r="A115" s="4">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -6005,10 +6032,10 @@
         <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="D115" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="E115" t="s">
         <v>48</v>
@@ -6020,8 +6047,11 @@
       <c r="M115" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" ht="15">
+      <c r="O115" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="15">
       <c r="A116" s="4">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -6030,10 +6060,10 @@
         <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="D116" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="E116" t="s">
         <v>69</v>
@@ -6045,8 +6075,11 @@
       <c r="M116" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" ht="15">
+      <c r="O116" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="15">
       <c r="A117" s="4">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -6055,10 +6088,10 @@
         <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="D117" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="E117" t="s">
         <v>48</v>
@@ -6070,8 +6103,11 @@
       <c r="M117" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" ht="15">
+      <c r="O117" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="15">
       <c r="A118" s="4">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -6080,10 +6116,10 @@
         <v>19</v>
       </c>
       <c r="C118" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="D118" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="E118" t="s">
         <v>69</v>
@@ -6095,8 +6131,11 @@
       <c r="M118" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" ht="15">
+      <c r="O118" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="15">
       <c r="A119" s="4">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -6105,10 +6144,10 @@
         <v>19</v>
       </c>
       <c r="C119" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="D119" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="E119" t="s">
         <v>48</v>
@@ -6120,8 +6159,11 @@
       <c r="M119" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" ht="15">
+      <c r="O119" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="15">
       <c r="A120" s="4">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -6130,10 +6172,10 @@
         <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="D120" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="E120" t="s">
         <v>48</v>
@@ -6145,8 +6187,11 @@
       <c r="M120" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" ht="15">
+      <c r="O120" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="15">
       <c r="A121" s="4">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -6155,10 +6200,10 @@
         <v>19</v>
       </c>
       <c r="C121" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="D121" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="E121" t="s">
         <v>48</v>
@@ -6173,8 +6218,11 @@
       <c r="M121" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" ht="15">
+      <c r="O121" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="15">
       <c r="A122" s="4">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -6183,10 +6231,10 @@
         <v>19</v>
       </c>
       <c r="C122" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="D122" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="E122" t="s">
         <v>48</v>
@@ -6201,13 +6249,16 @@
       <c r="M122" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" ht="15"/>
-    <row r="124" spans="1:13" ht="15"/>
-    <row r="125" spans="1:13" ht="15"/>
-    <row r="126" spans="1:13" ht="15"/>
-    <row r="127" spans="1:13" ht="15"/>
-    <row r="128" spans="1:13" ht="15"/>
+      <c r="O122" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="15"/>
+    <row r="124" spans="1:15" ht="15"/>
+    <row r="125" spans="1:15" ht="15"/>
+    <row r="126" spans="1:15" ht="15"/>
+    <row r="127" spans="1:15" ht="15"/>
+    <row r="128" spans="1:15" ht="15"/>
   </sheetData>
   <autoFilter ref="A1:S122" xr:uid="{129AE431-5806-471D-9C82-A144A32316F7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6253,7 +6304,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -6322,8 +6373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBC456A-1389-4826-89DD-7A3DE90BCF75}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6338,13 +6389,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -6353,13 +6404,13 @@
         <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6376,7 +6427,7 @@
         <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6390,10 +6441,10 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F3" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6410,7 +6461,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6427,7 +6478,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6444,7 +6495,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6464,7 +6515,7 @@
         <v>127</v>
       </c>
       <c r="H7" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6478,13 +6529,13 @@
         <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F8" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="H8" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6504,7 +6555,7 @@
         <v>232</v>
       </c>
       <c r="H9" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6518,13 +6569,13 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="F10" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="H10" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6544,7 +6595,7 @@
         <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6552,10 +6603,10 @@
         <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="C12" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -6564,10 +6615,10 @@
         <v>127</v>
       </c>
       <c r="F12" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="G12" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6575,22 +6626,22 @@
         <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="C13" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F13" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="G13" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6598,10 +6649,10 @@
         <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="C14" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
@@ -6610,18 +6661,18 @@
         <v>232</v>
       </c>
       <c r="F14" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="G14" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="B15" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -6630,18 +6681,18 @@
         <v>127</v>
       </c>
       <c r="F15" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="H15" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="B16" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
@@ -6650,24 +6701,24 @@
         <v>127</v>
       </c>
       <c r="F16" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="B17" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F17" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6678,7 +6729,7 @@
         <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="D18" t="s">
         <v>48</v>
@@ -6687,10 +6738,10 @@
         <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="G18" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6701,19 +6752,19 @@
         <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="D19" t="s">
         <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F19" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="G19" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6724,7 +6775,7 @@
         <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="D20" t="s">
         <v>48</v>
@@ -6733,10 +6784,10 @@
         <v>232</v>
       </c>
       <c r="F20" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="G20" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6747,7 +6798,7 @@
         <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
@@ -6756,10 +6807,10 @@
         <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="G21" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6770,7 +6821,7 @@
         <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
@@ -6779,7 +6830,7 @@
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6799,7 +6850,7 @@
         <v>127</v>
       </c>
       <c r="H23" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6813,13 +6864,13 @@
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F24" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="H24" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6839,7 +6890,7 @@
         <v>232</v>
       </c>
       <c r="H25" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6853,13 +6904,13 @@
         <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="F26" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="H26" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6879,48 +6930,48 @@
         <v>61</v>
       </c>
       <c r="H27" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="B28" t="s">
         <v>112</v>
       </c>
       <c r="F28" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="B29" t="s">
         <v>112</v>
       </c>
       <c r="F29" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="B30" t="s">
         <v>112</v>
       </c>
       <c r="F30" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="H30" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="B31" t="s">
         <v>114</v>
@@ -6929,12 +6980,12 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="B32" t="s">
         <v>114</v>
@@ -6943,12 +6994,12 @@
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="B33" t="s">
         <v>114</v>
@@ -6965,7 +7016,7 @@
         <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
@@ -6974,13 +7025,13 @@
         <v>127</v>
       </c>
       <c r="F34" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="G34" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="H34" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6991,22 +7042,22 @@
         <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F35" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="G35" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="H35" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -7017,7 +7068,7 @@
         <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="D36" t="s">
         <v>48</v>
@@ -7026,13 +7077,13 @@
         <v>232</v>
       </c>
       <c r="F36" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="G36" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="H36" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7043,22 +7094,22 @@
         <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="D37" t="s">
         <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="F37" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="G37" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="H37" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7066,7 +7117,7 @@
         <v>155</v>
       </c>
       <c r="B38" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="D38" t="s">
         <v>48</v>
@@ -7075,7 +7126,7 @@
         <v>127</v>
       </c>
       <c r="F38" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7083,16 +7134,16 @@
         <v>155</v>
       </c>
       <c r="B39" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="D39" t="s">
         <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F39" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7100,16 +7151,16 @@
         <v>155</v>
       </c>
       <c r="B40" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="D40" t="s">
         <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="F40" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7117,7 +7168,7 @@
         <v>159</v>
       </c>
       <c r="B41" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="D41" t="s">
         <v>69</v>
@@ -7129,7 +7180,7 @@
         <v>127</v>
       </c>
       <c r="H41" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7137,19 +7188,19 @@
         <v>159</v>
       </c>
       <c r="B42" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="D42" t="s">
         <v>69</v>
       </c>
       <c r="E42" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F42" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="H42" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7157,30 +7208,30 @@
         <v>159</v>
       </c>
       <c r="B43" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="D43" t="s">
         <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="F43" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="H43" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="B44" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="C44" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
@@ -7189,10 +7240,10 @@
         <v>127</v>
       </c>
       <c r="F44" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="G44" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="H44" t="s">
         <v>25</v>
@@ -7200,39 +7251,39 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="B45" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="C45" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F45" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="G45" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="H45" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="B46" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="C46" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -7241,36 +7292,36 @@
         <v>232</v>
       </c>
       <c r="F46" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="G46" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="H46" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="B47" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="C47" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="F47" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="G47" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="H47" t="s">
         <v>24</v>
@@ -7281,10 +7332,10 @@
         <v>193</v>
       </c>
       <c r="B48" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="C48" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
@@ -7293,7 +7344,7 @@
         <v>127</v>
       </c>
       <c r="F48" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="H48" t="s">
         <v>24</v>
@@ -7304,7 +7355,7 @@
         <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
@@ -7313,10 +7364,10 @@
         <v>127</v>
       </c>
       <c r="F49" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="G49" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="H49" t="s">
         <v>24</v>
@@ -7327,19 +7378,19 @@
         <v>122</v>
       </c>
       <c r="B50" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="D50" t="s">
         <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F50" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="G50" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="H50" t="s">
         <v>25</v>
@@ -7347,13 +7398,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="B51" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="C51" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
@@ -7362,7 +7413,7 @@
         <v>127</v>
       </c>
       <c r="F51" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7373,7 +7424,7 @@
         <v>307</v>
       </c>
       <c r="C52" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
@@ -7382,10 +7433,10 @@
         <v>127</v>
       </c>
       <c r="F52" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="G52" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7396,19 +7447,19 @@
         <v>307</v>
       </c>
       <c r="C53" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
       </c>
       <c r="E53" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F53" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="G53" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7419,7 +7470,7 @@
         <v>307</v>
       </c>
       <c r="C54" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D54" t="s">
         <v>48</v>
@@ -7428,10 +7479,10 @@
         <v>232</v>
       </c>
       <c r="F54" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="G54" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7442,19 +7493,19 @@
         <v>307</v>
       </c>
       <c r="C55" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="F55" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="G55" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7465,7 +7516,7 @@
         <v>307</v>
       </c>
       <c r="C56" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D56" t="s">
         <v>48</v>
@@ -7474,10 +7525,10 @@
         <v>61</v>
       </c>
       <c r="F56" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="G56" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7488,7 +7539,7 @@
         <v>307</v>
       </c>
       <c r="C57" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D57" t="s">
         <v>48</v>
@@ -7497,10 +7548,10 @@
         <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="G57" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7511,19 +7562,19 @@
         <v>307</v>
       </c>
       <c r="C58" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="F58" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="G58" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7534,7 +7585,7 @@
         <v>307</v>
       </c>
       <c r="C59" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D59" t="s">
         <v>48</v>
@@ -7543,10 +7594,10 @@
         <v>79</v>
       </c>
       <c r="F59" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="G59" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7557,19 +7608,19 @@
         <v>307</v>
       </c>
       <c r="C60" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D60" t="s">
         <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="F60" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="G60" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7580,7 +7631,7 @@
         <v>313</v>
       </c>
       <c r="C61" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="D61" t="s">
         <v>48</v>
@@ -7589,10 +7640,10 @@
         <v>127</v>
       </c>
       <c r="F61" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="G61" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7603,19 +7654,19 @@
         <v>313</v>
       </c>
       <c r="C62" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="D62" t="s">
         <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F62" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="G62" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7626,7 +7677,7 @@
         <v>313</v>
       </c>
       <c r="C63" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="D63" t="s">
         <v>48</v>
@@ -7635,10 +7686,10 @@
         <v>232</v>
       </c>
       <c r="F63" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="G63" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7649,19 +7700,19 @@
         <v>313</v>
       </c>
       <c r="C64" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
       </c>
       <c r="E64" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="F64" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="G64" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7672,7 +7723,7 @@
         <v>313</v>
       </c>
       <c r="C65" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="D65" t="s">
         <v>48</v>
@@ -7681,10 +7732,10 @@
         <v>61</v>
       </c>
       <c r="F65" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="G65" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7695,7 +7746,7 @@
         <v>313</v>
       </c>
       <c r="C66" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="D66" t="s">
         <v>48</v>
@@ -7704,10 +7755,10 @@
         <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="G66" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7718,19 +7769,19 @@
         <v>313</v>
       </c>
       <c r="C67" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="D67" t="s">
         <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="F67" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="G67" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7741,7 +7792,7 @@
         <v>313</v>
       </c>
       <c r="C68" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="D68" t="s">
         <v>48</v>
@@ -7750,10 +7801,10 @@
         <v>79</v>
       </c>
       <c r="F68" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="G68" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7764,19 +7815,19 @@
         <v>313</v>
       </c>
       <c r="C69" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="D69" t="s">
         <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="F69" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="G69" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7796,7 +7847,7 @@
         <v>127</v>
       </c>
       <c r="H70" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7810,13 +7861,13 @@
         <v>69</v>
       </c>
       <c r="E71" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F71" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="H71" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7836,7 +7887,7 @@
         <v>232</v>
       </c>
       <c r="H72" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7850,13 +7901,13 @@
         <v>69</v>
       </c>
       <c r="E73" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="F73" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="H73" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7876,7 +7927,7 @@
         <v>61</v>
       </c>
       <c r="H74" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7896,7 +7947,7 @@
         <v>49</v>
       </c>
       <c r="H75" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7910,13 +7961,13 @@
         <v>69</v>
       </c>
       <c r="E76" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="F76" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="H76" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7936,7 +7987,7 @@
         <v>79</v>
       </c>
       <c r="H77" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7950,13 +8001,13 @@
         <v>69</v>
       </c>
       <c r="E78" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="F78" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="H78" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -7984,70 +8035,70 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="B2" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="C2" t="s">
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="E2" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="E3" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="B4" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="E4" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -8060,8 +8111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A27F77-A36A-4B0F-AB98-73EE4727DE22}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8074,25 +8125,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>42</v>
@@ -8100,375 +8151,375 @@
     </row>
     <row r="2" spans="1:8" ht="30.75">
       <c r="A2" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="B2" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="C2" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30.75">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="C3" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>487</v>
+        <v>317</v>
       </c>
       <c r="B4" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="C4" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>490</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="C5" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>492</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="C6" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>494</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="C7" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>496</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="C8" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>498</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="C9" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>500</v>
+        <v>317</v>
       </c>
       <c r="B10" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="C10" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>502</v>
+        <v>317</v>
       </c>
       <c r="B11" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="C11" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>504</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="C12" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>320</v>
       </c>
       <c r="B13" t="s">
+        <v>522</v>
+      </c>
+      <c r="C13" t="s">
         <v>507</v>
       </c>
-      <c r="C13" t="s">
-        <v>482</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>509</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="C14" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>328</v>
       </c>
       <c r="B15" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="C15" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>515</v>
+        <v>331</v>
       </c>
       <c r="B16" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="C16" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="42.75">
       <c r="A17" t="s">
-        <v>518</v>
+        <v>334</v>
       </c>
       <c r="B17" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="C17" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.4">
       <c r="A18" t="s">
-        <v>521</v>
+        <v>337</v>
       </c>
       <c r="B18" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="C18" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="91.15">
       <c r="A19" t="s">
-        <v>524</v>
+        <v>340</v>
       </c>
       <c r="B19" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="C19" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>527</v>
+        <v>343</v>
       </c>
       <c r="B20" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C20" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="57.2">
       <c r="A21" t="s">
-        <v>529</v>
+        <v>346</v>
       </c>
       <c r="B21" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C21" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="57.2">
       <c r="A22" t="s">
-        <v>532</v>
+        <v>349</v>
       </c>
       <c r="B22" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C22" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="128.44999999999999">
       <c r="A23" t="s">
-        <v>535</v>
+        <v>352</v>
       </c>
       <c r="B23" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C23" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.5">
       <c r="A24" t="s">
-        <v>538</v>
+        <v>355</v>
       </c>
       <c r="B24" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C24" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="57.2">
       <c r="A25" t="s">
-        <v>541</v>
+        <v>358</v>
       </c>
       <c r="B25" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C25" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="57.2">
       <c r="A26" t="s">
-        <v>544</v>
+        <v>361</v>
       </c>
       <c r="B26" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C26" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>547</v>
+        <v>364</v>
       </c>
       <c r="B27" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C27" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="42.75">
       <c r="A28" t="s">
-        <v>550</v>
+        <v>367</v>
       </c>
       <c r="B28" t="s">
         <v>551</v>
       </c>
       <c r="C28" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>552</v>
@@ -8476,114 +8527,114 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B29" t="s">
         <v>553</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>507</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="C29" t="s">
-        <v>482</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
+        <v>373</v>
+      </c>
+      <c r="B30" t="s">
+        <v>555</v>
+      </c>
+      <c r="C30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="B30" t="s">
-        <v>557</v>
-      </c>
-      <c r="C30" t="s">
-        <v>482</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>559</v>
+        <v>376</v>
       </c>
       <c r="B31" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C31" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.5">
       <c r="A32" t="s">
-        <v>562</v>
+        <v>379</v>
       </c>
       <c r="B32" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C32" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>565</v>
+        <v>382</v>
       </c>
       <c r="B33" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C33" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>568</v>
+        <v>385</v>
       </c>
       <c r="B34" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C34" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="85.7">
       <c r="A35" t="s">
-        <v>571</v>
+        <v>388</v>
       </c>
       <c r="B35" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C35" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="28.5">
       <c r="A36" t="s">
-        <v>574</v>
+        <v>391</v>
       </c>
       <c r="B36" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C36" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15"/>
@@ -8666,13 +8717,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>42</v>

--- a/metadata/rpharma_specs.xlsx
+++ b/metadata/rpharma_specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bs832471\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B98A449-98E4-4220-B30A-9F1FB27BB831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5EE1790-9426-40C4-B235-0BCCADC91B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14305" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14305" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="575">
   <si>
     <t>Attribute</t>
   </si>
@@ -1633,7 +1633,9 @@
     <t>Algorithm for ADVS.AVALCAT1</t>
   </si>
   <si>
-    <t>Set to null</t>
+    <t>For Parameter Code [ADVS.PARAMCD] = 'HEIGHT':
+Set to '&gt;140 cm' when Analysis Value [ADVS.AVAL] &gt; 140,
+else set to '&lt;= 140 cm' when Analysis Value [ADVS.AVAL] &lt;= 140.</t>
   </si>
   <si>
     <t>Algorithm for ADVS.BASE</t>
@@ -1645,7 +1647,10 @@
     <t>Algorithm for ADVS.BASETYPE</t>
   </si>
   <si>
-    <t>Set to 'LAST'</t>
+    <t>Set to 'LAST: AFTER LYING DOWN FOR 5 MINUTES' when Analysis Timepoint (N) [ADVS.ATPTN]= 815,
+ else set to 'LAST: AFTER STANDING FOR 1 MINUTE' when Analysis Timepoint (N) [ADVS.ATPTN]= 816,
+ else set to 'LAST: AFTER STANDING FOR 3 MINUTES' when Analysis Timepoint (N) [ADVS.ATPTN]= 817,
+ else set to 'LAST when Analysis Timepoint (N) [ADVS.ATPTN] is missing</t>
   </si>
   <si>
     <t>Algorithm for ADVS.ABLFL</t>
@@ -1673,6 +1678,11 @@
   </si>
   <si>
     <t>Algorithm for ADVS.DTYPE</t>
+  </si>
+  <si>
+    <t>For additional summary records, set to 'AVERAGE'.
+For additional End of Treatment records, set to 'LOV'.
+Else set to null.</t>
   </si>
   <si>
     <t>Algorithm for ADVS.ANRHI</t>
@@ -1889,7 +1899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1902,7 +1912,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1918,6 +1927,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2322,21 +2337,21 @@
         <v>393</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -2451,8 +2466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129AE431-5806-471D-9C82-A144A32316F7}">
   <dimension ref="A1:S128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="O97" sqref="O97:O122"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="Q93" sqref="Q93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2462,7 +2477,7 @@
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="12"/>
+    <col min="6" max="6" width="9" style="11"/>
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -2478,7 +2493,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2493,7 +2508,7 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2552,7 +2567,7 @@
       <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>49</v>
       </c>
       <c r="I2" t="s">
@@ -2583,7 +2598,7 @@
       <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>53</v>
       </c>
       <c r="I3" t="s">
@@ -2617,7 +2632,7 @@
       <c r="E4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>49</v>
       </c>
       <c r="I4" t="s">
@@ -2651,7 +2666,7 @@
       <c r="E5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>61</v>
       </c>
       <c r="I5" t="s">
@@ -2682,7 +2697,7 @@
       <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>5</v>
       </c>
       <c r="L6" s="3"/>
@@ -2704,7 +2719,7 @@
       <c r="E7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>10</v>
       </c>
       <c r="L7" s="3"/>
@@ -2726,7 +2741,7 @@
       <c r="E8" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>8</v>
       </c>
       <c r="L8" s="3"/>
@@ -2748,7 +2763,7 @@
       <c r="E9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>8</v>
       </c>
       <c r="I9" t="s">
@@ -2779,7 +2794,7 @@
       <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="I10" t="s">
@@ -2813,7 +2828,7 @@
       <c r="E11" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>79</v>
       </c>
       <c r="I11" t="s">
@@ -2847,7 +2862,7 @@
       <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>61</v>
       </c>
       <c r="I12" t="s">
@@ -2884,7 +2899,7 @@
       <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>3</v>
       </c>
       <c r="L13" s="3"/>
@@ -2906,7 +2921,7 @@
       <c r="E14" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>8</v>
       </c>
       <c r="L14" s="3"/>
@@ -2928,7 +2943,7 @@
       <c r="E15" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>49</v>
       </c>
       <c r="I15" t="s">
@@ -2965,7 +2980,7 @@
       <c r="E16" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>97</v>
       </c>
       <c r="I16" t="s">
@@ -3002,7 +3017,7 @@
       <c r="E17" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>79</v>
       </c>
       <c r="I17" t="s">
@@ -3033,7 +3048,7 @@
       <c r="E18" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>105</v>
       </c>
       <c r="I18" t="s">
@@ -3067,7 +3082,7 @@
       <c r="E19" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>79</v>
       </c>
       <c r="I19" t="s">
@@ -3098,7 +3113,7 @@
       <c r="E20" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>105</v>
       </c>
       <c r="L20" s="3"/>
@@ -3120,7 +3135,7 @@
       <c r="E21" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>79</v>
       </c>
       <c r="L21" s="3"/>
@@ -3142,7 +3157,7 @@
       <c r="E22" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>117</v>
       </c>
       <c r="I22" t="s">
@@ -3213,7 +3228,7 @@
       <c r="E24" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="11" t="s">
         <v>127</v>
       </c>
       <c r="I24" t="s">
@@ -3247,7 +3262,7 @@
       <c r="E25" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="11" t="s">
         <v>127</v>
       </c>
       <c r="I25" t="s">
@@ -3284,7 +3299,7 @@
       <c r="E26" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="11" t="s">
         <v>79</v>
       </c>
       <c r="I26" t="s">
@@ -3318,7 +3333,7 @@
       <c r="E27" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="11" t="s">
         <v>79</v>
       </c>
       <c r="H27" t="s">
@@ -3355,7 +3370,7 @@
       <c r="E28" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="11" t="s">
         <v>140</v>
       </c>
       <c r="I28" t="s">
@@ -3389,7 +3404,7 @@
       <c r="E29" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="11" t="s">
         <v>144</v>
       </c>
       <c r="I29" t="s">
@@ -3423,7 +3438,7 @@
       <c r="E30" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="11" t="s">
         <v>140</v>
       </c>
       <c r="I30" t="s">
@@ -3457,7 +3472,7 @@
       <c r="E31" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="11" t="s">
         <v>144</v>
       </c>
       <c r="I31" t="s">
@@ -3491,7 +3506,7 @@
       <c r="E32" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="11" t="s">
         <v>140</v>
       </c>
       <c r="I32" t="s">
@@ -3528,7 +3543,7 @@
       <c r="E33" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="11" t="s">
         <v>79</v>
       </c>
       <c r="I33" t="s">
@@ -3562,7 +3577,7 @@
       <c r="E34" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="11" t="s">
         <v>140</v>
       </c>
       <c r="I34" t="s">
@@ -3596,7 +3611,7 @@
       <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="11" t="s">
         <v>79</v>
       </c>
       <c r="I35" t="s">
@@ -3627,7 +3642,7 @@
       <c r="E36" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="11">
         <v>8</v>
       </c>
       <c r="H36" t="s">
@@ -3729,7 +3744,7 @@
       <c r="E39" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="11" t="s">
         <v>79</v>
       </c>
       <c r="H39" t="s">
@@ -3763,7 +3778,7 @@
       <c r="E40" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="11" t="s">
         <v>79</v>
       </c>
       <c r="H40" t="s">
@@ -3797,7 +3812,7 @@
       <c r="E41" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="11">
         <v>8</v>
       </c>
       <c r="L41" s="3"/>
@@ -3819,7 +3834,7 @@
       <c r="E42" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="11" t="s">
         <v>127</v>
       </c>
       <c r="I42" t="s">
@@ -3853,7 +3868,7 @@
       <c r="E43" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="11" t="s">
         <v>79</v>
       </c>
       <c r="H43" t="s">
@@ -3887,7 +3902,7 @@
       <c r="E44" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="11" t="s">
         <v>127</v>
       </c>
       <c r="I44" t="s">
@@ -3949,7 +3964,7 @@
       <c r="E46" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="11" t="s">
         <v>79</v>
       </c>
       <c r="H46" t="s">
@@ -3983,7 +3998,7 @@
       <c r="E47" t="s">
         <v>48</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="11" t="s">
         <v>127</v>
       </c>
       <c r="I47" t="s">
@@ -4014,7 +4029,7 @@
       <c r="E48" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="11" t="s">
         <v>79</v>
       </c>
       <c r="I48" t="s">
@@ -4045,7 +4060,7 @@
       <c r="E49" t="s">
         <v>210</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="11" t="s">
         <v>79</v>
       </c>
       <c r="G49" t="s">
@@ -4079,7 +4094,7 @@
       <c r="E50" t="s">
         <v>210</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="11" t="s">
         <v>79</v>
       </c>
       <c r="G50" t="s">
@@ -4113,7 +4128,7 @@
       <c r="E51" t="s">
         <v>69</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="11" t="s">
         <v>79</v>
       </c>
       <c r="H51" t="s">
@@ -4137,7 +4152,7 @@
       <c r="E52" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="11">
         <v>40</v>
       </c>
     </row>
@@ -4158,7 +4173,7 @@
       <c r="E53" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="11" t="s">
         <v>79</v>
       </c>
       <c r="H53" t="s">
@@ -4182,8 +4197,8 @@
       <c r="E54" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="13" t="s">
-        <v>79</v>
+      <c r="F54" s="11">
+        <v>12</v>
       </c>
       <c r="I54" t="s">
         <v>24</v>
@@ -4212,7 +4227,7 @@
       <c r="E55" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="12" t="s">
         <v>222</v>
       </c>
       <c r="I55" t="s">
@@ -4242,7 +4257,7 @@
       <c r="E56" t="s">
         <v>48</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="12" t="s">
         <v>222</v>
       </c>
       <c r="I56" t="s">
@@ -4272,7 +4287,7 @@
       <c r="E57" t="s">
         <v>48</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="11">
         <v>20</v>
       </c>
       <c r="I57" t="s">
@@ -4302,7 +4317,7 @@
       <c r="E58" t="s">
         <v>69</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="12" t="s">
         <v>79</v>
       </c>
       <c r="I58" t="s">
@@ -4333,7 +4348,7 @@
       <c r="E59" t="s">
         <v>48</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="12" t="s">
         <v>230</v>
       </c>
       <c r="I59" t="s">
@@ -4363,7 +4378,7 @@
       <c r="E60" t="s">
         <v>48</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="12" t="s">
         <v>232</v>
       </c>
       <c r="I60" t="s">
@@ -4393,7 +4408,7 @@
       <c r="E61" t="s">
         <v>48</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="12" t="s">
         <v>230</v>
       </c>
       <c r="I61" t="s">
@@ -4423,7 +4438,7 @@
       <c r="E62" t="s">
         <v>69</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="12" t="s">
         <v>79</v>
       </c>
       <c r="I62" t="s">
@@ -4453,7 +4468,7 @@
       <c r="E63" t="s">
         <v>48</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="12" t="s">
         <v>49</v>
       </c>
       <c r="I63" t="s">
@@ -4483,7 +4498,7 @@
       <c r="E64" t="s">
         <v>48</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="12" t="s">
         <v>49</v>
       </c>
       <c r="I64" t="s">
@@ -4517,7 +4532,7 @@
       <c r="E65" t="s">
         <v>48</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="12" t="s">
         <v>97</v>
       </c>
       <c r="I65" t="s">
@@ -4585,7 +4600,7 @@
       <c r="E67" t="s">
         <v>48</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="12" t="s">
         <v>140</v>
       </c>
       <c r="I67" t="s">
@@ -4619,7 +4634,7 @@
       <c r="E68" t="s">
         <v>48</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="12" t="s">
         <v>140</v>
       </c>
       <c r="I68" t="s">
@@ -4653,7 +4668,7 @@
       <c r="E69" t="s">
         <v>69</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H69" t="s">
@@ -4687,8 +4702,8 @@
       <c r="E70" t="s">
         <v>69</v>
       </c>
-      <c r="F70" s="13" t="s">
-        <v>79</v>
+      <c r="F70" s="4">
+        <v>8</v>
       </c>
       <c r="H70" t="s">
         <v>175</v>
@@ -4721,7 +4736,7 @@
       <c r="E71" t="s">
         <v>69</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H71" t="s">
@@ -4755,7 +4770,7 @@
       <c r="E72" t="s">
         <v>48</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="11">
         <v>2</v>
       </c>
       <c r="I72" t="s">
@@ -4786,7 +4801,7 @@
       <c r="E73" t="s">
         <v>48</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="11">
         <v>8</v>
       </c>
       <c r="I73" t="s">
@@ -4817,7 +4832,7 @@
       <c r="E74" t="s">
         <v>48</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="11">
         <v>40</v>
       </c>
       <c r="I74" t="s">
@@ -4848,7 +4863,7 @@
       <c r="E75" t="s">
         <v>48</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="11">
         <v>100</v>
       </c>
       <c r="I75" t="s">
@@ -4879,7 +4894,7 @@
       <c r="E76" t="s">
         <v>48</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="11">
         <v>200</v>
       </c>
       <c r="I76" t="s">
@@ -4910,7 +4925,7 @@
       <c r="E77" t="s">
         <v>48</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="11">
         <v>40</v>
       </c>
       <c r="I77" t="s">
@@ -4941,7 +4956,7 @@
       <c r="E78" t="s">
         <v>48</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="11">
         <v>200</v>
       </c>
       <c r="I78" t="s">
@@ -4972,7 +4987,7 @@
       <c r="E79" t="s">
         <v>210</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="11">
         <v>8</v>
       </c>
       <c r="I79" t="s">
@@ -5003,7 +5018,7 @@
       <c r="E80" t="s">
         <v>48</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="11">
         <v>40</v>
       </c>
       <c r="I80" t="s">
@@ -5034,7 +5049,7 @@
       <c r="E81" t="s">
         <v>48</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F81" s="11">
         <v>8</v>
       </c>
       <c r="I81" t="s">
@@ -5065,7 +5080,7 @@
       <c r="E82" t="s">
         <v>48</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="11">
         <v>200</v>
       </c>
       <c r="I82" t="s">
@@ -5096,7 +5111,7 @@
       <c r="E83" t="s">
         <v>48</v>
       </c>
-      <c r="F83" s="14" t="s">
+      <c r="F83" s="13" t="s">
         <v>127</v>
       </c>
       <c r="G83" s="5"/>
@@ -5133,7 +5148,7 @@
       <c r="E84" t="s">
         <v>69</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F84" s="11">
         <v>8</v>
       </c>
       <c r="I84" t="s">
@@ -5164,7 +5179,7 @@
       <c r="E85" t="s">
         <v>48</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F85" s="11">
         <v>200</v>
       </c>
       <c r="I85" t="s">
@@ -5195,7 +5210,7 @@
       <c r="E86" t="s">
         <v>283</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F86" s="11">
         <v>25</v>
       </c>
       <c r="I86" t="s">
@@ -5226,7 +5241,7 @@
       <c r="E87" t="s">
         <v>69</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F87" s="11">
         <v>8</v>
       </c>
       <c r="I87" t="s">
@@ -5257,7 +5272,7 @@
       <c r="E88" t="s">
         <v>48</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F88" s="11">
         <v>40</v>
       </c>
       <c r="I88" t="s">
@@ -5288,7 +5303,7 @@
       <c r="E89" t="s">
         <v>69</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F89" s="11">
         <v>8</v>
       </c>
       <c r="I89" t="s">
@@ -5319,7 +5334,7 @@
       <c r="E90" t="s">
         <v>48</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F90" s="11">
         <v>40</v>
       </c>
       <c r="I90" t="s">
@@ -5350,7 +5365,7 @@
       <c r="E91" t="s">
         <v>69</v>
       </c>
-      <c r="F91" s="13" t="s">
+      <c r="F91" s="12" t="s">
         <v>79</v>
       </c>
       <c r="I91" t="s">
@@ -5381,7 +5396,7 @@
       <c r="E92" t="s">
         <v>69</v>
       </c>
-      <c r="F92" s="12">
+      <c r="F92" s="11">
         <v>8</v>
       </c>
       <c r="I92" t="s">
@@ -5412,7 +5427,7 @@
       <c r="E93" t="s">
         <v>48</v>
       </c>
-      <c r="F93" s="12">
+      <c r="F93" s="11">
         <v>8</v>
       </c>
       <c r="I93" t="s">
@@ -5443,7 +5458,7 @@
       <c r="E94" t="s">
         <v>48</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F94" s="11">
         <v>200</v>
       </c>
       <c r="I94" t="s">
@@ -5474,7 +5489,7 @@
       <c r="E95" t="s">
         <v>69</v>
       </c>
-      <c r="F95" s="12">
+      <c r="F95" s="11">
         <v>8</v>
       </c>
       <c r="I95" t="s">
@@ -5505,7 +5520,7 @@
       <c r="E96" t="s">
         <v>48</v>
       </c>
-      <c r="F96" s="12">
+      <c r="F96" s="11">
         <v>8</v>
       </c>
       <c r="I96" t="s">
@@ -5536,7 +5551,7 @@
       <c r="E97" t="s">
         <v>210</v>
       </c>
-      <c r="F97" s="12">
+      <c r="F97" s="11">
         <v>8</v>
       </c>
       <c r="L97" s="3"/>
@@ -5564,7 +5579,7 @@
       <c r="E98" t="s">
         <v>48</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F98" s="11">
         <v>40</v>
       </c>
       <c r="L98" s="3"/>
@@ -5592,7 +5607,7 @@
       <c r="E99" t="s">
         <v>48</v>
       </c>
-      <c r="F99" s="12">
+      <c r="F99" s="11">
         <v>40</v>
       </c>
       <c r="L99" s="3"/>
@@ -5620,7 +5635,7 @@
       <c r="E100" t="s">
         <v>69</v>
       </c>
-      <c r="F100" s="12">
+      <c r="F100" s="11">
         <v>8</v>
       </c>
       <c r="L100" s="3"/>
@@ -5645,7 +5660,7 @@
       <c r="E101" t="s">
         <v>210</v>
       </c>
-      <c r="F101" s="12">
+      <c r="F101" s="11">
         <v>8</v>
       </c>
       <c r="L101" s="3"/>
@@ -5673,8 +5688,8 @@
       <c r="E102" t="s">
         <v>48</v>
       </c>
-      <c r="F102" s="12">
-        <v>30</v>
+      <c r="F102" s="11">
+        <v>36</v>
       </c>
       <c r="L102" s="3"/>
       <c r="M102" t="s">
@@ -5701,7 +5716,7 @@
       <c r="E103" t="s">
         <v>48</v>
       </c>
-      <c r="F103" s="12">
+      <c r="F103" s="11">
         <v>1</v>
       </c>
       <c r="K103" t="s">
@@ -5732,7 +5747,7 @@
       <c r="E104" t="s">
         <v>210</v>
       </c>
-      <c r="F104" s="12">
+      <c r="F104" s="11">
         <v>8</v>
       </c>
       <c r="L104" s="3"/>
@@ -5760,7 +5775,7 @@
       <c r="E105" t="s">
         <v>210</v>
       </c>
-      <c r="F105" s="12">
+      <c r="F105" s="11">
         <v>8</v>
       </c>
       <c r="L105" s="3"/>
@@ -5788,7 +5803,7 @@
       <c r="E106" t="s">
         <v>48</v>
       </c>
-      <c r="F106" s="12">
+      <c r="F106" s="11">
         <v>20</v>
       </c>
       <c r="L106" s="3"/>
@@ -5816,7 +5831,7 @@
       <c r="E107" t="s">
         <v>210</v>
       </c>
-      <c r="F107" s="12">
+      <c r="F107" s="11">
         <v>8</v>
       </c>
       <c r="L107" s="3"/>
@@ -5844,7 +5859,7 @@
       <c r="E108" t="s">
         <v>210</v>
       </c>
-      <c r="F108" s="12">
+      <c r="F108" s="11">
         <v>8</v>
       </c>
       <c r="L108" s="3"/>
@@ -5872,7 +5887,7 @@
       <c r="E109" t="s">
         <v>48</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F109" s="11">
         <v>20</v>
       </c>
       <c r="L109" s="3"/>
@@ -5900,7 +5915,7 @@
       <c r="E110" t="s">
         <v>48</v>
       </c>
-      <c r="F110" s="12">
+      <c r="F110" s="11">
         <v>20</v>
       </c>
       <c r="L110" s="3"/>
@@ -5928,7 +5943,7 @@
       <c r="E111" t="s">
         <v>210</v>
       </c>
-      <c r="F111" s="12">
+      <c r="F111" s="11">
         <v>8</v>
       </c>
       <c r="L111" s="3"/>
@@ -5956,7 +5971,7 @@
       <c r="E112" t="s">
         <v>210</v>
       </c>
-      <c r="F112" s="12">
+      <c r="F112" s="11">
         <v>8</v>
       </c>
       <c r="L112" s="3"/>
@@ -5984,7 +5999,7 @@
       <c r="E113" t="s">
         <v>69</v>
       </c>
-      <c r="F113" s="12">
+      <c r="F113" s="11">
         <v>8</v>
       </c>
       <c r="L113" s="3"/>
@@ -6012,7 +6027,7 @@
       <c r="E114" t="s">
         <v>69</v>
       </c>
-      <c r="F114" s="12">
+      <c r="F114" s="11">
         <v>8</v>
       </c>
       <c r="L114" s="3"/>
@@ -6040,7 +6055,7 @@
       <c r="E115" t="s">
         <v>48</v>
       </c>
-      <c r="F115" s="12">
+      <c r="F115" s="11">
         <v>40</v>
       </c>
       <c r="L115" s="3"/>
@@ -6068,7 +6083,7 @@
       <c r="E116" t="s">
         <v>69</v>
       </c>
-      <c r="F116" s="12">
+      <c r="F116" s="11">
         <v>8</v>
       </c>
       <c r="L116" s="3"/>
@@ -6096,7 +6111,7 @@
       <c r="E117" t="s">
         <v>48</v>
       </c>
-      <c r="F117" s="12">
+      <c r="F117" s="11">
         <v>200</v>
       </c>
       <c r="L117" s="3"/>
@@ -6124,7 +6139,7 @@
       <c r="E118" t="s">
         <v>69</v>
       </c>
-      <c r="F118" s="12">
+      <c r="F118" s="11">
         <v>8</v>
       </c>
       <c r="L118" s="3"/>
@@ -6152,7 +6167,7 @@
       <c r="E119" t="s">
         <v>48</v>
       </c>
-      <c r="F119" s="12">
+      <c r="F119" s="11">
         <v>200</v>
       </c>
       <c r="L119" s="3"/>
@@ -6180,7 +6195,7 @@
       <c r="E120" t="s">
         <v>48</v>
       </c>
-      <c r="F120" s="12">
+      <c r="F120" s="11">
         <v>200</v>
       </c>
       <c r="L120" s="3"/>
@@ -6208,7 +6223,7 @@
       <c r="E121" t="s">
         <v>48</v>
       </c>
-      <c r="F121" s="12">
+      <c r="F121" s="11">
         <v>1</v>
       </c>
       <c r="K121" t="s">
@@ -6239,7 +6254,7 @@
       <c r="E122" t="s">
         <v>48</v>
       </c>
-      <c r="F122" s="12">
+      <c r="F122" s="11">
         <v>1</v>
       </c>
       <c r="K122" t="s">
@@ -8109,18 +8124,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A27F77-A36A-4B0F-AB98-73EE4727DE22}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="148.5703125" customWidth="1"/>
+    <col min="4" max="4" width="148.5703125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8133,7 +8148,7 @@
       <c r="C1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>501</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -8159,7 +8174,7 @@
       <c r="C2" t="s">
         <v>507</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>508</v>
       </c>
     </row>
@@ -8173,7 +8188,7 @@
       <c r="C3" t="s">
         <v>507</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>511</v>
       </c>
     </row>
@@ -8317,7 +8332,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="45.75">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -8331,7 +8346,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" t="s">
         <v>328</v>
       </c>
@@ -8345,7 +8360,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="58.5" customHeight="1">
       <c r="A16" t="s">
         <v>331</v>
       </c>
@@ -8359,7 +8374,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="42.75">
+    <row r="17" spans="1:4" ht="45.75">
       <c r="A17" t="s">
         <v>334</v>
       </c>
@@ -8373,7 +8388,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="39.4">
+    <row r="18" spans="1:4" ht="36">
       <c r="A18" t="s">
         <v>337</v>
       </c>
@@ -8383,11 +8398,11 @@
       <c r="C18" t="s">
         <v>507</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="91.15">
+    <row r="19" spans="1:4" ht="84">
       <c r="A19" t="s">
         <v>340</v>
       </c>
@@ -8397,11 +8412,11 @@
       <c r="C19" t="s">
         <v>507</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="45.75">
       <c r="A20" t="s">
         <v>343</v>
       </c>
@@ -8411,90 +8426,92 @@
       <c r="C20" t="s">
         <v>507</v>
       </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="57.2">
+      <c r="D20" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60.75">
       <c r="A21" t="s">
         <v>346</v>
       </c>
       <c r="B21" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C21" t="s">
         <v>507</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="57.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60.75">
       <c r="A22" t="s">
         <v>349</v>
       </c>
       <c r="B22" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C22" t="s">
         <v>507</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="128.44999999999999">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="137.25">
       <c r="A23" t="s">
         <v>352</v>
       </c>
       <c r="B23" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C23" t="s">
         <v>507</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="28.5">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30.75">
       <c r="A24" t="s">
         <v>355</v>
       </c>
       <c r="B24" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C24" t="s">
         <v>507</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="57.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="60.75">
       <c r="A25" t="s">
         <v>358</v>
       </c>
       <c r="B25" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C25" t="s">
         <v>507</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="57.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60.75">
       <c r="A26" t="s">
         <v>361</v>
       </c>
       <c r="B26" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C26" t="s">
         <v>507</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -8502,27 +8519,27 @@
         <v>364</v>
       </c>
       <c r="B27" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C27" t="s">
         <v>507</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="42.75">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45.75">
       <c r="A28" t="s">
         <v>367</v>
       </c>
       <c r="B28" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C28" t="s">
         <v>507</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -8530,13 +8547,13 @@
         <v>370</v>
       </c>
       <c r="B29" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C29" t="s">
         <v>507</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -8544,13 +8561,13 @@
         <v>373</v>
       </c>
       <c r="B30" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C30" t="s">
         <v>507</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -8558,27 +8575,27 @@
         <v>376</v>
       </c>
       <c r="B31" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C31" t="s">
         <v>507</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.5">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30.75">
       <c r="A32" t="s">
         <v>379</v>
       </c>
       <c r="B32" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C32" t="s">
         <v>507</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8586,13 +8603,13 @@
         <v>382</v>
       </c>
       <c r="B33" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C33" t="s">
         <v>507</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8600,100 +8617,43 @@
         <v>385</v>
       </c>
       <c r="B34" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C34" t="s">
         <v>507</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="85.7">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="91.5">
       <c r="A35" t="s">
         <v>388</v>
       </c>
       <c r="B35" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C35" t="s">
         <v>507</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="28.5">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30.75">
       <c r="A36" t="s">
         <v>391</v>
       </c>
       <c r="B36" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C36" t="s">
         <v>507</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15"/>
-    <row r="38" spans="1:4" ht="15"/>
-    <row r="39" spans="1:4" ht="15"/>
-    <row r="40" spans="1:4" ht="15"/>
-    <row r="41" spans="1:4" ht="15"/>
-    <row r="42" spans="1:4" ht="15"/>
-    <row r="43" spans="1:4" ht="15"/>
-    <row r="44" spans="1:4" ht="15"/>
-    <row r="45" spans="1:4" ht="15"/>
-    <row r="46" spans="1:4" ht="15"/>
-    <row r="47" spans="1:4" ht="15"/>
-    <row r="48" spans="1:4" ht="15"/>
-    <row r="49" ht="15"/>
-    <row r="50" ht="15"/>
-    <row r="51" ht="15"/>
-    <row r="52" ht="15"/>
-    <row r="53" ht="15"/>
-    <row r="54" ht="15"/>
-    <row r="55" ht="15"/>
-    <row r="56" ht="15"/>
-    <row r="57" ht="15"/>
-    <row r="58" ht="15"/>
-    <row r="60" ht="15"/>
-    <row r="61" ht="15"/>
-    <row r="62" ht="15"/>
-    <row r="63" ht="15"/>
-    <row r="64" ht="15"/>
-    <row r="65" ht="15"/>
-    <row r="66" ht="15"/>
-    <row r="67" ht="15"/>
-    <row r="68" ht="15"/>
-    <row r="69" ht="15"/>
-    <row r="70" ht="15"/>
-    <row r="71" ht="15"/>
-    <row r="72" ht="15"/>
-    <row r="73" ht="15"/>
-    <row r="74" ht="15"/>
-    <row r="75" ht="15"/>
-    <row r="76" ht="15"/>
-    <row r="77" ht="15"/>
-    <row r="78" ht="15"/>
-    <row r="79" ht="15"/>
-    <row r="80" ht="15"/>
-    <row r="81" ht="15"/>
-    <row r="82" ht="15"/>
-    <row r="83" ht="15"/>
-    <row r="84" ht="15"/>
-    <row r="85" ht="15"/>
-    <row r="86" ht="15"/>
-    <row r="87" ht="15"/>
-    <row r="88" ht="15"/>
-    <row r="89" ht="15"/>
-    <row r="90" ht="15"/>
-    <row r="91" ht="15"/>
-    <row r="92" ht="15"/>
-    <row r="93" ht="15"/>
-    <row r="94" ht="15"/>
+        <v>569</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metadata/rpharma_specs.xlsx
+++ b/metadata/rpharma_specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bs832471\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5EE1790-9426-40C4-B235-0BCCADC91B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89897F62-9C62-406E-B2F2-D9F89946E9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14305" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Documents!$A$1:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Study!$A$1:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ValueLevel!$A$1:$R$102</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$S$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$S$120</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="575">
   <si>
     <t>Attribute</t>
   </si>
@@ -317,15 +317,9 @@
     <t>ADSL.AGEU</t>
   </si>
   <si>
-    <t>AGEGRP1</t>
-  </si>
-  <si>
     <t>Age Group 1</t>
   </si>
   <si>
-    <t>AGEGRP1N</t>
-  </si>
-  <si>
     <t>Age Group 1 (N)</t>
   </si>
   <si>
@@ -365,30 +359,9 @@
     <t>ADSL_RACEN</t>
   </si>
   <si>
-    <t>ARACE</t>
-  </si>
-  <si>
-    <t>Analysis Race</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
-    <t>ADSL_ARACE</t>
-  </si>
-  <si>
-    <t>ADSL.ARACE</t>
-  </si>
-  <si>
-    <t>ARACEN</t>
-  </si>
-  <si>
-    <t>Analysis Race (N)</t>
-  </si>
-  <si>
-    <t>ADSL_ARACEN</t>
-  </si>
-  <si>
     <t>RACEGR1</t>
   </si>
   <si>
@@ -1298,12 +1271,6 @@
     <t>C43234</t>
   </si>
   <si>
-    <t>ADSL_OLS</t>
-  </si>
-  <si>
-    <t>No Yes Missing Response</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -1380,12 +1347,6 @@
   </si>
   <si>
     <t>Treatment Assignments</t>
-  </si>
-  <si>
-    <t>Draft-Placebo</t>
-  </si>
-  <si>
-    <t>Draft-Belimumab 200mg SC</t>
   </si>
   <si>
     <t>888</t>
@@ -1820,12 +1781,51 @@
   <si>
     <t>adrg.pdf</t>
   </si>
+  <si>
+    <t>&lt;18</t>
+  </si>
+  <si>
+    <t>18-64</t>
+  </si>
+  <si>
+    <t>&gt;64</t>
+  </si>
+  <si>
+    <t>ADSL_AGEGR1N</t>
+  </si>
+  <si>
+    <t>AGEGR1N</t>
+  </si>
+  <si>
+    <t>ADSL_REGION1</t>
+  </si>
+  <si>
+    <t>ADSL_REGION1N</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>Xanomeline High Dose</t>
+  </si>
+  <si>
+    <t>Xanomeline Low Dose</t>
+  </si>
+  <si>
+    <t>AGEGR1</t>
+  </si>
+  <si>
+    <t>ADSL_AGEGR1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1868,6 +1868,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1899,7 +1904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1934,6 +1939,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2256,13 +2267,13 @@
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="74.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2270,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2278,7 +2289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2286,7 +2297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2294,7 +2305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2302,7 +2313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2325,33 +2336,33 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="62.375" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="B2" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="C2" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -2369,19 +2380,19 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="58.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="9" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="50.75" customWidth="1"/>
+    <col min="5" max="5" width="58.625" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="9" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2410,7 +2421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2433,7 +2444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2464,35 +2475,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129AE431-5806-471D-9C82-A144A32316F7}">
-  <dimension ref="A1:S128"/>
+  <dimension ref="A1:S120"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="Q93" sqref="Q93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="11"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -2551,7 +2562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2581,9 +2592,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f t="shared" ref="A3:A66" si="0">A2+1</f>
+        <f t="shared" ref="A3:A64" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2615,7 +2626,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2649,7 +2660,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2680,7 +2691,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2702,7 +2713,7 @@
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2724,7 +2735,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2746,7 +2757,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2777,7 +2788,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2811,7 +2822,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2845,7 +2856,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2882,7 +2893,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2891,10 +2902,10 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>573</v>
+      </c>
+      <c r="D13" t="s">
         <v>87</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
       </c>
       <c r="E13" t="s">
         <v>48</v>
@@ -2902,9 +2913,12 @@
       <c r="F13" s="11">
         <v>3</v>
       </c>
+      <c r="K13" t="s">
+        <v>574</v>
+      </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2913,10 +2927,10 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>566</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
         <v>69</v>
@@ -2924,9 +2938,12 @@
       <c r="F14" s="11">
         <v>8</v>
       </c>
+      <c r="K14" s="19" t="s">
+        <v>565</v>
+      </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2935,10 +2952,10 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
         <v>48</v>
@@ -2950,20 +2967,20 @@
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2972,35 +2989,35 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" t="s">
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3009,10 +3026,10 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
         <v>69</v>
@@ -3024,14 +3041,14 @@
         <v>25</v>
       </c>
       <c r="K17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3040,32 +3057,23 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
         <v>103</v>
       </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
       <c r="E18" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s">
-        <v>106</v>
+        <v>412</v>
       </c>
       <c r="L18" s="3"/>
-      <c r="M18" t="s">
-        <v>80</v>
-      </c>
-      <c r="O18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3074,10 +3082,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
         <v>69</v>
@@ -3085,18 +3093,12 @@
       <c r="F19" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I19" t="s">
-        <v>25</v>
-      </c>
       <c r="K19" t="s">
-        <v>110</v>
+        <v>416</v>
       </c>
       <c r="L19" s="3"/>
-      <c r="M19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3105,20 +3107,32 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>109</v>
       </c>
       <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="M20" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3127,20 +3141,35 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
         <v>113</v>
       </c>
-      <c r="D21" t="s">
+      <c r="L21" s="3"/>
+      <c r="M21" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21" t="s">
         <v>114</v>
       </c>
-      <c r="E21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="Q21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3149,32 +3178,32 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
         <v>48</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I22" t="s">
         <v>25</v>
       </c>
       <c r="K22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3183,35 +3212,35 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
         <v>120</v>
       </c>
-      <c r="D23" t="s">
-        <v>121</v>
-      </c>
       <c r="E23" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="4">
-        <v>1</v>
+      <c r="F23" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="I23" t="s">
         <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" t="s">
         <v>80</v>
       </c>
       <c r="O23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3220,32 +3249,32 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s">
         <v>25</v>
       </c>
-      <c r="K24" t="s">
-        <v>122</v>
-      </c>
       <c r="L24" s="3"/>
       <c r="M24" t="s">
-        <v>44</v>
-      </c>
-      <c r="P24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>80</v>
+      </c>
+      <c r="O24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3254,35 +3283,35 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s">
         <v>127</v>
       </c>
       <c r="I25" t="s">
         <v>25</v>
-      </c>
-      <c r="K25" t="s">
-        <v>122</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" t="s">
         <v>80</v>
       </c>
       <c r="O25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3291,32 +3320,32 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>79</v>
-      </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" t="s">
-        <v>80</v>
-      </c>
-      <c r="O26" t="s">
-        <v>133</v>
+        <v>44</v>
+      </c>
+      <c r="P26" t="s">
+        <v>132</v>
       </c>
       <c r="Q26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3325,35 +3354,32 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" t="s">
         <v>134</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" t="s">
-        <v>136</v>
-      </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" t="s">
-        <v>80</v>
-      </c>
-      <c r="O27" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q27" t="s">
         <v>137</v>
       </c>
-      <c r="Q27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3371,7 +3397,7 @@
         <v>48</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I28" t="s">
         <v>24</v>
@@ -3381,13 +3407,13 @@
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3396,16 +3422,16 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" t="s">
         <v>142</v>
       </c>
-      <c r="D29" t="s">
-        <v>143</v>
-      </c>
       <c r="E29" t="s">
         <v>48</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="I29" t="s">
         <v>24</v>
@@ -3415,13 +3441,13 @@
         <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3430,32 +3456,35 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
         <v>48</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
         <v>24</v>
       </c>
+      <c r="K30" t="s">
+        <v>146</v>
+      </c>
       <c r="L30" s="3"/>
       <c r="M30" t="s">
-        <v>44</v>
-      </c>
-      <c r="P30" t="s">
-        <v>149</v>
+        <v>80</v>
+      </c>
+      <c r="O30" t="s">
+        <v>147</v>
       </c>
       <c r="Q30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3464,32 +3493,32 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" t="s">
         <v>150</v>
-      </c>
-      <c r="D31" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="I31" t="s">
-        <v>24</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" t="s">
-        <v>44</v>
-      </c>
-      <c r="P31" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="Q31" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3498,35 +3527,32 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
         <v>48</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" t="s">
         <v>80</v>
       </c>
       <c r="O32" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3535,10 +3561,10 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s">
         <v>69</v>
@@ -3550,17 +3576,14 @@
         <v>25</v>
       </c>
       <c r="K33" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" t="s">
         <v>85</v>
       </c>
-      <c r="Q33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3569,32 +3592,32 @@
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>140</v>
+        <v>69</v>
+      </c>
+      <c r="F34" s="11">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>158</v>
       </c>
       <c r="I34" t="s">
         <v>25</v>
-      </c>
-      <c r="K34" t="s">
-        <v>155</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" t="s">
         <v>80</v>
       </c>
       <c r="O34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3603,29 +3626,32 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>79</v>
+      <c r="F35" s="4">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>162</v>
       </c>
       <c r="I35" t="s">
         <v>25</v>
       </c>
-      <c r="K35" t="s">
-        <v>159</v>
-      </c>
       <c r="L35" s="3"/>
       <c r="M35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>80</v>
+      </c>
+      <c r="O35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3634,19 +3660,19 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" t="s">
         <v>165</v>
-      </c>
-      <c r="D36" t="s">
-        <v>166</v>
       </c>
       <c r="E36" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="4">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I36" t="s">
         <v>25</v>
@@ -3656,10 +3682,10 @@
         <v>80</v>
       </c>
       <c r="O36" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3668,19 +3694,19 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" t="s">
         <v>169</v>
-      </c>
-      <c r="D37" t="s">
-        <v>170</v>
       </c>
       <c r="E37" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="4">
-        <v>8</v>
+      <c r="F37" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="H37" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="I37" t="s">
         <v>25</v>
@@ -3690,10 +3716,10 @@
         <v>80</v>
       </c>
       <c r="O37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3702,19 +3728,19 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E38" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="4">
-        <v>8</v>
+      <c r="F38" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="H38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I38" t="s">
         <v>25</v>
@@ -3724,10 +3750,10 @@
         <v>80</v>
       </c>
       <c r="O38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3736,32 +3762,20 @@
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D39" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E39" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H39" t="s">
-        <v>136</v>
-      </c>
-      <c r="I39" t="s">
-        <v>25</v>
+      <c r="F39" s="11">
+        <v>8</v>
       </c>
       <c r="L39" s="3"/>
-      <c r="M39" t="s">
-        <v>80</v>
-      </c>
-      <c r="O39" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3770,32 +3784,32 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="I40" t="s">
         <v>25</v>
+      </c>
+      <c r="K40" t="s">
+        <v>113</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" t="s">
         <v>80</v>
       </c>
       <c r="O40" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3804,20 +3818,32 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D41" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E41" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="11">
-        <v>8</v>
+      <c r="F41" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I41" t="s">
+        <v>25</v>
       </c>
       <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="M41" t="s">
+        <v>80</v>
+      </c>
+      <c r="O41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3826,32 +3852,32 @@
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E42" t="s">
         <v>48</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="I42" t="s">
         <v>25</v>
       </c>
       <c r="K42" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" t="s">
-        <v>80</v>
-      </c>
-      <c r="O42" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>44</v>
+      </c>
+      <c r="P42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3860,32 +3886,26 @@
         <v>26</v>
       </c>
       <c r="C43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E43" t="s">
         <v>188</v>
-      </c>
-      <c r="D43" t="s">
-        <v>189</v>
-      </c>
-      <c r="E43" t="s">
-        <v>69</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" t="s">
-        <v>136</v>
       </c>
       <c r="I43" t="s">
         <v>25</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" t="s">
-        <v>80</v>
-      </c>
-      <c r="O43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>44</v>
+      </c>
+      <c r="P43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3894,32 +3914,32 @@
         <v>26</v>
       </c>
       <c r="C44" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" t="s">
         <v>191</v>
       </c>
-      <c r="D44" t="s">
-        <v>192</v>
-      </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F44" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" t="s">
         <v>127</v>
       </c>
       <c r="I44" t="s">
         <v>25</v>
       </c>
-      <c r="K44" t="s">
-        <v>193</v>
-      </c>
       <c r="L44" s="3"/>
       <c r="M44" t="s">
-        <v>44</v>
-      </c>
-      <c r="P44" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>80</v>
+      </c>
+      <c r="O44" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3928,26 +3948,29 @@
         <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E45" t="s">
-        <v>197</v>
+        <v>48</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="I45" t="s">
         <v>25</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" t="s">
-        <v>44</v>
-      </c>
-      <c r="P45" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>80</v>
+      </c>
+      <c r="O45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3956,19 +3979,16 @@
         <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E46" t="s">
         <v>69</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="H46" t="s">
-        <v>136</v>
       </c>
       <c r="I46" t="s">
         <v>25</v>
@@ -3978,10 +3998,10 @@
         <v>80</v>
       </c>
       <c r="O46" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3990,16 +4010,19 @@
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D47" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>127</v>
+        <v>79</v>
+      </c>
+      <c r="G47" t="s">
+        <v>118</v>
       </c>
       <c r="I47" t="s">
         <v>25</v>
@@ -4009,10 +4032,10 @@
         <v>80</v>
       </c>
       <c r="O47" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4021,16 +4044,19 @@
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E48" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>79</v>
+      </c>
+      <c r="G48" t="s">
+        <v>118</v>
       </c>
       <c r="I48" t="s">
         <v>25</v>
@@ -4040,10 +4066,10 @@
         <v>80</v>
       </c>
       <c r="O48" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4052,32 +4078,22 @@
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E49" t="s">
-        <v>210</v>
+        <v>69</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I49" t="s">
-        <v>25</v>
-      </c>
-      <c r="L49" s="3"/>
-      <c r="M49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O49" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="H49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4086,32 +4102,19 @@
         <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D50" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E50" t="s">
-        <v>210</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G50" t="s">
-        <v>127</v>
-      </c>
-      <c r="I50" t="s">
-        <v>25</v>
-      </c>
-      <c r="L50" s="3"/>
-      <c r="M50" t="s">
-        <v>80</v>
-      </c>
-      <c r="O50" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+        <v>48</v>
+      </c>
+      <c r="F50" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4120,10 +4123,10 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D51" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E51" t="s">
         <v>69</v>
@@ -4132,55 +4135,70 @@
         <v>79</v>
       </c>
       <c r="H51" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c r="E52" t="s">
         <v>48</v>
       </c>
       <c r="F52" s="11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+        <v>12</v>
+      </c>
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" t="s">
+        <v>44</v>
+      </c>
+      <c r="P52" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+        <v>48</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4189,28 +4207,28 @@
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="11">
-        <v>12</v>
+      <c r="F54" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="I54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M54" t="s">
         <v>44</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4219,28 +4237,28 @@
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E55" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="12" t="s">
-        <v>222</v>
+      <c r="F55" s="11">
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M55" t="s">
         <v>44</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4249,28 +4267,29 @@
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>218</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
       </c>
+      <c r="L56" s="3"/>
       <c r="M56" t="s">
-        <v>44</v>
-      </c>
-      <c r="P56" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+        <v>80</v>
+      </c>
+      <c r="O56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4279,16 +4298,16 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="E57" t="s">
         <v>48</v>
       </c>
-      <c r="F57" s="11">
-        <v>20</v>
+      <c r="F57" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
@@ -4297,10 +4316,10 @@
         <v>44</v>
       </c>
       <c r="P57" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4309,29 +4328,28 @@
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>226</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="E58" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="I58" t="s">
         <v>25</v>
       </c>
-      <c r="L58" s="3"/>
       <c r="M58" t="s">
-        <v>80</v>
-      </c>
-      <c r="O58" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+        <v>44</v>
+      </c>
+      <c r="P58" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4340,16 +4358,16 @@
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="E59" t="s">
         <v>48</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="I59" t="s">
         <v>25</v>
@@ -4358,10 +4376,10 @@
         <v>44</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4370,28 +4388,28 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="I60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M60" t="s">
         <v>44</v>
       </c>
       <c r="P60" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4400,28 +4418,28 @@
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E61" t="s">
         <v>48</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>230</v>
+        <v>49</v>
       </c>
       <c r="I61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M61" t="s">
         <v>44</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4430,28 +4448,32 @@
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E62" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="I62" t="s">
         <v>24</v>
       </c>
+      <c r="K62" t="s">
+        <v>91</v>
+      </c>
+      <c r="L62" s="3"/>
       <c r="M62" t="s">
         <v>44</v>
       </c>
       <c r="P62" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4460,164 +4482,168 @@
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D63" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E63" t="s">
         <v>48</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="I63" t="s">
         <v>24</v>
       </c>
+      <c r="K63" t="s">
+        <v>96</v>
+      </c>
+      <c r="L63" s="3"/>
       <c r="M63" t="s">
         <v>44</v>
       </c>
       <c r="P63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="E64" t="s">
         <v>48</v>
       </c>
-      <c r="F64" s="12" t="s">
-        <v>49</v>
+      <c r="F64" s="4">
+        <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K64" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" t="s">
         <v>44</v>
       </c>
       <c r="P64" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A65:A120" si="1">A64+1</f>
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="E65" t="s">
         <v>48</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="I65" t="s">
         <v>24</v>
       </c>
       <c r="K65" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" t="s">
         <v>44</v>
       </c>
       <c r="P65" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="E66" t="s">
         <v>48</v>
       </c>
-      <c r="F66" s="4">
-        <v>1</v>
+      <c r="F66" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="I66" t="s">
         <v>25</v>
       </c>
       <c r="K66" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" t="s">
         <v>44</v>
       </c>
       <c r="P66" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <f t="shared" ref="A67:A122" si="1">A66+1</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>140</v>
+        <v>79</v>
+      </c>
+      <c r="H67" t="s">
+        <v>127</v>
       </c>
       <c r="I67" t="s">
-        <v>24</v>
-      </c>
-      <c r="K67" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" t="s">
         <v>44</v>
       </c>
       <c r="P67" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -4626,32 +4652,32 @@
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>140</v>
+        <v>69</v>
+      </c>
+      <c r="F68" s="4">
+        <v>8</v>
+      </c>
+      <c r="H68" t="s">
+        <v>166</v>
       </c>
       <c r="I68" t="s">
         <v>25</v>
-      </c>
-      <c r="K68" t="s">
-        <v>155</v>
       </c>
       <c r="L68" s="3"/>
       <c r="M68" t="s">
         <v>44</v>
       </c>
       <c r="P68" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4660,10 +4686,10 @@
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E69" t="s">
         <v>69</v>
@@ -4672,7 +4698,7 @@
         <v>79</v>
       </c>
       <c r="H69" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I69" t="s">
         <v>25</v>
@@ -4682,10 +4708,10 @@
         <v>44</v>
       </c>
       <c r="P69" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4694,19 +4720,16 @@
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="D70" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="E70" t="s">
-        <v>69</v>
-      </c>
-      <c r="F70" s="4">
-        <v>8</v>
-      </c>
-      <c r="H70" t="s">
-        <v>175</v>
+        <v>48</v>
+      </c>
+      <c r="F70" s="11">
+        <v>2</v>
       </c>
       <c r="I70" t="s">
         <v>25</v>
@@ -4716,10 +4739,10 @@
         <v>44</v>
       </c>
       <c r="P70" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4728,19 +4751,16 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="D71" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="E71" t="s">
-        <v>69</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H71" t="s">
-        <v>136</v>
+        <v>48</v>
+      </c>
+      <c r="F71" s="11">
+        <v>8</v>
       </c>
       <c r="I71" t="s">
         <v>25</v>
@@ -4750,10 +4770,10 @@
         <v>44</v>
       </c>
       <c r="P71" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4762,16 +4782,16 @@
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E72" t="s">
         <v>48</v>
       </c>
       <c r="F72" s="11">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I72" t="s">
         <v>25</v>
@@ -4781,10 +4801,10 @@
         <v>44</v>
       </c>
       <c r="P72" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4793,16 +4813,16 @@
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D73" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E73" t="s">
         <v>48</v>
       </c>
       <c r="F73" s="11">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I73" t="s">
         <v>25</v>
@@ -4812,10 +4832,10 @@
         <v>44</v>
       </c>
       <c r="P73" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4824,16 +4844,16 @@
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D74" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E74" t="s">
         <v>48</v>
       </c>
       <c r="F74" s="11">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="I74" t="s">
         <v>25</v>
@@ -4843,10 +4863,10 @@
         <v>44</v>
       </c>
       <c r="P74" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4855,16 +4875,16 @@
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D75" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E75" t="s">
         <v>48</v>
       </c>
       <c r="F75" s="11">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I75" t="s">
         <v>25</v>
@@ -4874,10 +4894,10 @@
         <v>44</v>
       </c>
       <c r="P75" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4886,10 +4906,10 @@
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D76" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E76" t="s">
         <v>48</v>
@@ -4905,10 +4925,10 @@
         <v>44</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4917,16 +4937,16 @@
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D77" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E77" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="F77" s="11">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="I77" t="s">
         <v>25</v>
@@ -4936,10 +4956,10 @@
         <v>44</v>
       </c>
       <c r="P77" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4948,16 +4968,16 @@
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D78" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E78" t="s">
         <v>48</v>
       </c>
       <c r="F78" s="11">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="I78" t="s">
         <v>25</v>
@@ -4967,10 +4987,10 @@
         <v>44</v>
       </c>
       <c r="P78" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4979,13 +4999,13 @@
         <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D79" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E79" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="F79" s="11">
         <v>8</v>
@@ -4998,10 +5018,10 @@
         <v>44</v>
       </c>
       <c r="P79" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -5010,16 +5030,16 @@
         <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D80" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E80" t="s">
         <v>48</v>
       </c>
       <c r="F80" s="11">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="I80" t="s">
         <v>25</v>
@@ -5029,59 +5049,65 @@
         <v>44</v>
       </c>
       <c r="P80" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C81" t="s">
-        <v>266</v>
-      </c>
-      <c r="D81" t="s">
-        <v>267</v>
+      <c r="C81" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="E81" t="s">
         <v>48</v>
       </c>
-      <c r="F81" s="11">
-        <v>8</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="F81" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L81" s="3"/>
-      <c r="M81" t="s">
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="P81" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D82" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E82" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F82" s="11">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="I82" t="s">
         <v>25</v>
@@ -5091,47 +5117,41 @@
         <v>44</v>
       </c>
       <c r="P82" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" ht="15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>273</v>
+      <c r="C83" t="s">
+        <v>269</v>
+      </c>
+      <c r="D83" t="s">
+        <v>270</v>
       </c>
       <c r="E83" t="s">
         <v>48</v>
       </c>
-      <c r="F83" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5" t="s">
+      <c r="F83" s="11">
+        <v>200</v>
+      </c>
+      <c r="I83" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="5" t="s">
+      <c r="L83" s="3"/>
+      <c r="M83" t="s">
         <v>44</v>
       </c>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" ht="15">
+      <c r="P83" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -5140,16 +5160,16 @@
         <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D84" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E84" t="s">
-        <v>69</v>
+        <v>274</v>
       </c>
       <c r="F84" s="11">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I84" t="s">
         <v>25</v>
@@ -5159,10 +5179,10 @@
         <v>44</v>
       </c>
       <c r="P84" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" ht="15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -5171,16 +5191,16 @@
         <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D85" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E85" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F85" s="11">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="I85" t="s">
         <v>25</v>
@@ -5190,10 +5210,10 @@
         <v>44</v>
       </c>
       <c r="P85" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -5202,16 +5222,16 @@
         <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D86" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E86" t="s">
-        <v>283</v>
+        <v>48</v>
       </c>
       <c r="F86" s="11">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I86" t="s">
         <v>25</v>
@@ -5221,10 +5241,10 @@
         <v>44</v>
       </c>
       <c r="P86" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -5233,10 +5253,10 @@
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D87" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E87" t="s">
         <v>69</v>
@@ -5252,10 +5272,10 @@
         <v>44</v>
       </c>
       <c r="P87" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -5264,10 +5284,10 @@
         <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D88" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E88" t="s">
         <v>48</v>
@@ -5283,10 +5303,10 @@
         <v>44</v>
       </c>
       <c r="P88" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -5295,16 +5315,16 @@
         <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D89" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E89" t="s">
         <v>69</v>
       </c>
-      <c r="F89" s="11">
-        <v>8</v>
+      <c r="F89" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="I89" t="s">
         <v>25</v>
@@ -5314,10 +5334,10 @@
         <v>44</v>
       </c>
       <c r="P89" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -5326,16 +5346,16 @@
         <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D90" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E90" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F90" s="11">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="I90" t="s">
         <v>25</v>
@@ -5345,10 +5365,10 @@
         <v>44</v>
       </c>
       <c r="P90" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -5357,16 +5377,16 @@
         <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D91" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E91" t="s">
-        <v>69</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>79</v>
+        <v>48</v>
+      </c>
+      <c r="F91" s="11">
+        <v>8</v>
       </c>
       <c r="I91" t="s">
         <v>25</v>
@@ -5376,10 +5396,10 @@
         <v>44</v>
       </c>
       <c r="P91" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -5388,29 +5408,29 @@
         <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D92" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E92" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F92" s="11">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="I92" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K92" t="s">
+        <v>299</v>
       </c>
       <c r="L92" s="3"/>
       <c r="M92" t="s">
-        <v>44</v>
-      </c>
-      <c r="P92" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" ht="15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -5419,13 +5439,13 @@
         <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D93" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E93" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F93" s="11">
         <v>8</v>
@@ -5433,15 +5453,15 @@
       <c r="I93" t="s">
         <v>25</v>
       </c>
+      <c r="K93" t="s">
+        <v>302</v>
+      </c>
       <c r="L93" s="3"/>
       <c r="M93" t="s">
-        <v>44</v>
-      </c>
-      <c r="P93" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" ht="15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -5450,29 +5470,29 @@
         <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D94" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E94" t="s">
         <v>48</v>
       </c>
       <c r="F94" s="11">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="I94" t="s">
         <v>24</v>
       </c>
       <c r="K94" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L94" s="3"/>
       <c r="M94" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -5481,29 +5501,26 @@
         <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D95" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E95" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="F95" s="11">
         <v>8</v>
       </c>
-      <c r="I95" t="s">
-        <v>25</v>
-      </c>
-      <c r="K95" t="s">
-        <v>311</v>
-      </c>
       <c r="L95" s="3"/>
       <c r="M95" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" ht="15">
+        <v>80</v>
+      </c>
+      <c r="O95" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -5512,29 +5529,26 @@
         <v>19</v>
       </c>
       <c r="C96" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D96" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E96" t="s">
         <v>48</v>
       </c>
       <c r="F96" s="11">
-        <v>8</v>
-      </c>
-      <c r="I96" t="s">
-        <v>24</v>
-      </c>
-      <c r="K96" t="s">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="L96" s="3"/>
       <c r="M96" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" ht="15">
+      <c r="O96" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -5543,26 +5557,26 @@
         <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D97" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E97" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="F97" s="11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="L97" s="3"/>
       <c r="M97" t="s">
         <v>80</v>
       </c>
       <c r="O97" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -5571,26 +5585,23 @@
         <v>19</v>
       </c>
       <c r="C98" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D98" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E98" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F98" s="11">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="L98" s="3"/>
       <c r="M98" t="s">
         <v>85</v>
       </c>
-      <c r="O98" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="15">
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -5599,26 +5610,26 @@
         <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D99" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E99" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="F99" s="11">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="L99" s="3"/>
       <c r="M99" t="s">
         <v>80</v>
       </c>
       <c r="O99" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -5627,23 +5638,26 @@
         <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D100" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E100" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F100" s="11">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="L100" s="3"/>
       <c r="M100" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" ht="15">
+      <c r="O100" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -5652,26 +5666,29 @@
         <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D101" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E101" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="F101" s="11">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="K101" t="s">
+        <v>113</v>
       </c>
       <c r="L101" s="3"/>
       <c r="M101" t="s">
         <v>80</v>
       </c>
       <c r="O101" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" ht="15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -5680,26 +5697,26 @@
         <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D102" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E102" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="F102" s="11">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="L102" s="3"/>
       <c r="M102" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O102" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="15">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -5708,29 +5725,26 @@
         <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D103" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E103" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="F103" s="11">
-        <v>1</v>
-      </c>
-      <c r="K103" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="L103" s="3"/>
       <c r="M103" t="s">
         <v>80</v>
       </c>
       <c r="O103" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -5739,26 +5753,26 @@
         <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D104" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E104" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="F104" s="11">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L104" s="3"/>
       <c r="M104" t="s">
         <v>80</v>
       </c>
       <c r="O104" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="15">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -5767,26 +5781,26 @@
         <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D105" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E105" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F105" s="11">
         <v>8</v>
       </c>
       <c r="L105" s="3"/>
       <c r="M105" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O105" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="15">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -5795,26 +5809,26 @@
         <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D106" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E106" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="F106" s="11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L106" s="3"/>
       <c r="M106" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O106" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="15">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -5823,26 +5837,26 @@
         <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D107" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E107" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="F107" s="11">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L107" s="3"/>
       <c r="M107" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O107" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="15">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -5851,26 +5865,26 @@
         <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D108" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E108" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="F108" s="11">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L108" s="3"/>
       <c r="M108" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O108" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -5879,26 +5893,26 @@
         <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D109" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E109" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="F109" s="11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L109" s="3"/>
       <c r="M109" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O109" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="15">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -5907,26 +5921,26 @@
         <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D110" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E110" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="F110" s="11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L110" s="3"/>
       <c r="M110" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O110" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="15">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -5935,26 +5949,26 @@
         <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D111" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E111" t="s">
-        <v>210</v>
+        <v>69</v>
       </c>
       <c r="F111" s="11">
         <v>8</v>
       </c>
       <c r="L111" s="3"/>
       <c r="M111" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O111" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" ht="15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -5963,26 +5977,26 @@
         <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D112" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E112" t="s">
-        <v>210</v>
+        <v>69</v>
       </c>
       <c r="F112" s="11">
         <v>8</v>
       </c>
       <c r="L112" s="3"/>
       <c r="M112" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O112" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="15">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -5991,26 +6005,26 @@
         <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D113" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E113" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F113" s="11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="L113" s="3"/>
       <c r="M113" t="s">
         <v>80</v>
       </c>
       <c r="O113" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -6019,10 +6033,10 @@
         <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D114" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E114" t="s">
         <v>69</v>
@@ -6032,13 +6046,13 @@
       </c>
       <c r="L114" s="3"/>
       <c r="M114" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O114" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="15">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -6047,26 +6061,26 @@
         <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D115" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E115" t="s">
         <v>48</v>
       </c>
       <c r="F115" s="11">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="L115" s="3"/>
       <c r="M115" t="s">
         <v>80</v>
       </c>
       <c r="O115" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="15">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -6075,10 +6089,10 @@
         <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D116" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E116" t="s">
         <v>69</v>
@@ -6091,10 +6105,10 @@
         <v>85</v>
       </c>
       <c r="O116" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -6103,10 +6117,10 @@
         <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D117" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E117" t="s">
         <v>48</v>
@@ -6119,10 +6133,10 @@
         <v>80</v>
       </c>
       <c r="O117" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="15">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -6131,26 +6145,26 @@
         <v>19</v>
       </c>
       <c r="C118" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D118" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E118" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F118" s="11">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="L118" s="3"/>
       <c r="M118" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O118" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -6159,26 +6173,29 @@
         <v>19</v>
       </c>
       <c r="C119" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D119" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E119" t="s">
         <v>48</v>
       </c>
       <c r="F119" s="11">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="K119" t="s">
+        <v>113</v>
       </c>
       <c r="L119" s="3"/>
       <c r="M119" t="s">
         <v>80</v>
       </c>
       <c r="O119" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="15">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -6187,95 +6204,30 @@
         <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D120" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E120" t="s">
         <v>48</v>
       </c>
       <c r="F120" s="11">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="K120" t="s">
+        <v>113</v>
       </c>
       <c r="L120" s="3"/>
       <c r="M120" t="s">
         <v>80</v>
       </c>
       <c r="O120" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="15">
-      <c r="A121" s="4">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C121" t="s">
-        <v>386</v>
-      </c>
-      <c r="D121" t="s">
-        <v>387</v>
-      </c>
-      <c r="E121" t="s">
-        <v>48</v>
-      </c>
-      <c r="F121" s="11">
-        <v>1</v>
-      </c>
-      <c r="K121" t="s">
-        <v>122</v>
-      </c>
-      <c r="L121" s="3"/>
-      <c r="M121" t="s">
-        <v>80</v>
-      </c>
-      <c r="O121" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="15">
-      <c r="A122" s="4">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122" t="s">
-        <v>389</v>
-      </c>
-      <c r="D122" t="s">
-        <v>390</v>
-      </c>
-      <c r="E122" t="s">
-        <v>48</v>
-      </c>
-      <c r="F122" s="11">
-        <v>1</v>
-      </c>
-      <c r="K122" t="s">
-        <v>122</v>
-      </c>
-      <c r="L122" s="3"/>
-      <c r="M122" t="s">
-        <v>80</v>
-      </c>
-      <c r="O122" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="15"/>
-    <row r="124" spans="1:15" ht="15"/>
-    <row r="125" spans="1:15" ht="15"/>
-    <row r="126" spans="1:15" ht="15"/>
-    <row r="127" spans="1:15" ht="15"/>
-    <row r="128" spans="1:15" ht="15"/>
+        <v>382</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:S122" xr:uid="{129AE431-5806-471D-9C82-A144A32316F7}"/>
+  <autoFilter ref="A1:S120" xr:uid="{129AE431-5806-471D-9C82-A144A32316F7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6289,26 +6241,26 @@
       <selection pane="bottomLeft" activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" customWidth="1"/>
-    <col min="17" max="18" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="13" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="11.75" customWidth="1"/>
+    <col min="15" max="15" width="13.625" customWidth="1"/>
+    <col min="16" max="16" width="15.25" customWidth="1"/>
+    <col min="17" max="18" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -6319,7 +6271,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -6378,7 +6330,7 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6386,239 +6338,281 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBC456A-1389-4826-89DD-7A3DE90BCF75}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="59.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="9" style="4"/>
+    <col min="6" max="6" width="59.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>396</v>
+      <c r="F1" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+      <c r="F2" s="20">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="20">
+        <v>2</v>
+      </c>
+      <c r="F3" s="20">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="19" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="20">
+        <v>3</v>
+      </c>
+      <c r="F4" s="20">
+        <v>3</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="19" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="20">
+        <v>4</v>
+      </c>
+      <c r="F5" s="20">
+        <v>4</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="19" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
         <v>397</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C6" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G6" t="s">
         <v>400</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G7" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G8" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>400</v>
-      </c>
-      <c r="F8" t="s">
-        <v>400</v>
-      </c>
-      <c r="H8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>407</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F9" t="s">
-        <v>232</v>
-      </c>
-      <c r="H9" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>407</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>405</v>
-      </c>
-      <c r="F10" t="s">
-        <v>405</v>
-      </c>
-      <c r="H10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>407</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="G11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>406</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
         <v>407</v>
@@ -6626,22 +6620,22 @@
       <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" t="s">
-        <v>408</v>
+      <c r="E12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="G12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>406</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
         <v>407</v>
@@ -6649,1380 +6643,1372 @@
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
-        <v>400</v>
-      </c>
-      <c r="F13" t="s">
-        <v>410</v>
-      </c>
-      <c r="G13" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="E13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B14" t="s">
-        <v>406</v>
-      </c>
-      <c r="C14" t="s">
-        <v>407</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>232</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>412</v>
       </c>
-      <c r="G14" t="s">
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>412</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>416</v>
       </c>
-      <c r="H15" t="s">
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>414</v>
-      </c>
-      <c r="B16" t="s">
-        <v>415</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>414</v>
-      </c>
-      <c r="B17" t="s">
-        <v>415</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>400</v>
-      </c>
-      <c r="F17" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" t="s">
-        <v>418</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" t="s">
-        <v>399</v>
-      </c>
-      <c r="G18" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s">
-        <v>418</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>400</v>
-      </c>
-      <c r="F19" t="s">
-        <v>401</v>
-      </c>
-      <c r="G19" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" t="s">
-        <v>418</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>232</v>
-      </c>
-      <c r="F20" t="s">
-        <v>402</v>
-      </c>
-      <c r="G20" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" t="s">
-        <v>418</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" t="s">
-        <v>403</v>
-      </c>
-      <c r="G21" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" t="s">
-        <v>418</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>102</v>
-      </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
         <v>69</v>
       </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" t="s">
-        <v>127</v>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>416</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
         <v>69</v>
       </c>
-      <c r="E24" t="s">
-        <v>400</v>
-      </c>
-      <c r="F24" t="s">
-        <v>400</v>
+      <c r="E24" s="4">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>567</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>567</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>567</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>568</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
         <v>69</v>
       </c>
-      <c r="E25" t="s">
-        <v>232</v>
-      </c>
-      <c r="F25" t="s">
-        <v>232</v>
-      </c>
-      <c r="H25" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>568</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
         <v>69</v>
       </c>
-      <c r="E26" t="s">
-        <v>405</v>
-      </c>
-      <c r="F26" t="s">
-        <v>405</v>
-      </c>
-      <c r="H26" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>568</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
         <v>69</v>
       </c>
-      <c r="E27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
+      <c r="E30" s="4">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>417</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="G31" t="s">
+        <v>419</v>
+      </c>
+      <c r="H31" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>417</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G32" t="s">
+        <v>422</v>
+      </c>
+      <c r="H32" t="s">
         <v>423</v>
       </c>
-      <c r="B28" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" t="s">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>417</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>423</v>
-      </c>
-      <c r="B29" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G33" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>423</v>
-      </c>
-      <c r="B30" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="H33" t="s">
         <v>426</v>
       </c>
-      <c r="H30" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>417</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B31" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>427</v>
-      </c>
-      <c r="B32" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2</v>
-      </c>
-      <c r="H32" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>427</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="G34" t="s">
+        <v>428</v>
+      </c>
+      <c r="H34" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
+        <v>430</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" t="s">
+        <v>430</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" t="s">
+        <v>430</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" t="s">
-        <v>428</v>
-      </c>
-      <c r="D34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" t="s">
-        <v>429</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F37" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" t="s">
         <v>430</v>
       </c>
-      <c r="H34" t="s">
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" t="s">
-        <v>428</v>
-      </c>
-      <c r="D35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" t="s">
-        <v>400</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="F38" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G35" t="s">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" t="s">
         <v>433</v>
       </c>
-      <c r="H35" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" t="s">
-        <v>428</v>
-      </c>
-      <c r="D36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" t="s">
-        <v>232</v>
-      </c>
-      <c r="F36" t="s">
-        <v>435</v>
-      </c>
-      <c r="G36" t="s">
-        <v>436</v>
-      </c>
-      <c r="H36" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" t="s">
-        <v>428</v>
-      </c>
-      <c r="D37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" t="s">
-        <v>405</v>
-      </c>
-      <c r="F37" t="s">
-        <v>438</v>
-      </c>
-      <c r="G37" t="s">
-        <v>439</v>
-      </c>
-      <c r="H37" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" t="s">
-        <v>441</v>
-      </c>
-      <c r="D38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>155</v>
-      </c>
-      <c r="B39" t="s">
-        <v>441</v>
-      </c>
       <c r="D39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" t="s">
-        <v>400</v>
-      </c>
-      <c r="F39" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" t="s">
-        <v>444</v>
-      </c>
-      <c r="F40" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="D41" t="s">
         <v>69</v>
       </c>
-      <c r="E41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="E41" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="F41" s="4">
+        <v>3</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="D42" t="s">
         <v>69</v>
       </c>
-      <c r="E42" t="s">
-        <v>400</v>
-      </c>
-      <c r="F42" t="s">
-        <v>400</v>
-      </c>
-      <c r="H42" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="E42" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>434</v>
       </c>
       <c r="B43" t="s">
-        <v>446</v>
+        <v>435</v>
+      </c>
+      <c r="C43" t="s">
+        <v>436</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" t="s">
-        <v>444</v>
-      </c>
-      <c r="F43" t="s">
-        <v>444</v>
+        <v>48</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G43" t="s">
+        <v>437</v>
       </c>
       <c r="H43" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B44" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C44" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
       </c>
-      <c r="E44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F44" t="s">
-        <v>417</v>
+      <c r="E44" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="G44" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="H44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B45" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C45" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
       </c>
-      <c r="E45" t="s">
-        <v>400</v>
-      </c>
-      <c r="F45" t="s">
-        <v>451</v>
+      <c r="E45" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="G45" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="H45" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B46" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C46" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
       </c>
-      <c r="E46" t="s">
-        <v>232</v>
-      </c>
-      <c r="F46" t="s">
-        <v>435</v>
+      <c r="E46" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="G46" t="s">
+        <v>441</v>
+      </c>
+      <c r="H46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" t="s">
+        <v>442</v>
+      </c>
+      <c r="C47" t="s">
         <v>436</v>
       </c>
-      <c r="H46" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>447</v>
-      </c>
-      <c r="B47" t="s">
-        <v>448</v>
-      </c>
-      <c r="C47" t="s">
-        <v>449</v>
-      </c>
       <c r="D47" t="s">
         <v>48</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="F47" t="s">
-        <v>416</v>
-      </c>
-      <c r="G47" t="s">
-        <v>454</v>
       </c>
       <c r="H47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>455</v>
-      </c>
-      <c r="C48" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
       </c>
-      <c r="E48" t="s">
-        <v>127</v>
-      </c>
-      <c r="F48" t="s">
-        <v>416</v>
+      <c r="E48" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G48" t="s">
+        <v>441</v>
       </c>
       <c r="H48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s">
+        <v>443</v>
+      </c>
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G49" t="s">
+        <v>437</v>
+      </c>
+      <c r="H49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>405</v>
+      </c>
+      <c r="B50" t="s">
+        <v>444</v>
+      </c>
+      <c r="C50" t="s">
+        <v>436</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>299</v>
+      </c>
+      <c r="B51" t="s">
+        <v>298</v>
+      </c>
+      <c r="C51" t="s">
+        <v>445</v>
+      </c>
+      <c r="D51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="G51" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>299</v>
+      </c>
+      <c r="B52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C52" t="s">
+        <v>445</v>
+      </c>
+      <c r="D52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G52" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>299</v>
+      </c>
+      <c r="B53" t="s">
+        <v>298</v>
+      </c>
+      <c r="C53" t="s">
+        <v>445</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G53" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>299</v>
+      </c>
+      <c r="B54" t="s">
+        <v>298</v>
+      </c>
+      <c r="C54" t="s">
+        <v>445</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="G54" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>299</v>
+      </c>
+      <c r="B55" t="s">
+        <v>298</v>
+      </c>
+      <c r="C55" t="s">
+        <v>445</v>
+      </c>
+      <c r="D55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="G55" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>299</v>
+      </c>
+      <c r="B56" t="s">
+        <v>298</v>
+      </c>
+      <c r="C56" t="s">
+        <v>445</v>
+      </c>
+      <c r="D56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="D49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" t="s">
-        <v>127</v>
-      </c>
-      <c r="F49" t="s">
-        <v>416</v>
-      </c>
-      <c r="G49" t="s">
-        <v>454</v>
-      </c>
-      <c r="H49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" t="s">
-        <v>456</v>
-      </c>
-      <c r="D50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" t="s">
-        <v>400</v>
-      </c>
-      <c r="F50" t="s">
-        <v>417</v>
-      </c>
-      <c r="G50" t="s">
-        <v>450</v>
-      </c>
-      <c r="H50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>416</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="G56" t="s">
         <v>457</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>299</v>
+      </c>
+      <c r="B57" t="s">
+        <v>298</v>
+      </c>
+      <c r="C57" t="s">
+        <v>445</v>
+      </c>
+      <c r="D57" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="G57" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>299</v>
+      </c>
+      <c r="B58" t="s">
+        <v>298</v>
+      </c>
+      <c r="C58" t="s">
+        <v>445</v>
+      </c>
+      <c r="D58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="G58" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>299</v>
+      </c>
+      <c r="B59" t="s">
+        <v>298</v>
+      </c>
+      <c r="C59" t="s">
+        <v>445</v>
+      </c>
+      <c r="D59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G59" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>305</v>
+      </c>
+      <c r="B60" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" t="s">
+        <v>466</v>
+      </c>
+      <c r="D60" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="G60" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>305</v>
+      </c>
+      <c r="B61" t="s">
+        <v>304</v>
+      </c>
+      <c r="C61" t="s">
+        <v>466</v>
+      </c>
+      <c r="D61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="G61" t="s">
         <v>449</v>
       </c>
-      <c r="D51" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" t="s">
-        <v>127</v>
-      </c>
-      <c r="F51" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>308</v>
-      </c>
-      <c r="B52" t="s">
-        <v>307</v>
-      </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>305</v>
+      </c>
+      <c r="B62" t="s">
+        <v>304</v>
+      </c>
+      <c r="C62" t="s">
+        <v>466</v>
+      </c>
+      <c r="D62" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G62" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>305</v>
+      </c>
+      <c r="B63" t="s">
+        <v>304</v>
+      </c>
+      <c r="C63" t="s">
+        <v>466</v>
+      </c>
+      <c r="D63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="G63" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>305</v>
+      </c>
+      <c r="B64" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" t="s">
+        <v>466</v>
+      </c>
+      <c r="D64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="G64" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>305</v>
+      </c>
+      <c r="B65" t="s">
+        <v>304</v>
+      </c>
+      <c r="C65" t="s">
+        <v>466</v>
+      </c>
+      <c r="D65" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="G65" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>305</v>
+      </c>
+      <c r="B66" t="s">
+        <v>304</v>
+      </c>
+      <c r="C66" t="s">
+        <v>466</v>
+      </c>
+      <c r="D66" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" t="s">
-        <v>127</v>
-      </c>
-      <c r="F52" t="s">
-        <v>459</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="F66" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="G66" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>308</v>
-      </c>
-      <c r="B53" t="s">
-        <v>307</v>
-      </c>
-      <c r="C53" t="s">
-        <v>458</v>
-      </c>
-      <c r="D53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" t="s">
-        <v>400</v>
-      </c>
-      <c r="F53" t="s">
-        <v>461</v>
-      </c>
-      <c r="G53" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>305</v>
+      </c>
+      <c r="B67" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" t="s">
+        <v>466</v>
+      </c>
+      <c r="D67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="G67" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>308</v>
-      </c>
-      <c r="B54" t="s">
-        <v>307</v>
-      </c>
-      <c r="C54" t="s">
-        <v>458</v>
-      </c>
-      <c r="D54" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" t="s">
-        <v>232</v>
-      </c>
-      <c r="F54" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>305</v>
+      </c>
+      <c r="B68" t="s">
+        <v>304</v>
+      </c>
+      <c r="C68" t="s">
+        <v>466</v>
+      </c>
+      <c r="D68" t="s">
+        <v>48</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="G54" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>308</v>
-      </c>
-      <c r="B55" t="s">
-        <v>307</v>
-      </c>
-      <c r="C55" t="s">
-        <v>458</v>
-      </c>
-      <c r="D55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" t="s">
-        <v>405</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="F68" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G68" t="s">
         <v>465</v>
       </c>
-      <c r="G55" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>308</v>
-      </c>
-      <c r="B56" t="s">
-        <v>307</v>
-      </c>
-      <c r="C56" t="s">
-        <v>458</v>
-      </c>
-      <c r="D56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" t="s">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>302</v>
+      </c>
+      <c r="B69" t="s">
+        <v>301</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H69" t="s">
         <v>467</v>
       </c>
-      <c r="G56" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>308</v>
-      </c>
-      <c r="B57" t="s">
-        <v>307</v>
-      </c>
-      <c r="C57" t="s">
-        <v>458</v>
-      </c>
-      <c r="D57" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" t="s">
-        <v>469</v>
-      </c>
-      <c r="G57" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>308</v>
-      </c>
-      <c r="B58" t="s">
-        <v>307</v>
-      </c>
-      <c r="C58" t="s">
-        <v>458</v>
-      </c>
-      <c r="D58" t="s">
-        <v>48</v>
-      </c>
-      <c r="E58" t="s">
-        <v>471</v>
-      </c>
-      <c r="F58" t="s">
-        <v>472</v>
-      </c>
-      <c r="G58" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>308</v>
-      </c>
-      <c r="B59" t="s">
-        <v>307</v>
-      </c>
-      <c r="C59" t="s">
-        <v>458</v>
-      </c>
-      <c r="D59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" t="s">
-        <v>79</v>
-      </c>
-      <c r="F59" t="s">
-        <v>474</v>
-      </c>
-      <c r="G59" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>308</v>
-      </c>
-      <c r="B60" t="s">
-        <v>307</v>
-      </c>
-      <c r="C60" t="s">
-        <v>458</v>
-      </c>
-      <c r="D60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" t="s">
-        <v>476</v>
-      </c>
-      <c r="F60" t="s">
-        <v>477</v>
-      </c>
-      <c r="G60" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>314</v>
-      </c>
-      <c r="B61" t="s">
-        <v>313</v>
-      </c>
-      <c r="C61" t="s">
-        <v>479</v>
-      </c>
-      <c r="D61" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61" t="s">
-        <v>127</v>
-      </c>
-      <c r="F61" t="s">
-        <v>480</v>
-      </c>
-      <c r="G61" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>314</v>
-      </c>
-      <c r="B62" t="s">
-        <v>313</v>
-      </c>
-      <c r="C62" t="s">
-        <v>479</v>
-      </c>
-      <c r="D62" t="s">
-        <v>48</v>
-      </c>
-      <c r="E62" t="s">
-        <v>400</v>
-      </c>
-      <c r="F62" t="s">
-        <v>481</v>
-      </c>
-      <c r="G62" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>314</v>
-      </c>
-      <c r="B63" t="s">
-        <v>313</v>
-      </c>
-      <c r="C63" t="s">
-        <v>479</v>
-      </c>
-      <c r="D63" t="s">
-        <v>48</v>
-      </c>
-      <c r="E63" t="s">
-        <v>232</v>
-      </c>
-      <c r="F63" t="s">
-        <v>482</v>
-      </c>
-      <c r="G63" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>314</v>
-      </c>
-      <c r="B64" t="s">
-        <v>313</v>
-      </c>
-      <c r="C64" t="s">
-        <v>479</v>
-      </c>
-      <c r="D64" t="s">
-        <v>48</v>
-      </c>
-      <c r="E64" t="s">
-        <v>405</v>
-      </c>
-      <c r="F64" t="s">
-        <v>483</v>
-      </c>
-      <c r="G64" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>314</v>
-      </c>
-      <c r="B65" t="s">
-        <v>313</v>
-      </c>
-      <c r="C65" t="s">
-        <v>479</v>
-      </c>
-      <c r="D65" t="s">
-        <v>48</v>
-      </c>
-      <c r="E65" t="s">
-        <v>61</v>
-      </c>
-      <c r="F65" t="s">
-        <v>484</v>
-      </c>
-      <c r="G65" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
-        <v>314</v>
-      </c>
-      <c r="B66" t="s">
-        <v>313</v>
-      </c>
-      <c r="C66" t="s">
-        <v>479</v>
-      </c>
-      <c r="D66" t="s">
-        <v>48</v>
-      </c>
-      <c r="E66" t="s">
-        <v>49</v>
-      </c>
-      <c r="F66" t="s">
-        <v>485</v>
-      </c>
-      <c r="G66" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>314</v>
-      </c>
-      <c r="B67" t="s">
-        <v>313</v>
-      </c>
-      <c r="C67" t="s">
-        <v>479</v>
-      </c>
-      <c r="D67" t="s">
-        <v>48</v>
-      </c>
-      <c r="E67" t="s">
-        <v>471</v>
-      </c>
-      <c r="F67" t="s">
-        <v>486</v>
-      </c>
-      <c r="G67" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
-        <v>314</v>
-      </c>
-      <c r="B68" t="s">
-        <v>313</v>
-      </c>
-      <c r="C68" t="s">
-        <v>479</v>
-      </c>
-      <c r="D68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E68" t="s">
-        <v>79</v>
-      </c>
-      <c r="F68" t="s">
-        <v>487</v>
-      </c>
-      <c r="G68" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="s">
-        <v>314</v>
-      </c>
-      <c r="B69" t="s">
-        <v>313</v>
-      </c>
-      <c r="C69" t="s">
-        <v>479</v>
-      </c>
-      <c r="D69" t="s">
-        <v>48</v>
-      </c>
-      <c r="E69" t="s">
-        <v>476</v>
-      </c>
-      <c r="F69" t="s">
-        <v>488</v>
-      </c>
-      <c r="G69" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B70" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D70" t="s">
         <v>69</v>
       </c>
-      <c r="E70" t="s">
-        <v>127</v>
-      </c>
-      <c r="F70" t="s">
-        <v>127</v>
+      <c r="E70" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="H70" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B71" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D71" t="s">
         <v>69</v>
       </c>
-      <c r="E71" t="s">
-        <v>400</v>
-      </c>
-      <c r="F71" t="s">
-        <v>400</v>
+      <c r="E71" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="H71" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B72" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D72" t="s">
         <v>69</v>
       </c>
-      <c r="E72" t="s">
-        <v>232</v>
-      </c>
-      <c r="F72" t="s">
-        <v>232</v>
+      <c r="E72" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="H72" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B73" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D73" t="s">
         <v>69</v>
       </c>
-      <c r="E73" t="s">
-        <v>405</v>
-      </c>
-      <c r="F73" t="s">
-        <v>405</v>
+      <c r="E73" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H73" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B74" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D74" t="s">
         <v>69</v>
       </c>
-      <c r="E74" t="s">
-        <v>61</v>
-      </c>
-      <c r="F74" t="s">
-        <v>61</v>
+      <c r="E74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H74" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B75" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D75" t="s">
         <v>69</v>
       </c>
-      <c r="E75" t="s">
-        <v>49</v>
-      </c>
-      <c r="F75" t="s">
-        <v>49</v>
+      <c r="E75" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>458</v>
       </c>
       <c r="H75" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B76" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D76" t="s">
         <v>69</v>
       </c>
-      <c r="E76" t="s">
-        <v>471</v>
-      </c>
-      <c r="F76" t="s">
-        <v>471</v>
+      <c r="E76" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="H76" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B77" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D77" t="s">
         <v>69</v>
       </c>
-      <c r="E77" t="s">
-        <v>79</v>
-      </c>
-      <c r="F77" t="s">
-        <v>79</v>
+      <c r="E77" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>463</v>
       </c>
       <c r="H77" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>311</v>
-      </c>
-      <c r="B78" t="s">
-        <v>310</v>
-      </c>
-      <c r="D78" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" t="s">
-        <v>476</v>
-      </c>
-      <c r="F78" t="s">
-        <v>476</v>
-      </c>
-      <c r="H78" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -8036,84 +8022,84 @@
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="B2" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="C2" t="s">
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="E2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="E3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B4" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="E4" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -8126,532 +8112,532 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A27F77-A36A-4B0F-AB98-73EE4727DE22}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="148.5703125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="46.25" customWidth="1"/>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="148.625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30.75">
+    <row r="2" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7" t="s">
+        <v>494</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C9" t="s">
+        <v>494</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" t="s">
+        <v>499</v>
+      </c>
+      <c r="C11" t="s">
+        <v>494</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="D2" s="14" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" t="s">
+        <v>499</v>
+      </c>
+      <c r="C12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30.75">
-      <c r="A3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" t="s">
         <v>509</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C13" t="s">
+        <v>494</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C3" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="14" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C14" t="s">
+        <v>494</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="26.5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B5" t="s">
-        <v>512</v>
-      </c>
-      <c r="C5" t="s">
-        <v>507</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>317</v>
-      </c>
-      <c r="B6" t="s">
-        <v>512</v>
-      </c>
-      <c r="C6" t="s">
-        <v>507</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    <row r="16" spans="1:8" ht="58.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B7" t="s">
-        <v>512</v>
-      </c>
-      <c r="C7" t="s">
-        <v>507</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C16" t="s">
+        <v>494</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B8" t="s">
-        <v>512</v>
-      </c>
-      <c r="C8" t="s">
-        <v>507</v>
-      </c>
-      <c r="D8" s="2" t="s">
+    <row r="17" spans="1:4" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>317</v>
-      </c>
-      <c r="B9" t="s">
-        <v>512</v>
-      </c>
-      <c r="C9" t="s">
-        <v>507</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C17" t="s">
+        <v>494</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>317</v>
-      </c>
-      <c r="B10" t="s">
-        <v>512</v>
-      </c>
-      <c r="C10" t="s">
-        <v>507</v>
-      </c>
-      <c r="D10" s="2" t="s">
+    <row r="18" spans="1:4" ht="39.4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B11" t="s">
-        <v>512</v>
-      </c>
-      <c r="C11" t="s">
-        <v>507</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C18" t="s">
+        <v>494</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B12" t="s">
-        <v>512</v>
-      </c>
-      <c r="C12" t="s">
-        <v>507</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    <row r="19" spans="1:4" ht="91.05" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B19" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>320</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C19" t="s">
+        <v>494</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="C13" t="s">
-        <v>507</v>
-      </c>
-      <c r="D13" s="2" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="45.75">
-      <c r="A14" t="s">
-        <v>323</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C20" t="s">
+        <v>494</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C14" t="s">
-        <v>507</v>
-      </c>
-      <c r="D14" s="2" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>337</v>
+      </c>
+      <c r="B21" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="24">
-      <c r="A15" t="s">
-        <v>328</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C21" t="s">
+        <v>494</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C15" t="s">
-        <v>507</v>
-      </c>
-      <c r="D15" s="8" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="58.5" customHeight="1">
-      <c r="A16" t="s">
-        <v>331</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C22" t="s">
+        <v>494</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C16" t="s">
-        <v>507</v>
-      </c>
-      <c r="D16" s="2" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="45.75">
-      <c r="A17" t="s">
-        <v>334</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C23" t="s">
+        <v>494</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C17" t="s">
-        <v>507</v>
-      </c>
-      <c r="D17" s="2" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B24" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="36">
-      <c r="A18" t="s">
-        <v>337</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C24" t="s">
+        <v>494</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C18" t="s">
-        <v>507</v>
-      </c>
-      <c r="D18" s="8" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B25" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="84">
-      <c r="A19" t="s">
-        <v>340</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C25" t="s">
+        <v>494</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C19" t="s">
-        <v>507</v>
-      </c>
-      <c r="D19" s="8" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>352</v>
+      </c>
+      <c r="B26" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="45.75">
-      <c r="A20" t="s">
-        <v>343</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C26" t="s">
+        <v>494</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C20" t="s">
-        <v>507</v>
-      </c>
-      <c r="D20" s="2" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>355</v>
+      </c>
+      <c r="B27" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="60.75">
-      <c r="A21" t="s">
-        <v>346</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C27" t="s">
+        <v>494</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="C21" t="s">
-        <v>507</v>
-      </c>
-      <c r="D21" s="2" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>358</v>
+      </c>
+      <c r="B28" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="60.75">
-      <c r="A22" t="s">
-        <v>349</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C28" t="s">
+        <v>494</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C22" t="s">
-        <v>507</v>
-      </c>
-      <c r="D22" s="2" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B29" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="137.25">
-      <c r="A23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C29" t="s">
+        <v>494</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C23" t="s">
-        <v>507</v>
-      </c>
-      <c r="D23" s="2" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B30" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="30.75">
-      <c r="A24" t="s">
-        <v>355</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C30" t="s">
+        <v>494</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C24" t="s">
-        <v>507</v>
-      </c>
-      <c r="D24" s="2" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>367</v>
+      </c>
+      <c r="B31" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="60.75">
-      <c r="A25" t="s">
-        <v>358</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C31" t="s">
+        <v>494</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C25" t="s">
-        <v>507</v>
-      </c>
-      <c r="D25" s="2" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>370</v>
+      </c>
+      <c r="B32" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="60.75">
-      <c r="A26" t="s">
-        <v>361</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C32" t="s">
+        <v>494</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C26" t="s">
-        <v>507</v>
-      </c>
-      <c r="D26" s="2" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>373</v>
+      </c>
+      <c r="B33" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>364</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C33" t="s">
+        <v>494</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C27" t="s">
-        <v>507</v>
-      </c>
-      <c r="D27" s="8" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>376</v>
+      </c>
+      <c r="B34" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="45.75">
-      <c r="A28" t="s">
-        <v>367</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C34" t="s">
+        <v>494</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C28" t="s">
-        <v>507</v>
-      </c>
-      <c r="D28" s="2" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="85.6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>379</v>
+      </c>
+      <c r="B35" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>370</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C35" t="s">
+        <v>494</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C29" t="s">
-        <v>507</v>
-      </c>
-      <c r="D29" s="2" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>382</v>
+      </c>
+      <c r="B36" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>373</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C36" t="s">
+        <v>494</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="C30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>376</v>
-      </c>
-      <c r="B31" t="s">
-        <v>558</v>
-      </c>
-      <c r="C31" t="s">
-        <v>507</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30.75">
-      <c r="A32" t="s">
-        <v>379</v>
-      </c>
-      <c r="B32" t="s">
-        <v>560</v>
-      </c>
-      <c r="C32" t="s">
-        <v>507</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>382</v>
-      </c>
-      <c r="B33" t="s">
-        <v>562</v>
-      </c>
-      <c r="C33" t="s">
-        <v>507</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>385</v>
-      </c>
-      <c r="B34" t="s">
-        <v>564</v>
-      </c>
-      <c r="C34" t="s">
-        <v>507</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="91.5">
-      <c r="A35" t="s">
-        <v>388</v>
-      </c>
-      <c r="B35" t="s">
-        <v>566</v>
-      </c>
-      <c r="C35" t="s">
-        <v>507</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30.75">
-      <c r="A36" t="s">
-        <v>391</v>
-      </c>
-      <c r="B36" t="s">
-        <v>568</v>
-      </c>
-      <c r="C36" t="s">
-        <v>507</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -8668,22 +8654,22 @@
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="3" max="4" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="62.375" customWidth="1"/>
+    <col min="3" max="4" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>42</v>
@@ -8705,6 +8691,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d9de82e3-6650-437c-811c-4330ac3163a7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="352660e0-d3e8-47c6-9ec5-fea43b473253">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010018943E1407CCF04989863CF0F432E8B2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="db7879c5843627d2d5018033e2f13957">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="352660e0-d3e8-47c6-9ec5-fea43b473253" xmlns:ns3="d9de82e3-6650-437c-811c-4330ac3163a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2446b3d32c0630b69da860c4e69f999" ns2:_="" ns3:_="">
     <xsd:import namespace="352660e0-d3e8-47c6-9ec5-fea43b473253"/>
@@ -8933,25 +8930,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d9de82e3-6650-437c-811c-4330ac3163a7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="352660e0-d3e8-47c6-9ec5-fea43b473253">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A2FCDB-4CEB-4560-BC24-5417B97B9546}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A2FCDB-4CEB-4560-BC24-5417B97B9546}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99401450-4116-472E-9386-888FD56A9AF4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E58BEAF-C168-4A50-BC01-2C2CE605BA70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d9de82e3-6650-437c-811c-4330ac3163a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="352660e0-d3e8-47c6-9ec5-fea43b473253"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E58BEAF-C168-4A50-BC01-2C2CE605BA70}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99401450-4116-472E-9386-888FD56A9AF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="352660e0-d3e8-47c6-9ec5-fea43b473253"/>
+    <ds:schemaRef ds:uri="d9de82e3-6650-437c-811c-4330ac3163a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/metadata/rpharma_specs.xlsx
+++ b/metadata/rpharma_specs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bs832471\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://phuseaccount.sharepoint.com/sites/Pharmaverse-admiral/Shared Documents/RPharma2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89897F62-9C62-406E-B2F2-D9F89946E9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="400" documentId="13_ncr:1_{7D220467-D1C0-4B22-9952-64DAEB9CC36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E528757B-A6F2-4DB7-91F4-C5DD949A064E}"/>
   <bookViews>
     <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Documents!$A$1:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Study!$A$1:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ValueLevel!$A$1:$R$102</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$S$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$S$119</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="576">
   <si>
     <t>Attribute</t>
   </si>
@@ -281,36 +281,18 @@
     <t>Age Units</t>
   </si>
   <si>
-    <t>ADAE_AGEU</t>
-  </si>
-  <si>
     <t>DM.AGEU</t>
   </si>
   <si>
-    <t>AAGE</t>
-  </si>
-  <si>
-    <t>Analysis Age</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
     <t>Derived</t>
   </si>
   <si>
-    <t>ADSL.AAGE</t>
-  </si>
-  <si>
     <t>ADSL Population Indicator Variables</t>
   </si>
   <si>
-    <t>AAGEU</t>
-  </si>
-  <si>
-    <t>Analysis Age Units</t>
-  </si>
-  <si>
     <t>Assigned</t>
   </si>
   <si>
@@ -422,15 +404,6 @@
     <t>ADSL.RANDFL</t>
   </si>
   <si>
-    <t>RANDNUM</t>
-  </si>
-  <si>
-    <t>Randomization Number</t>
-  </si>
-  <si>
-    <t>ADSL.RANDNUM</t>
-  </si>
-  <si>
     <t>RANDDT</t>
   </si>
   <si>
@@ -578,21 +551,9 @@
     <t>ADSL.TRTEDTM</t>
   </si>
   <si>
-    <t>TRTDUR</t>
-  </si>
-  <si>
     <t>Treatment Duration</t>
   </si>
   <si>
-    <t>OLEFL</t>
-  </si>
-  <si>
-    <t>Open Label Extension Flag</t>
-  </si>
-  <si>
-    <t>ADSL.OLEFL</t>
-  </si>
-  <si>
     <t>DTHDT</t>
   </si>
   <si>
@@ -612,36 +573,6 @@
   </si>
   <si>
     <t>DM.DTHFL</t>
-  </si>
-  <si>
-    <t>BRTHDTC</t>
-  </si>
-  <si>
-    <t>Date/Time of Birth</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>DM.BRTHDTC</t>
-  </si>
-  <si>
-    <t>BRTHDT</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>ADSL.BRTHDT</t>
-  </si>
-  <si>
-    <t>BRTHDTF</t>
-  </si>
-  <si>
-    <t>Date of Birth Imputation Flag</t>
-  </si>
-  <si>
-    <t>ADSL.BRTHDTF</t>
   </si>
   <si>
     <t>HEIGHTBL</t>
@@ -1815,10 +1746,82 @@
     <t>Xanomeline Low Dose</t>
   </si>
   <si>
+    <t>ADSL.TRTDUR</t>
+  </si>
+  <si>
+    <t>if DM.ACTARM in ("Screen Failure" "Not Assigned" "Not Treated") then TRT01A = "No Treatment"; else TRT01A = DM.ACTARM</t>
+  </si>
+  <si>
+    <t>if DM.ARM in ("Screen Failure" "Not Assigned" "Not Treated") then TRT01P = "No Treatment"; else TRT01P = DM.ARM</t>
+  </si>
+  <si>
+    <t>Date portion of latest EX.EXENDTC in the study, where EX.EXDOSE is not missing.</t>
+  </si>
+  <si>
+    <t>Datetime of latest EX.EXENDTC in the study, where EX.EXDOSE is not missing.</t>
+  </si>
+  <si>
+    <t>Date portion of earliest EX.EXSTDTC in the study, where EX.EXDOSE is not missing.</t>
+  </si>
+  <si>
+    <t>Datetime of earliest EX.EXSTDTC in the study, where EX.EXDOSE is not missing.</t>
+  </si>
+  <si>
+    <t>Time portion of earliest EX.EXSTDTC in the study, where EX.EXDOSE is not missing.</t>
+  </si>
+  <si>
+    <t>if not missing(TRTSDT) and not missing(TRTEDT) then set to difference of ADSL.TRTSDT - ADSL.TRTEDT</t>
+  </si>
+  <si>
+    <t>Algorithm for ADSL.TRTDUR</t>
+  </si>
+  <si>
+    <t>Numeric date version of DS.DSSTDTC where DS.DSDECOD = "RANDOMIZED"</t>
+  </si>
+  <si>
+    <t>EOSDT</t>
+  </si>
+  <si>
+    <t>End of Study Date</t>
+  </si>
+  <si>
+    <t>DTHADY</t>
+  </si>
+  <si>
+    <t>Relative Day of Death</t>
+  </si>
+  <si>
+    <t>LDDTHELD</t>
+  </si>
+  <si>
+    <t>Elapsed Days from Last Dose to Death</t>
+  </si>
+  <si>
+    <t>DTHCAUS</t>
+  </si>
+  <si>
+    <t>DTHDOM</t>
+  </si>
+  <si>
+    <t>Cause of Death</t>
+  </si>
+  <si>
+    <t>Death Domain</t>
+  </si>
+  <si>
+    <t>DTHCGR1</t>
+  </si>
+  <si>
+    <t>Death Cause Category</t>
+  </si>
+  <si>
+    <t>ADSL_AGEU</t>
+  </si>
+  <si>
+    <t>TRTDURD</t>
+  </si>
+  <si>
     <t>AGEGR1</t>
-  </si>
-  <si>
-    <t>ADSL_AGEGR1</t>
   </si>
 </sst>
 </file>
@@ -2345,24 +2348,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="B2" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="C2" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -2475,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129AE431-5806-471D-9C82-A144A32316F7}">
-  <dimension ref="A1:S120"/>
+  <dimension ref="A1:S119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2594,7 +2597,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f t="shared" ref="A3:A64" si="0">A2+1</f>
+        <f t="shared" ref="A3:A63" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2733,6 +2736,9 @@
       <c r="F7" s="11">
         <v>10</v>
       </c>
+      <c r="K7" t="s">
+        <v>544</v>
+      </c>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2755,6 +2761,9 @@
       <c r="F8" s="11">
         <v>8</v>
       </c>
+      <c r="K8" t="s">
+        <v>545</v>
+      </c>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2812,14 +2821,14 @@
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>573</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2831,30 +2840,18 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>575</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="F11" s="11">
+        <v>3</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -2865,33 +2862,21 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>543</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="F12" s="11">
+        <v>8</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>542</v>
       </c>
       <c r="L12" s="3"/>
-      <c r="M12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>82</v>
-      </c>
-      <c r="R12" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -2902,21 +2887,33 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>573</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="11">
-        <v>3</v>
+      <c r="F13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>574</v>
+        <v>85</v>
       </c>
       <c r="L13" s="3"/>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -2927,21 +2924,33 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>566</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="11">
-        <v>8</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>565</v>
+        <v>48</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>90</v>
       </c>
       <c r="L14" s="3"/>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -2952,32 +2961,26 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" t="s">
-        <v>44</v>
-      </c>
-      <c r="P15" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2989,10 +2992,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
@@ -3000,22 +3003,10 @@
       <c r="F16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I16" t="s">
-        <v>24</v>
-      </c>
       <c r="K16" t="s">
-        <v>96</v>
+        <v>389</v>
       </c>
       <c r="L16" s="3"/>
-      <c r="M16" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -3035,18 +3026,12 @@
         <v>69</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s">
-        <v>100</v>
+        <v>393</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3057,21 +3042,30 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D18" t="s">
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
         <v>103</v>
       </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K18" t="s">
-        <v>412</v>
-      </c>
       <c r="L18" s="3"/>
+      <c r="M18" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -3082,21 +3076,33 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>79</v>
+        <v>48</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>416</v>
+        <v>107</v>
       </c>
       <c r="L19" s="3"/>
+      <c r="M19" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -3107,29 +3113,29 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I20" t="s">
         <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" t="s">
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -3141,37 +3147,37 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
       </c>
       <c r="I21" t="s">
         <v>25</v>
       </c>
       <c r="K21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -3184,23 +3190,26 @@
         <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
         <v>118</v>
       </c>
       <c r="I22" t="s">
         <v>25</v>
       </c>
-      <c r="K22" t="s">
-        <v>113</v>
-      </c>
       <c r="L22" s="3"/>
       <c r="M22" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" t="s">
-        <v>114</v>
+        <v>77</v>
+      </c>
+      <c r="O22" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -3212,32 +3221,29 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
         <v>48</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" t="s">
-        <v>80</v>
-      </c>
-      <c r="O23" t="s">
-        <v>121</v>
+        <v>44</v>
+      </c>
+      <c r="P23" t="s">
+        <v>123</v>
       </c>
       <c r="Q23" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -3249,29 +3255,29 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" t="s">
-        <v>80</v>
-      </c>
-      <c r="O24" t="s">
-        <v>124</v>
+        <v>44</v>
+      </c>
+      <c r="P24" t="s">
+        <v>127</v>
       </c>
       <c r="Q24" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -3283,32 +3289,29 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" t="s">
-        <v>80</v>
-      </c>
-      <c r="O25" t="s">
+        <v>44</v>
+      </c>
+      <c r="P25" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q25" t="s">
         <v>128</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -3320,16 +3323,16 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
         <v>48</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I26" t="s">
         <v>24</v>
@@ -3339,10 +3342,10 @@
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q26" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -3354,29 +3357,32 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E27" t="s">
         <v>48</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="I27" t="s">
         <v>24</v>
       </c>
+      <c r="K27" t="s">
+        <v>137</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" t="s">
-        <v>44</v>
-      </c>
-      <c r="P27" t="s">
-        <v>136</v>
+        <v>77</v>
+      </c>
+      <c r="O27" t="s">
+        <v>138</v>
       </c>
       <c r="Q27" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -3388,29 +3394,29 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>141</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P28" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="Q28" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -3422,29 +3428,29 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
         <v>48</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="I29" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>137</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" t="s">
-        <v>44</v>
-      </c>
-      <c r="P29" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>137</v>
+        <v>77</v>
+      </c>
+      <c r="O29" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -3456,32 +3462,26 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K30" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" t="s">
-        <v>80</v>
-      </c>
-      <c r="O30" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -3493,29 +3493,29 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" t="s">
         <v>148</v>
-      </c>
-      <c r="D31" t="s">
-        <v>149</v>
       </c>
       <c r="E31" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>79</v>
+      <c r="F31" s="11">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>149</v>
       </c>
       <c r="I31" t="s">
         <v>25</v>
       </c>
-      <c r="K31" t="s">
-        <v>150</v>
-      </c>
       <c r="L31" s="3"/>
       <c r="M31" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>137</v>
+        <v>77</v>
+      </c>
+      <c r="O31" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -3533,23 +3533,23 @@
         <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>131</v>
+        <v>69</v>
+      </c>
+      <c r="F32" s="4">
+        <v>8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>153</v>
       </c>
       <c r="I32" t="s">
         <v>25</v>
       </c>
-      <c r="K32" t="s">
-        <v>146</v>
-      </c>
       <c r="L32" s="3"/>
       <c r="M32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -3561,26 +3561,29 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>79</v>
+      <c r="F33" s="4">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>157</v>
       </c>
       <c r="I33" t="s">
         <v>25</v>
       </c>
-      <c r="K33" t="s">
-        <v>150</v>
-      </c>
       <c r="L33" s="3"/>
       <c r="M33" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="O33" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -3592,29 +3595,29 @@
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E34" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="11">
-        <v>8</v>
+      <c r="F34" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="H34" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="I34" t="s">
         <v>25</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -3626,29 +3629,29 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="4">
-        <v>8</v>
+      <c r="F35" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="H35" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I35" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -3660,7 +3663,7 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>574</v>
       </c>
       <c r="D36" t="s">
         <v>165</v>
@@ -3668,21 +3671,15 @@
       <c r="E36" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="11">
         <v>8</v>
-      </c>
-      <c r="H36" t="s">
-        <v>166</v>
-      </c>
-      <c r="I36" t="s">
-        <v>25</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O36" t="s">
-        <v>167</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -3694,29 +3691,29 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E37" t="s">
         <v>69</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="I37" t="s">
         <v>25</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -3728,29 +3725,29 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="I38" t="s">
         <v>25</v>
       </c>
+      <c r="K38" t="s">
+        <v>171</v>
+      </c>
       <c r="L38" s="3"/>
       <c r="M38" t="s">
-        <v>80</v>
-      </c>
-      <c r="O38" t="s">
-        <v>173</v>
+        <v>44</v>
+      </c>
+      <c r="P38" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -3762,16 +3759,10 @@
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>174</v>
+        <v>563</v>
       </c>
       <c r="D39" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="11">
-        <v>8</v>
+        <v>564</v>
       </c>
       <c r="L39" s="3"/>
     </row>
@@ -3784,30 +3775,12 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>565</v>
       </c>
       <c r="D40" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I40" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" t="s">
-        <v>113</v>
+        <v>566</v>
       </c>
       <c r="L40" s="3"/>
-      <c r="M40" t="s">
-        <v>80</v>
-      </c>
-      <c r="O40" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -3818,30 +3791,12 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>567</v>
       </c>
       <c r="D41" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H41" t="s">
-        <v>127</v>
-      </c>
-      <c r="I41" t="s">
-        <v>25</v>
+        <v>569</v>
       </c>
       <c r="L41" s="3"/>
-      <c r="M41" t="s">
-        <v>80</v>
-      </c>
-      <c r="O41" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
@@ -3852,30 +3807,12 @@
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>182</v>
+        <v>568</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E42" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I42" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" t="s">
-        <v>184</v>
+        <v>570</v>
       </c>
       <c r="L42" s="3"/>
-      <c r="M42" t="s">
-        <v>44</v>
-      </c>
-      <c r="P42" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -3886,24 +3823,12 @@
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>571</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
-      </c>
-      <c r="E43" t="s">
-        <v>188</v>
-      </c>
-      <c r="I43" t="s">
-        <v>25</v>
+        <v>572</v>
       </c>
       <c r="L43" s="3"/>
-      <c r="M43" t="s">
-        <v>44</v>
-      </c>
-      <c r="P43" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
@@ -3914,29 +3839,26 @@
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E44" t="s">
         <v>69</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O44" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -3948,26 +3870,29 @@
         <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D45" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>118</v>
+        <v>76</v>
+      </c>
+      <c r="G45" t="s">
+        <v>112</v>
       </c>
       <c r="I45" t="s">
         <v>25</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O45" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -3979,26 +3904,29 @@
         <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D46" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E46" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="G46" t="s">
+        <v>112</v>
       </c>
       <c r="I46" t="s">
         <v>25</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O46" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -4010,29 +3938,19 @@
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D47" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E47" t="s">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G47" t="s">
-        <v>118</v>
-      </c>
-      <c r="I47" t="s">
-        <v>25</v>
-      </c>
-      <c r="L47" s="3"/>
-      <c r="M47" t="s">
-        <v>80</v>
-      </c>
-      <c r="O47" t="s">
-        <v>202</v>
+        <v>76</v>
+      </c>
+      <c r="H47" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -4044,29 +3962,19 @@
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>561</v>
       </c>
       <c r="D48" t="s">
-        <v>204</v>
+        <v>562</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48" t="s">
-        <v>118</v>
-      </c>
-      <c r="I48" t="s">
-        <v>25</v>
-      </c>
-      <c r="L48" s="3"/>
-      <c r="M48" t="s">
-        <v>80</v>
-      </c>
-      <c r="O48" t="s">
-        <v>205</v>
+        <v>76</v>
+      </c>
+      <c r="H48" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -4078,19 +3986,16 @@
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D49" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="E49" t="s">
-        <v>69</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H49" t="s">
-        <v>166</v>
+        <v>48</v>
+      </c>
+      <c r="F49" s="11">
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -4102,16 +4007,19 @@
         <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="D50" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50" s="11">
-        <v>40</v>
+        <v>69</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -4120,22 +4028,28 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="D51" t="s">
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>69</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H51" t="s">
-        <v>166</v>
+        <v>48</v>
+      </c>
+      <c r="F51" s="11">
+        <v>12</v>
+      </c>
+      <c r="I51" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" t="s">
+        <v>44</v>
+      </c>
+      <c r="P51" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -4147,16 +4061,16 @@
         <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E52" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="11">
-        <v>12</v>
+      <c r="F52" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="I52" t="s">
         <v>24</v>
@@ -4165,7 +4079,7 @@
         <v>44</v>
       </c>
       <c r="P52" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -4177,25 +4091,25 @@
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E53" t="s">
         <v>48</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="I53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M53" t="s">
         <v>44</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -4207,16 +4121,16 @@
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E54" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="12" t="s">
-        <v>213</v>
+      <c r="F54" s="11">
+        <v>20</v>
       </c>
       <c r="I54" t="s">
         <v>25</v>
@@ -4225,7 +4139,7 @@
         <v>44</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -4237,25 +4151,26 @@
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="D55" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
-      </c>
-      <c r="F55" s="11">
-        <v>20</v>
+        <v>69</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
       </c>
+      <c r="L55" s="3"/>
       <c r="M55" t="s">
-        <v>44</v>
-      </c>
-      <c r="P55" t="s">
-        <v>216</v>
+        <v>77</v>
+      </c>
+      <c r="O55" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -4267,26 +4182,25 @@
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="E56" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
       </c>
-      <c r="L56" s="3"/>
       <c r="M56" t="s">
-        <v>80</v>
-      </c>
-      <c r="O56" t="s">
-        <v>219</v>
+        <v>44</v>
+      </c>
+      <c r="P56" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -4298,16 +4212,16 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
         <v>48</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
@@ -4316,7 +4230,7 @@
         <v>44</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -4328,16 +4242,16 @@
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="E58" t="s">
         <v>48</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="I58" t="s">
         <v>25</v>
@@ -4346,7 +4260,7 @@
         <v>44</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -4358,25 +4272,25 @@
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="I59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M59" t="s">
         <v>44</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -4388,16 +4302,16 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="I60" t="s">
         <v>24</v>
@@ -4406,7 +4320,7 @@
         <v>44</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -4418,10 +4332,10 @@
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E61" t="s">
         <v>48</v>
@@ -4432,11 +4346,15 @@
       <c r="I61" t="s">
         <v>24</v>
       </c>
+      <c r="K61" t="s">
+        <v>85</v>
+      </c>
+      <c r="L61" s="3"/>
       <c r="M61" t="s">
         <v>44</v>
       </c>
       <c r="P61" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -4448,29 +4366,29 @@
         <v>19</v>
       </c>
       <c r="C62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="D62" t="s">
-        <v>90</v>
-      </c>
-      <c r="E62" t="s">
-        <v>48</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="I62" t="s">
         <v>24</v>
       </c>
       <c r="K62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" t="s">
         <v>44</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -4479,100 +4397,100 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
         <v>48</v>
       </c>
-      <c r="F63" s="12" t="s">
-        <v>95</v>
+      <c r="F63" s="4">
+        <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K63" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" t="s">
         <v>44</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A64:A119" si="1">A63+1</f>
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="E64" t="s">
         <v>48</v>
       </c>
-      <c r="F64" s="4">
-        <v>1</v>
+      <c r="F64" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="I64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K64" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" t="s">
         <v>44</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f t="shared" ref="A65:A120" si="1">A64+1</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E65" t="s">
         <v>48</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K65" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" t="s">
         <v>44</v>
       </c>
       <c r="P65" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -4584,29 +4502,29 @@
         <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D66" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>131</v>
+        <v>76</v>
+      </c>
+      <c r="H66" t="s">
+        <v>118</v>
       </c>
       <c r="I66" t="s">
         <v>25</v>
-      </c>
-      <c r="K66" t="s">
-        <v>146</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" t="s">
         <v>44</v>
       </c>
       <c r="P66" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -4618,19 +4536,19 @@
         <v>19</v>
       </c>
       <c r="C67" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" t="s">
         <v>156</v>
-      </c>
-      <c r="D67" t="s">
-        <v>157</v>
       </c>
       <c r="E67" t="s">
         <v>69</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>79</v>
+      <c r="F67" s="4">
+        <v>8</v>
       </c>
       <c r="H67" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="I67" t="s">
         <v>25</v>
@@ -4640,7 +4558,7 @@
         <v>44</v>
       </c>
       <c r="P67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -4652,19 +4570,19 @@
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E68" t="s">
         <v>69</v>
       </c>
-      <c r="F68" s="4">
-        <v>8</v>
+      <c r="F68" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="H68" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="I68" t="s">
         <v>25</v>
@@ -4674,7 +4592,7 @@
         <v>44</v>
       </c>
       <c r="P68" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -4686,19 +4604,16 @@
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="D69" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="E69" t="s">
-        <v>69</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H69" t="s">
-        <v>127</v>
+        <v>48</v>
+      </c>
+      <c r="F69" s="11">
+        <v>2</v>
       </c>
       <c r="I69" t="s">
         <v>25</v>
@@ -4708,7 +4623,7 @@
         <v>44</v>
       </c>
       <c r="P69" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -4720,16 +4635,16 @@
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="D70" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="E70" t="s">
         <v>48</v>
       </c>
       <c r="F70" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I70" t="s">
         <v>25</v>
@@ -4739,7 +4654,7 @@
         <v>44</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -4751,16 +4666,16 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D71" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E71" t="s">
         <v>48</v>
       </c>
       <c r="F71" s="11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I71" t="s">
         <v>25</v>
@@ -4770,7 +4685,7 @@
         <v>44</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -4782,16 +4697,16 @@
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D72" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="E72" t="s">
         <v>48</v>
       </c>
       <c r="F72" s="11">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I72" t="s">
         <v>25</v>
@@ -4801,7 +4716,7 @@
         <v>44</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -4813,16 +4728,16 @@
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D73" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="E73" t="s">
         <v>48</v>
       </c>
       <c r="F73" s="11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I73" t="s">
         <v>25</v>
@@ -4832,7 +4747,7 @@
         <v>44</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -4844,16 +4759,16 @@
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="D74" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="E74" t="s">
         <v>48</v>
       </c>
       <c r="F74" s="11">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="I74" t="s">
         <v>25</v>
@@ -4863,7 +4778,7 @@
         <v>44</v>
       </c>
       <c r="P74" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -4875,16 +4790,16 @@
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="D75" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E75" t="s">
         <v>48</v>
       </c>
       <c r="F75" s="11">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="I75" t="s">
         <v>25</v>
@@ -4894,7 +4809,7 @@
         <v>44</v>
       </c>
       <c r="P75" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -4906,16 +4821,16 @@
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D76" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="F76" s="11">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="I76" t="s">
         <v>25</v>
@@ -4925,7 +4840,7 @@
         <v>44</v>
       </c>
       <c r="P76" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -4937,16 +4852,16 @@
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="D77" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="E77" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="F77" s="11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I77" t="s">
         <v>25</v>
@@ -4956,7 +4871,7 @@
         <v>44</v>
       </c>
       <c r="P77" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -4968,16 +4883,16 @@
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="D78" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="E78" t="s">
         <v>48</v>
       </c>
       <c r="F78" s="11">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="I78" t="s">
         <v>25</v>
@@ -4987,7 +4902,7 @@
         <v>44</v>
       </c>
       <c r="P78" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -4999,16 +4914,16 @@
         <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D79" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="E79" t="s">
         <v>48</v>
       </c>
       <c r="F79" s="11">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="I79" t="s">
         <v>25</v>
@@ -5018,7 +4933,7 @@
         <v>44</v>
       </c>
       <c r="P79" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -5026,30 +4941,36 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C80" t="s">
-        <v>260</v>
-      </c>
-      <c r="D80" t="s">
-        <v>261</v>
+      <c r="C80" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="E80" t="s">
         <v>48</v>
       </c>
-      <c r="F80" s="11">
-        <v>200</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="F80" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L80" s="3"/>
-      <c r="M80" t="s">
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="P80" t="s">
-        <v>262</v>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -5057,36 +4978,30 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>264</v>
+      <c r="C81" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81" t="s">
+        <v>244</v>
       </c>
       <c r="E81" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F81" s="11">
+        <v>8</v>
+      </c>
+      <c r="I81" t="s">
         <v>25</v>
       </c>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="5" t="s">
+      <c r="L81" s="3"/>
+      <c r="M81" t="s">
         <v>44</v>
       </c>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5" t="s">
-        <v>265</v>
+      <c r="P81" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -5098,16 +5013,16 @@
         <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="D82" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="E82" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F82" s="11">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="I82" t="s">
         <v>25</v>
@@ -5117,7 +5032,7 @@
         <v>44</v>
       </c>
       <c r="P82" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -5129,16 +5044,16 @@
         <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D83" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="E83" t="s">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="F83" s="11">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I83" t="s">
         <v>25</v>
@@ -5148,7 +5063,7 @@
         <v>44</v>
       </c>
       <c r="P83" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -5160,16 +5075,16 @@
         <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="D84" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="E84" t="s">
-        <v>274</v>
+        <v>69</v>
       </c>
       <c r="F84" s="11">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I84" t="s">
         <v>25</v>
@@ -5179,7 +5094,7 @@
         <v>44</v>
       </c>
       <c r="P84" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -5191,16 +5106,16 @@
         <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D85" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="E85" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F85" s="11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I85" t="s">
         <v>25</v>
@@ -5210,7 +5125,7 @@
         <v>44</v>
       </c>
       <c r="P85" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -5222,16 +5137,16 @@
         <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D86" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="E86" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F86" s="11">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="I86" t="s">
         <v>25</v>
@@ -5241,7 +5156,7 @@
         <v>44</v>
       </c>
       <c r="P86" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -5253,16 +5168,16 @@
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="D87" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="E87" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F87" s="11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I87" t="s">
         <v>25</v>
@@ -5272,7 +5187,7 @@
         <v>44</v>
       </c>
       <c r="P87" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -5284,16 +5199,16 @@
         <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="D88" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="E88" t="s">
-        <v>48</v>
-      </c>
-      <c r="F88" s="11">
-        <v>40</v>
+        <v>69</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="I88" t="s">
         <v>25</v>
@@ -5303,7 +5218,7 @@
         <v>44</v>
       </c>
       <c r="P88" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -5315,16 +5230,16 @@
         <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="D89" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="E89" t="s">
         <v>69</v>
       </c>
-      <c r="F89" s="12" t="s">
-        <v>79</v>
+      <c r="F89" s="11">
+        <v>8</v>
       </c>
       <c r="I89" t="s">
         <v>25</v>
@@ -5334,7 +5249,7 @@
         <v>44</v>
       </c>
       <c r="P89" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -5346,13 +5261,13 @@
         <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="D90" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="E90" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F90" s="11">
         <v>8</v>
@@ -5365,7 +5280,7 @@
         <v>44</v>
       </c>
       <c r="P90" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -5377,26 +5292,26 @@
         <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="D91" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="E91" t="s">
         <v>48</v>
       </c>
       <c r="F91" s="11">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="I91" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K91" t="s">
+        <v>276</v>
       </c>
       <c r="L91" s="3"/>
       <c r="M91" t="s">
-        <v>44</v>
-      </c>
-      <c r="P91" t="s">
-        <v>296</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -5408,26 +5323,26 @@
         <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="D92" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E92" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F92" s="11">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="I92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K92" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="L92" s="3"/>
       <c r="M92" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -5439,26 +5354,26 @@
         <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="D93" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="E93" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F93" s="11">
         <v>8</v>
       </c>
       <c r="I93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K93" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="L93" s="3"/>
       <c r="M93" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -5470,26 +5385,23 @@
         <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="D94" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="E94" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="F94" s="11">
         <v>8</v>
       </c>
-      <c r="I94" t="s">
-        <v>24</v>
-      </c>
-      <c r="K94" t="s">
-        <v>305</v>
-      </c>
       <c r="L94" s="3"/>
       <c r="M94" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="O94" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -5501,23 +5413,23 @@
         <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="D95" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="E95" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="F95" s="11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="L95" s="3"/>
       <c r="M95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O95" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -5529,10 +5441,10 @@
         <v>19</v>
       </c>
       <c r="C96" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D96" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="E96" t="s">
         <v>48</v>
@@ -5542,10 +5454,10 @@
       </c>
       <c r="L96" s="3"/>
       <c r="M96" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O96" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -5557,23 +5469,20 @@
         <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="D97" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F97" s="11">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="L97" s="3"/>
       <c r="M97" t="s">
-        <v>80</v>
-      </c>
-      <c r="O97" t="s">
-        <v>314</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -5585,20 +5494,23 @@
         <v>19</v>
       </c>
       <c r="C98" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="D98" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="E98" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="F98" s="11">
         <v>8</v>
       </c>
       <c r="L98" s="3"/>
       <c r="M98" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="O98" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -5610,23 +5522,23 @@
         <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D99" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E99" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="F99" s="11">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="L99" s="3"/>
       <c r="M99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O99" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -5638,23 +5550,26 @@
         <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D100" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="E100" t="s">
         <v>48</v>
       </c>
       <c r="F100" s="11">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="K100" t="s">
+        <v>107</v>
       </c>
       <c r="L100" s="3"/>
       <c r="M100" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O100" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -5666,26 +5581,23 @@
         <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="D101" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="E101" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="F101" s="11">
-        <v>1</v>
-      </c>
-      <c r="K101" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="L101" s="3"/>
       <c r="M101" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O101" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -5697,23 +5609,23 @@
         <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="D102" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="F102" s="11">
         <v>8</v>
       </c>
       <c r="L102" s="3"/>
       <c r="M102" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O102" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -5725,23 +5637,23 @@
         <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="D103" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="F103" s="11">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L103" s="3"/>
       <c r="M103" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O103" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -5753,23 +5665,23 @@
         <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="D104" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="E104" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="F104" s="11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L104" s="3"/>
       <c r="M104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O104" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -5781,23 +5693,23 @@
         <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="D105" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="F105" s="11">
         <v>8</v>
       </c>
       <c r="L105" s="3"/>
       <c r="M105" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O105" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -5809,23 +5721,23 @@
         <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="D106" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="F106" s="11">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L106" s="3"/>
       <c r="M106" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O106" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -5837,10 +5749,10 @@
         <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="D107" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="E107" t="s">
         <v>48</v>
@@ -5850,10 +5762,10 @@
       </c>
       <c r="L107" s="3"/>
       <c r="M107" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O107" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -5865,23 +5777,23 @@
         <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="D108" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="E108" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="F108" s="11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L108" s="3"/>
       <c r="M108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O108" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -5893,23 +5805,23 @@
         <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="D109" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="F109" s="11">
         <v>8</v>
       </c>
       <c r="L109" s="3"/>
       <c r="M109" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O109" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -5921,23 +5833,23 @@
         <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="D110" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="E110" t="s">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="F110" s="11">
         <v>8</v>
       </c>
       <c r="L110" s="3"/>
       <c r="M110" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O110" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -5949,10 +5861,10 @@
         <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="D111" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="E111" t="s">
         <v>69</v>
@@ -5962,10 +5874,10 @@
       </c>
       <c r="L111" s="3"/>
       <c r="M111" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O111" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -5977,23 +5889,23 @@
         <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="D112" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="E112" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F112" s="11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="L112" s="3"/>
       <c r="M112" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O112" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -6005,23 +5917,23 @@
         <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="D113" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="E113" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F113" s="11">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="L113" s="3"/>
       <c r="M113" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O113" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -6033,23 +5945,23 @@
         <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="D114" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="E114" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F114" s="11">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="L114" s="3"/>
       <c r="M114" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O114" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -6061,23 +5973,23 @@
         <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="D115" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="E115" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F115" s="11">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="L115" s="3"/>
       <c r="M115" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O115" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -6089,23 +6001,23 @@
         <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D116" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="E116" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F116" s="11">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="L116" s="3"/>
       <c r="M116" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O116" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -6117,10 +6029,10 @@
         <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="D117" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="E117" t="s">
         <v>48</v>
@@ -6130,10 +6042,10 @@
       </c>
       <c r="L117" s="3"/>
       <c r="M117" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O117" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
@@ -6145,23 +6057,26 @@
         <v>19</v>
       </c>
       <c r="C118" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="D118" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="E118" t="s">
         <v>48</v>
       </c>
       <c r="F118" s="11">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="K118" t="s">
+        <v>107</v>
       </c>
       <c r="L118" s="3"/>
       <c r="M118" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O118" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -6173,10 +6088,10 @@
         <v>19</v>
       </c>
       <c r="C119" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="D119" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E119" t="s">
         <v>48</v>
@@ -6185,49 +6100,18 @@
         <v>1</v>
       </c>
       <c r="K119" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L119" s="3"/>
       <c r="M119" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O119" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C120" t="s">
-        <v>380</v>
-      </c>
-      <c r="D120" t="s">
-        <v>381</v>
-      </c>
-      <c r="E120" t="s">
-        <v>48</v>
-      </c>
-      <c r="F120" s="11">
-        <v>1</v>
-      </c>
-      <c r="K120" t="s">
-        <v>113</v>
-      </c>
-      <c r="L120" s="3"/>
-      <c r="M120" t="s">
-        <v>80</v>
-      </c>
-      <c r="O120" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S120" xr:uid="{129AE431-5806-471D-9C82-A144A32316F7}"/>
+  <autoFilter ref="A1:S119" xr:uid="{129AE431-5806-471D-9C82-A144A32316F7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6271,7 +6155,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -6341,7 +6225,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:H24"/>
+      <selection activeCell="A6" sqref="A6:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -6357,13 +6241,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -6372,21 +6256,21 @@
         <v>31</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" t="s">
@@ -6400,15 +6284,15 @@
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="19" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" t="s">
@@ -6422,15 +6306,15 @@
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="19" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" t="s">
@@ -6444,15 +6328,15 @@
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="19" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" t="s">
@@ -6466,156 +6350,156 @@
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="19" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="C6" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="G6" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="C7" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="G7" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="C8" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="G8" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="G9" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G10" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="G11" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -6624,21 +6508,21 @@
         <v>61</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="G12" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
@@ -6647,95 +6531,95 @@
         <v>49</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
         <v>69</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H14" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
         <v>69</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="H15" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="H16" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>69</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="H17" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
         <v>69</v>
@@ -6747,15 +6631,15 @@
         <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
         <v>48</v>
@@ -6764,15 +6648,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
         <v>48</v>
@@ -6781,15 +6665,15 @@
         <v>2</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
@@ -6798,15 +6682,18 @@
         <v>3</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>415</v>
+        <v>392</v>
+      </c>
+      <c r="H21" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
         <v>69</v>
@@ -6818,15 +6705,15 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
         <v>69</v>
@@ -6838,15 +6725,15 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
         <v>69</v>
@@ -6857,13 +6744,10 @@
       <c r="F24" s="4">
         <v>3</v>
       </c>
-      <c r="H24" t="s">
-        <v>415</v>
-      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="B25" t="s">
         <v>66</v>
@@ -6875,12 +6759,12 @@
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="B26" t="s">
         <v>66</v>
@@ -6892,12 +6776,12 @@
         <v>2</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
@@ -6909,12 +6793,12 @@
         <v>3</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
@@ -6929,12 +6813,12 @@
         <v>1</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="B29" t="s">
         <v>68</v>
@@ -6949,12 +6833,12 @@
         <v>2</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="B30" t="s">
         <v>68</v>
@@ -6969,153 +6853,153 @@
         <v>3</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="G31" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="H31" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="D32" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="G32" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="H32" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="D33" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="G33" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="H33" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="G34" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="H34" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="D36" t="s">
         <v>48</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="D37" t="s">
         <v>48</v>
@@ -7124,127 +7008,127 @@
         <v>3</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="D38" t="s">
         <v>48</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="D39" t="s">
         <v>69</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="D40" t="s">
         <v>69</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="D41" t="s">
         <v>69</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="F41" s="4">
         <v>3</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="D42" t="s">
         <v>69</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="B43" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="C43" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="G43" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="H43" t="s">
         <v>25</v>
@@ -7252,77 +7136,77 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="B44" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="C44" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="G44" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="H44" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="B45" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="C45" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="G45" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="H45" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="B46" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="C46" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="G46" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="H46" t="s">
         <v>24</v>
@@ -7330,22 +7214,22 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="C47" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="H47" t="s">
         <v>24</v>
@@ -7353,22 +7237,22 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="G48" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="H48" t="s">
         <v>24</v>
@@ -7376,22 +7260,22 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="G49" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="H49" t="s">
         <v>25</v>
@@ -7399,125 +7283,125 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="C50" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="D50" t="s">
         <v>48</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C51" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="G51" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B52" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C52" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="G52" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B53" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C53" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="G53" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B54" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C54" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="D54" t="s">
         <v>48</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="G54" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B55" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C55" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
@@ -7526,21 +7410,21 @@
         <v>61</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="G55" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B56" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C56" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="D56" t="s">
         <v>48</v>
@@ -7549,182 +7433,182 @@
         <v>49</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="G56" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B57" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C57" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="D57" t="s">
         <v>48</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="G57" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B58" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C58" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="G58" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B59" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C59" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="D59" t="s">
         <v>48</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="G59" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B60" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C60" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="D60" t="s">
         <v>48</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="G60" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B61" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C61" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="D61" t="s">
         <v>48</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="G61" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B62" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C62" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="D62" t="s">
         <v>48</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="G62" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B63" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C63" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="D63" t="s">
         <v>48</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="G63" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B64" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C64" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
@@ -7733,21 +7617,21 @@
         <v>61</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="G64" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B65" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C65" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="D65" t="s">
         <v>48</v>
@@ -7756,167 +7640,167 @@
         <v>49</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="G65" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B66" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C66" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="D66" t="s">
         <v>48</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="G66" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B67" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C67" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="D67" t="s">
         <v>48</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="G67" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B68" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C68" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="D68" t="s">
         <v>48</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="G68" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B69" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="D69" t="s">
         <v>69</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H69" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B70" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="D70" t="s">
         <v>69</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="H70" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B71" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="D71" t="s">
         <v>69</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="H71" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B72" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="D72" t="s">
         <v>69</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="H72" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B73" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="D73" t="s">
         <v>69</v>
@@ -7928,15 +7812,15 @@
         <v>61</v>
       </c>
       <c r="H73" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B74" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="D74" t="s">
         <v>69</v>
@@ -7948,67 +7832,67 @@
         <v>49</v>
       </c>
       <c r="H74" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B75" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="D75" t="s">
         <v>69</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="H75" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B76" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="D76" t="s">
         <v>69</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H76" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B77" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="D77" t="s">
         <v>69</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="H77" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -8036,70 +7920,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="C2" t="s">
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="E2" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="B3" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="E3" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="E4" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -8110,10 +7994,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A27F77-A36A-4B0F-AB98-73EE4727DE22}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -8126,25 +8010,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>42</v>
@@ -8152,492 +8036,618 @@
     </row>
     <row r="2" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="B2" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="C2" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="C3" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="C4" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="C5" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="C6" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="C7" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="C8" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="C9" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="C10" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="C11" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="C12" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="B13" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="C13" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="B14" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="C14" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="C15" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="58.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B16" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="C16" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="C17" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="C18" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="91.05" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="C19" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="B20" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="C20" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="B21" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="C21" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="B22" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="C22" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="B23" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="C23" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="B24" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="C24" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="B25" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="C25" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="B26" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="C26" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="B27" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="C27" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B28" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="C28" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="B29" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="C29" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="B30" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="C30" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="B31" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="C31" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="B32" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="C32" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="B33" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="C33" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="B34" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="C34" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>552</v>
+        <v>529</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="B35" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="C35" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="B36" t="s">
+        <v>532</v>
+      </c>
+      <c r="C36" t="s">
+        <v>471</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>550</v>
+      </c>
+      <c r="B37" t="s">
+        <v>559</v>
+      </c>
+      <c r="C37" t="s">
+        <v>471</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" t="s">
+        <v>471</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>471</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" t="s">
+        <v>471</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" t="s">
+        <v>471</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" t="s">
+        <v>471</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="C36" t="s">
-        <v>494</v>
-      </c>
-      <c r="D36" s="2" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>471</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" t="s">
+        <v>471</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>471</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -8663,13 +8673,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>42</v>
@@ -8682,15 +8692,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d9de82e3-6650-437c-811c-4330ac3163a7" xsi:nil="true"/>
@@ -8699,6 +8700,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8931,26 +8941,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A2FCDB-4CEB-4560-BC24-5417B97B9546}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E58BEAF-C168-4A50-BC01-2C2CE605BA70}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="d9de82e3-6650-437c-811c-4330ac3163a7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="352660e0-d3e8-47c6-9ec5-fea43b473253"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E58BEAF-C168-4A50-BC01-2C2CE605BA70}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A2FCDB-4CEB-4560-BC24-5417B97B9546}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d9de82e3-6650-437c-811c-4330ac3163a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="352660e0-d3e8-47c6-9ec5-fea43b473253"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/metadata/rpharma_specs.xlsx
+++ b/metadata/rpharma_specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://phuseaccount.sharepoint.com/sites/Pharmaverse-admiral/Shared Documents/RPharma2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="400" documentId="13_ncr:1_{7D220467-D1C0-4B22-9952-64DAEB9CC36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E528757B-A6F2-4DB7-91F4-C5DD949A064E}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="13_ncr:1_{7D220467-D1C0-4B22-9952-64DAEB9CC36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABB3B545-E298-425B-9013-DB72E7452093}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Documents!$A$1:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Study!$A$1:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ValueLevel!$A$1:$R$102</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$S$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$S$121</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="585">
   <si>
     <t>Attribute</t>
   </si>
@@ -1822,6 +1822,33 @@
   </si>
   <si>
     <t>AGEGR1</t>
+  </si>
+  <si>
+    <t>TRTSTMF</t>
+  </si>
+  <si>
+    <t>TRTETMF</t>
+  </si>
+  <si>
+    <t>Time 1st Exposure Period Imput. Flag</t>
+  </si>
+  <si>
+    <t>Time Last Exposure Period Imput. Flag</t>
+  </si>
+  <si>
+    <t>Imputation</t>
+  </si>
+  <si>
+    <t>TRTSTMF= H if the entire time is imputed. TRTSTMF = M if minutes and seconds are imputed. TRTSTMF = S if only seconds are imputed.</t>
+  </si>
+  <si>
+    <t>TRTETMF= H if the entire time is imputed. TRTETMF = M if minutes and seconds are imputed. TRTETMF = S if only seconds are imputed.</t>
+  </si>
+  <si>
+    <t>ADSL.TRTSTMF</t>
+  </si>
+  <si>
+    <t>ADSL.TRTETMF</t>
   </si>
 </sst>
 </file>
@@ -2478,10 +2505,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129AE431-5806-471D-9C82-A144A32316F7}">
-  <dimension ref="A1:S119"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2597,7 +2624,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f t="shared" ref="A3:A63" si="0">A2+1</f>
+        <f t="shared" ref="A3:A65" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -3595,19 +3622,16 @@
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>576</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>578</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" t="s">
-        <v>118</v>
+        <v>48</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
       </c>
       <c r="I34" t="s">
         <v>25</v>
@@ -3617,7 +3641,7 @@
         <v>77</v>
       </c>
       <c r="O34" t="s">
-        <v>161</v>
+        <v>583</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -3629,10 +3653,10 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E35" t="s">
         <v>69</v>
@@ -3641,7 +3665,7 @@
         <v>76</v>
       </c>
       <c r="H35" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="I35" t="s">
         <v>25</v>
@@ -3651,7 +3675,7 @@
         <v>77</v>
       </c>
       <c r="O35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -3663,23 +3687,29 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>574</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E36" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="11">
-        <v>8</v>
+      <c r="F36" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" t="s">
+        <v>25</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" t="s">
         <v>77</v>
       </c>
       <c r="O36" t="s">
-        <v>550</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -3691,19 +3721,16 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>577</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>579</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" t="s">
-        <v>118</v>
+        <v>48</v>
+      </c>
+      <c r="F37" s="11">
+        <v>1</v>
       </c>
       <c r="I37" t="s">
         <v>25</v>
@@ -3713,7 +3740,7 @@
         <v>77</v>
       </c>
       <c r="O37" t="s">
-        <v>168</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -3725,29 +3752,26 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>574</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>112</v>
+        <v>69</v>
+      </c>
+      <c r="F38" s="11">
+        <v>8</v>
       </c>
       <c r="I38" t="s">
         <v>25</v>
       </c>
-      <c r="K38" t="s">
-        <v>171</v>
-      </c>
       <c r="L38" s="3"/>
       <c r="M38" t="s">
-        <v>44</v>
-      </c>
-      <c r="P38" t="s">
-        <v>172</v>
+        <v>77</v>
+      </c>
+      <c r="O38" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -3759,12 +3783,30 @@
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>563</v>
+        <v>166</v>
       </c>
       <c r="D39" t="s">
-        <v>564</v>
+        <v>167</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" t="s">
+        <v>25</v>
       </c>
       <c r="L39" s="3"/>
+      <c r="M39" t="s">
+        <v>77</v>
+      </c>
+      <c r="O39" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -3775,12 +3817,30 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>565</v>
+        <v>169</v>
       </c>
       <c r="D40" t="s">
-        <v>566</v>
+        <v>170</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" t="s">
+        <v>171</v>
       </c>
       <c r="L40" s="3"/>
+      <c r="M40" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -3791,10 +3851,19 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D41" t="s">
-        <v>569</v>
+        <v>564</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="11">
+        <v>8</v>
+      </c>
+      <c r="I41" t="s">
+        <v>25</v>
       </c>
       <c r="L41" s="3"/>
     </row>
@@ -3807,10 +3876,16 @@
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D42" t="s">
-        <v>570</v>
+        <v>566</v>
+      </c>
+      <c r="E42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" t="s">
+        <v>25</v>
       </c>
       <c r="L42" s="3"/>
     </row>
@@ -3823,10 +3898,16 @@
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D43" t="s">
-        <v>572</v>
+        <v>569</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" t="s">
+        <v>25</v>
       </c>
       <c r="L43" s="3"/>
     </row>
@@ -3839,27 +3920,18 @@
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>568</v>
       </c>
       <c r="D44" t="s">
-        <v>174</v>
+        <v>570</v>
       </c>
       <c r="E44" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="3"/>
-      <c r="M44" t="s">
-        <v>77</v>
-      </c>
-      <c r="O44" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
@@ -3870,30 +3942,18 @@
         <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>571</v>
       </c>
       <c r="D45" t="s">
-        <v>177</v>
+        <v>572</v>
       </c>
       <c r="E45" t="s">
-        <v>178</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
         <v>25</v>
       </c>
       <c r="L45" s="3"/>
-      <c r="M45" t="s">
-        <v>77</v>
-      </c>
-      <c r="O45" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -3904,19 +3964,16 @@
         <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E46" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="G46" t="s">
-        <v>112</v>
       </c>
       <c r="I46" t="s">
         <v>25</v>
@@ -3926,7 +3983,7 @@
         <v>77</v>
       </c>
       <c r="O46" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -3938,19 +3995,29 @@
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E47" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H47" t="s">
-        <v>157</v>
+      <c r="G47" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" t="s">
+        <v>77</v>
+      </c>
+      <c r="O47" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -3962,19 +4029,29 @@
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>561</v>
+        <v>180</v>
       </c>
       <c r="D48" t="s">
-        <v>562</v>
+        <v>181</v>
       </c>
       <c r="E48" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H48" t="s">
-        <v>157</v>
+      <c r="G48" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" t="s">
+        <v>77</v>
+      </c>
+      <c r="O48" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -3986,16 +4063,22 @@
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D49" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" s="11">
-        <v>40</v>
+        <v>69</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" t="s">
+        <v>157</v>
+      </c>
+      <c r="I49" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -4007,10 +4090,10 @@
         <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>561</v>
       </c>
       <c r="D50" t="s">
-        <v>188</v>
+        <v>562</v>
       </c>
       <c r="E50" t="s">
         <v>69</v>
@@ -4020,6 +4103,9 @@
       </c>
       <c r="H50" t="s">
         <v>157</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -4028,28 +4114,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="E51" t="s">
         <v>48</v>
       </c>
       <c r="F51" s="11">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I51" t="s">
-        <v>24</v>
-      </c>
-      <c r="M51" t="s">
-        <v>44</v>
-      </c>
-      <c r="P51" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -4058,28 +4138,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="D52" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>190</v>
+        <v>69</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s">
+        <v>157</v>
       </c>
       <c r="I52" t="s">
-        <v>24</v>
-      </c>
-      <c r="M52" t="s">
-        <v>44</v>
-      </c>
-      <c r="P52" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -4091,25 +4168,25 @@
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E53" t="s">
         <v>48</v>
       </c>
-      <c r="F53" s="12" t="s">
-        <v>190</v>
+      <c r="F53" s="11">
+        <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M53" t="s">
         <v>44</v>
       </c>
       <c r="P53" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -4121,25 +4198,25 @@
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E54" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="11">
-        <v>20</v>
+      <c r="F54" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="I54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M54" t="s">
         <v>44</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -4151,26 +4228,25 @@
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="E55" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
       </c>
-      <c r="L55" s="3"/>
       <c r="M55" t="s">
-        <v>77</v>
-      </c>
-      <c r="O55" t="s">
-        <v>196</v>
+        <v>44</v>
+      </c>
+      <c r="P55" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -4182,16 +4258,16 @@
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="E56" t="s">
         <v>48</v>
       </c>
-      <c r="F56" s="12" t="s">
-        <v>198</v>
+      <c r="F56" s="11">
+        <v>20</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
@@ -4200,7 +4276,7 @@
         <v>44</v>
       </c>
       <c r="P56" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -4212,25 +4288,26 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
       </c>
+      <c r="L57" s="3"/>
       <c r="M57" t="s">
-        <v>44</v>
-      </c>
-      <c r="P57" t="s">
-        <v>201</v>
+        <v>77</v>
+      </c>
+      <c r="O57" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -4242,10 +4319,10 @@
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="E58" t="s">
         <v>48</v>
@@ -4260,7 +4337,7 @@
         <v>44</v>
       </c>
       <c r="P58" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -4272,25 +4349,25 @@
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="I59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M59" t="s">
         <v>44</v>
       </c>
       <c r="P59" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -4302,25 +4379,25 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E60" t="s">
         <v>48</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="I60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M60" t="s">
         <v>44</v>
       </c>
       <c r="P60" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -4332,29 +4409,25 @@
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="I61" t="s">
         <v>24</v>
       </c>
-      <c r="K61" t="s">
-        <v>85</v>
-      </c>
-      <c r="L61" s="3"/>
       <c r="M61" t="s">
         <v>44</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -4366,29 +4439,25 @@
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E62" t="s">
         <v>48</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="I62" t="s">
         <v>24</v>
       </c>
-      <c r="K62" t="s">
-        <v>90</v>
-      </c>
-      <c r="L62" s="3"/>
       <c r="M62" t="s">
         <v>44</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -4397,134 +4466,134 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E63" t="s">
         <v>48</v>
       </c>
-      <c r="F63" s="4">
-        <v>1</v>
+      <c r="F63" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="I63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K63" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" t="s">
         <v>44</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f t="shared" ref="A64:A119" si="1">A63+1</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="E64" t="s">
         <v>48</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="I64" t="s">
         <v>24</v>
       </c>
       <c r="K64" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" t="s">
         <v>44</v>
       </c>
       <c r="P64" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="E65" t="s">
         <v>48</v>
       </c>
-      <c r="F65" s="12" t="s">
-        <v>122</v>
+      <c r="F65" s="4">
+        <v>1</v>
       </c>
       <c r="I65" t="s">
         <v>25</v>
       </c>
       <c r="K65" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" t="s">
         <v>44</v>
       </c>
       <c r="P65" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A66:A121" si="1">A65+1</f>
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E66" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H66" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I66" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K66" t="s">
+        <v>137</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" t="s">
         <v>44</v>
       </c>
       <c r="P66" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -4536,29 +4605,29 @@
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E67" t="s">
-        <v>69</v>
-      </c>
-      <c r="F67" s="4">
-        <v>8</v>
-      </c>
-      <c r="H67" t="s">
-        <v>157</v>
+        <v>48</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="I67" t="s">
         <v>25</v>
+      </c>
+      <c r="K67" t="s">
+        <v>137</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" t="s">
         <v>44</v>
       </c>
       <c r="P67" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -4570,10 +4639,10 @@
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E68" t="s">
         <v>69</v>
@@ -4592,7 +4661,7 @@
         <v>44</v>
       </c>
       <c r="P68" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -4604,16 +4673,19 @@
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="D69" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" s="11">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="F69" s="4">
+        <v>8</v>
+      </c>
+      <c r="H69" t="s">
+        <v>157</v>
       </c>
       <c r="I69" t="s">
         <v>25</v>
@@ -4623,7 +4695,7 @@
         <v>44</v>
       </c>
       <c r="P69" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -4635,16 +4707,19 @@
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="D70" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="E70" t="s">
-        <v>48</v>
-      </c>
-      <c r="F70" s="11">
-        <v>8</v>
+        <v>69</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70" t="s">
+        <v>118</v>
       </c>
       <c r="I70" t="s">
         <v>25</v>
@@ -4654,7 +4729,7 @@
         <v>44</v>
       </c>
       <c r="P70" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -4666,16 +4741,16 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D71" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E71" t="s">
         <v>48</v>
       </c>
       <c r="F71" s="11">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I71" t="s">
         <v>25</v>
@@ -4685,7 +4760,7 @@
         <v>44</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -4697,16 +4772,16 @@
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D72" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E72" t="s">
         <v>48</v>
       </c>
       <c r="F72" s="11">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I72" t="s">
         <v>25</v>
@@ -4716,7 +4791,7 @@
         <v>44</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -4728,16 +4803,16 @@
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D73" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E73" t="s">
         <v>48</v>
       </c>
       <c r="F73" s="11">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="I73" t="s">
         <v>25</v>
@@ -4747,7 +4822,7 @@
         <v>44</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -4759,16 +4834,16 @@
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D74" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E74" t="s">
         <v>48</v>
       </c>
       <c r="F74" s="11">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I74" t="s">
         <v>25</v>
@@ -4778,7 +4853,7 @@
         <v>44</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -4790,10 +4865,10 @@
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D75" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E75" t="s">
         <v>48</v>
@@ -4809,7 +4884,7 @@
         <v>44</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -4821,16 +4896,16 @@
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D76" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E76" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="F76" s="11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I76" t="s">
         <v>25</v>
@@ -4840,7 +4915,7 @@
         <v>44</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -4852,16 +4927,16 @@
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D77" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E77" t="s">
         <v>48</v>
       </c>
       <c r="F77" s="11">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="I77" t="s">
         <v>25</v>
@@ -4871,7 +4946,7 @@
         <v>44</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -4883,13 +4958,13 @@
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D78" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E78" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="F78" s="11">
         <v>8</v>
@@ -4902,7 +4977,7 @@
         <v>44</v>
       </c>
       <c r="P78" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -4914,16 +4989,16 @@
         <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D79" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E79" t="s">
         <v>48</v>
       </c>
       <c r="F79" s="11">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="I79" t="s">
         <v>25</v>
@@ -4933,7 +5008,7 @@
         <v>44</v>
       </c>
       <c r="P79" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -4941,36 +5016,30 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>241</v>
+      <c r="C80" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" t="s">
+        <v>235</v>
       </c>
       <c r="E80" t="s">
         <v>48</v>
       </c>
-      <c r="F80" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5" t="s">
+      <c r="F80" s="11">
+        <v>8</v>
+      </c>
+      <c r="I80" t="s">
         <v>25</v>
       </c>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="5" t="s">
+      <c r="L80" s="3"/>
+      <c r="M80" t="s">
         <v>44</v>
       </c>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5" t="s">
-        <v>242</v>
+      <c r="P80" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -4978,20 +5047,20 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" t="s">
         <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D81" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E81" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F81" s="11">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="I81" t="s">
         <v>25</v>
@@ -5001,7 +5070,7 @@
         <v>44</v>
       </c>
       <c r="P81" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -5009,30 +5078,36 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C82" t="s">
-        <v>246</v>
-      </c>
-      <c r="D82" t="s">
-        <v>247</v>
+      <c r="C82" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="E82" t="s">
         <v>48</v>
       </c>
-      <c r="F82" s="11">
-        <v>200</v>
-      </c>
-      <c r="I82" t="s">
+      <c r="F82" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L82" s="3"/>
-      <c r="M82" t="s">
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="P82" t="s">
-        <v>248</v>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -5044,16 +5119,16 @@
         <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D83" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E83" t="s">
-        <v>251</v>
+        <v>69</v>
       </c>
       <c r="F83" s="11">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I83" t="s">
         <v>25</v>
@@ -5063,7 +5138,7 @@
         <v>44</v>
       </c>
       <c r="P83" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -5075,16 +5150,16 @@
         <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D84" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E84" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F84" s="11">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="I84" t="s">
         <v>25</v>
@@ -5094,7 +5169,7 @@
         <v>44</v>
       </c>
       <c r="P84" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -5106,16 +5181,16 @@
         <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D85" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E85" t="s">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="F85" s="11">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I85" t="s">
         <v>25</v>
@@ -5125,7 +5200,7 @@
         <v>44</v>
       </c>
       <c r="P85" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -5137,10 +5212,10 @@
         <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D86" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E86" t="s">
         <v>69</v>
@@ -5156,7 +5231,7 @@
         <v>44</v>
       </c>
       <c r="P86" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -5168,10 +5243,10 @@
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D87" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E87" t="s">
         <v>48</v>
@@ -5187,7 +5262,7 @@
         <v>44</v>
       </c>
       <c r="P87" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -5199,16 +5274,16 @@
         <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D88" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E88" t="s">
         <v>69</v>
       </c>
-      <c r="F88" s="12" t="s">
-        <v>76</v>
+      <c r="F88" s="11">
+        <v>8</v>
       </c>
       <c r="I88" t="s">
         <v>25</v>
@@ -5218,7 +5293,7 @@
         <v>44</v>
       </c>
       <c r="P88" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -5230,16 +5305,16 @@
         <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D89" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E89" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F89" s="11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I89" t="s">
         <v>25</v>
@@ -5249,7 +5324,7 @@
         <v>44</v>
       </c>
       <c r="P89" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -5261,16 +5336,16 @@
         <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D90" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E90" t="s">
-        <v>48</v>
-      </c>
-      <c r="F90" s="11">
-        <v>8</v>
+        <v>69</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="I90" t="s">
         <v>25</v>
@@ -5280,7 +5355,7 @@
         <v>44</v>
       </c>
       <c r="P90" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -5292,26 +5367,26 @@
         <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D91" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E91" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F91" s="11">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="I91" t="s">
-        <v>24</v>
-      </c>
-      <c r="K91" t="s">
-        <v>276</v>
+        <v>25</v>
       </c>
       <c r="L91" s="3"/>
       <c r="M91" t="s">
-        <v>79</v>
+        <v>44</v>
+      </c>
+      <c r="P91" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -5323,13 +5398,13 @@
         <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D92" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E92" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F92" s="11">
         <v>8</v>
@@ -5337,12 +5412,12 @@
       <c r="I92" t="s">
         <v>25</v>
       </c>
-      <c r="K92" t="s">
-        <v>279</v>
-      </c>
       <c r="L92" s="3"/>
       <c r="M92" t="s">
-        <v>79</v>
+        <v>44</v>
+      </c>
+      <c r="P92" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -5354,22 +5429,22 @@
         <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D93" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E93" t="s">
         <v>48</v>
       </c>
       <c r="F93" s="11">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="I93" t="s">
         <v>24</v>
       </c>
       <c r="K93" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L93" s="3"/>
       <c r="M93" t="s">
@@ -5385,23 +5460,26 @@
         <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D94" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E94" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="F94" s="11">
         <v>8</v>
       </c>
+      <c r="I94" t="s">
+        <v>25</v>
+      </c>
+      <c r="K94" t="s">
+        <v>279</v>
+      </c>
       <c r="L94" s="3"/>
       <c r="M94" t="s">
-        <v>77</v>
-      </c>
-      <c r="O94" t="s">
-        <v>285</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -5413,23 +5491,26 @@
         <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D95" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E95" t="s">
         <v>48</v>
       </c>
       <c r="F95" s="11">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="I95" t="s">
+        <v>24</v>
+      </c>
+      <c r="K95" t="s">
+        <v>282</v>
       </c>
       <c r="L95" s="3"/>
       <c r="M95" t="s">
         <v>79</v>
-      </c>
-      <c r="O95" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -5441,23 +5522,23 @@
         <v>19</v>
       </c>
       <c r="C96" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D96" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E96" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="F96" s="11">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="L96" s="3"/>
       <c r="M96" t="s">
         <v>77</v>
       </c>
       <c r="O96" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -5469,20 +5550,23 @@
         <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D97" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E97" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F97" s="11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="L97" s="3"/>
       <c r="M97" t="s">
         <v>79</v>
+      </c>
+      <c r="O97" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -5494,23 +5578,23 @@
         <v>19</v>
       </c>
       <c r="C98" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D98" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E98" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="F98" s="11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="L98" s="3"/>
       <c r="M98" t="s">
         <v>77</v>
       </c>
       <c r="O98" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -5522,23 +5606,20 @@
         <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D99" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E99" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F99" s="11">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="L99" s="3"/>
       <c r="M99" t="s">
         <v>79</v>
-      </c>
-      <c r="O99" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -5550,26 +5631,23 @@
         <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D100" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E100" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="F100" s="11">
-        <v>1</v>
-      </c>
-      <c r="K100" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="L100" s="3"/>
       <c r="M100" t="s">
         <v>77</v>
       </c>
       <c r="O100" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -5581,23 +5659,23 @@
         <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D101" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E101" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="F101" s="11">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="L101" s="3"/>
       <c r="M101" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O101" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -5609,23 +5687,26 @@
         <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D102" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E102" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="F102" s="11">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
+        <v>107</v>
       </c>
       <c r="L102" s="3"/>
       <c r="M102" t="s">
         <v>77</v>
       </c>
       <c r="O102" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -5637,23 +5718,23 @@
         <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D103" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E103" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="F103" s="11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L103" s="3"/>
       <c r="M103" t="s">
         <v>77</v>
       </c>
       <c r="O103" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -5665,10 +5746,10 @@
         <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D104" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E104" t="s">
         <v>178</v>
@@ -5678,10 +5759,10 @@
       </c>
       <c r="L104" s="3"/>
       <c r="M104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O104" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -5693,23 +5774,23 @@
         <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D105" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E105" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="F105" s="11">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L105" s="3"/>
       <c r="M105" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O105" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -5721,23 +5802,23 @@
         <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D106" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E106" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="F106" s="11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L106" s="3"/>
       <c r="M106" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O106" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -5749,23 +5830,23 @@
         <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D107" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E107" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="F107" s="11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L107" s="3"/>
       <c r="M107" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O107" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -5777,23 +5858,23 @@
         <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D108" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E108" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="F108" s="11">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L108" s="3"/>
       <c r="M108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O108" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -5805,23 +5886,23 @@
         <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D109" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E109" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="F109" s="11">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L109" s="3"/>
       <c r="M109" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O109" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -5833,23 +5914,23 @@
         <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D110" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E110" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="F110" s="11">
         <v>8</v>
       </c>
       <c r="L110" s="3"/>
       <c r="M110" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O110" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -5861,23 +5942,23 @@
         <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D111" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E111" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="F111" s="11">
         <v>8</v>
       </c>
       <c r="L111" s="3"/>
       <c r="M111" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O111" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -5889,23 +5970,23 @@
         <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D112" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E112" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F112" s="11">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="L112" s="3"/>
       <c r="M112" t="s">
         <v>77</v>
       </c>
       <c r="O112" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -5917,10 +5998,10 @@
         <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D113" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E113" t="s">
         <v>69</v>
@@ -5930,10 +6011,10 @@
       </c>
       <c r="L113" s="3"/>
       <c r="M113" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O113" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -5945,23 +6026,23 @@
         <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D114" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E114" t="s">
         <v>48</v>
       </c>
       <c r="F114" s="11">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="L114" s="3"/>
       <c r="M114" t="s">
         <v>77</v>
       </c>
       <c r="O114" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -5973,10 +6054,10 @@
         <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D115" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E115" t="s">
         <v>69</v>
@@ -5989,7 +6070,7 @@
         <v>79</v>
       </c>
       <c r="O115" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -6001,10 +6082,10 @@
         <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D116" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E116" t="s">
         <v>48</v>
@@ -6017,7 +6098,7 @@
         <v>77</v>
       </c>
       <c r="O116" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -6029,23 +6110,23 @@
         <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D117" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E117" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F117" s="11">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="L117" s="3"/>
       <c r="M117" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O117" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
@@ -6057,26 +6138,23 @@
         <v>19</v>
       </c>
       <c r="C118" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D118" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E118" t="s">
         <v>48</v>
       </c>
       <c r="F118" s="11">
-        <v>1</v>
-      </c>
-      <c r="K118" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="L118" s="3"/>
       <c r="M118" t="s">
         <v>77</v>
       </c>
       <c r="O118" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -6088,30 +6166,89 @@
         <v>19</v>
       </c>
       <c r="C119" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D119" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E119" t="s">
         <v>48</v>
       </c>
       <c r="F119" s="11">
-        <v>1</v>
-      </c>
-      <c r="K119" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="L119" s="3"/>
       <c r="M119" t="s">
         <v>77</v>
       </c>
       <c r="O119" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" t="s">
+        <v>354</v>
+      </c>
+      <c r="D120" t="s">
+        <v>355</v>
+      </c>
+      <c r="E120" t="s">
+        <v>48</v>
+      </c>
+      <c r="F120" s="11">
+        <v>1</v>
+      </c>
+      <c r="K120" t="s">
+        <v>107</v>
+      </c>
+      <c r="L120" s="3"/>
+      <c r="M120" t="s">
+        <v>77</v>
+      </c>
+      <c r="O120" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" t="s">
+        <v>357</v>
+      </c>
+      <c r="D121" t="s">
+        <v>358</v>
+      </c>
+      <c r="E121" t="s">
+        <v>48</v>
+      </c>
+      <c r="F121" s="11">
+        <v>1</v>
+      </c>
+      <c r="K121" t="s">
+        <v>107</v>
+      </c>
+      <c r="L121" s="3"/>
+      <c r="M121" t="s">
+        <v>77</v>
+      </c>
+      <c r="O121" t="s">
         <v>359</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S119" xr:uid="{129AE431-5806-471D-9C82-A144A32316F7}"/>
+  <autoFilter ref="A1:S121" xr:uid="{129AE431-5806-471D-9C82-A144A32316F7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7994,10 +8131,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A27F77-A36A-4B0F-AB98-73EE4727DE22}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -8648,6 +8785,34 @@
       </c>
       <c r="D45" s="16" t="s">
         <v>560</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>583</v>
+      </c>
+      <c r="B46" t="s">
+        <v>576</v>
+      </c>
+      <c r="C46" t="s">
+        <v>580</v>
+      </c>
+      <c r="D46" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>584</v>
+      </c>
+      <c r="B47" t="s">
+        <v>577</v>
+      </c>
+      <c r="C47" t="s">
+        <v>580</v>
+      </c>
+      <c r="D47" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -8692,6 +8857,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d9de82e3-6650-437c-811c-4330ac3163a7" xsi:nil="true"/>
@@ -8700,15 +8874,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8941,26 +9106,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E58BEAF-C168-4A50-BC01-2C2CE605BA70}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A2FCDB-4CEB-4560-BC24-5417B97B9546}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="d9de82e3-6650-437c-811c-4330ac3163a7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="352660e0-d3e8-47c6-9ec5-fea43b473253"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A2FCDB-4CEB-4560-BC24-5417B97B9546}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E58BEAF-C168-4A50-BC01-2C2CE605BA70}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="d9de82e3-6650-437c-811c-4330ac3163a7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="352660e0-d3e8-47c6-9ec5-fea43b473253"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/metadata/rpharma_specs.xlsx
+++ b/metadata/rpharma_specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://phuseaccount.sharepoint.com/sites/Pharmaverse-admiral/Shared Documents/RPharma2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7262AFC6-9621-43F7-B2D0-FB32A2E2B370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{157F1F95-5780-4369-A8D1-F8AC4BE0C1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14305" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14305" firstSheet="7" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="602">
   <si>
     <t>Attribute</t>
   </si>
@@ -125,7 +125,7 @@
     <t>One or more records per subject per analysis parameter per analysis timepoint</t>
   </si>
   <si>
-    <t>STUDYID, USUBJID, PARAMCD, AVISITN, ADT, ATM</t>
+    <t>STUDYID, USUBJID, PARAMCD, ADT, VISITNUM, VISIT, ATPTN, DTYPE</t>
   </si>
   <si>
     <t>Yes</t>
@@ -251,6 +251,9 @@
     <t>Country</t>
   </si>
   <si>
+    <t>DM.COUNTRY</t>
+  </si>
+  <si>
     <t>REGION1</t>
   </si>
   <si>
@@ -260,6 +263,9 @@
     <t>ADSL_REGION1</t>
   </si>
   <si>
+    <t>Derived</t>
+  </si>
+  <si>
     <t>REGION1N</t>
   </si>
   <si>
@@ -272,6 +278,9 @@
     <t>ADSL_REGION1N</t>
   </si>
   <si>
+    <t>Assigned</t>
+  </si>
+  <si>
     <t>AGE</t>
   </si>
   <si>
@@ -299,6 +308,9 @@
     <t>Age Group 1</t>
   </si>
   <si>
+    <t>ADSL.AGEGR1</t>
+  </si>
+  <si>
     <t>AGEGR1N</t>
   </si>
   <si>
@@ -350,9 +362,6 @@
     <t>ADSL_RACEN</t>
   </si>
   <si>
-    <t>Assigned</t>
-  </si>
-  <si>
     <t>RACEGR1</t>
   </si>
   <si>
@@ -365,6 +374,9 @@
     <t>ADSL_RACEGR1</t>
   </si>
   <si>
+    <t>ADSL.RACEGR1</t>
+  </si>
+  <si>
     <t>RACEGR1N</t>
   </si>
   <si>
@@ -398,9 +410,6 @@
     <t>NY_YN</t>
   </si>
   <si>
-    <t>Derived</t>
-  </si>
-  <si>
     <t>ADSL.FASFL</t>
   </si>
   <si>
@@ -626,54 +635,81 @@
     <t>Relative Day of Death</t>
   </si>
   <si>
+    <t>ADSL.DTHADY</t>
+  </si>
+  <si>
     <t>LDDTHELD</t>
   </si>
   <si>
     <t>Elapsed Days from Last Dose to Death</t>
   </si>
   <si>
+    <t>ADSL.LDDTHELD</t>
+  </si>
+  <si>
     <t>DTHCAUS</t>
   </si>
   <si>
     <t>Cause of Death</t>
   </si>
   <si>
+    <t>ADSL.DTHCAUS</t>
+  </si>
+  <si>
     <t>DTHDOM</t>
   </si>
   <si>
     <t>Death Domain</t>
   </si>
   <si>
+    <t>ADSL.DTHDOM</t>
+  </si>
+  <si>
     <t>DTHCGR1</t>
   </si>
   <si>
     <t>Death Cause Category</t>
   </si>
   <si>
+    <t>ADSL.DTHCGR1</t>
+  </si>
+  <si>
     <t>SCRFDT</t>
   </si>
   <si>
     <t>Screen Failure Date</t>
   </si>
   <si>
+    <t>ADSL.SCRFDT</t>
+  </si>
+  <si>
     <t>EOSDT</t>
   </si>
   <si>
     <t>End of Study Date</t>
   </si>
   <si>
+    <t>ADSL.EOSDT</t>
+  </si>
+  <si>
     <t>EOSSTT</t>
   </si>
   <si>
     <t>End of Study Status</t>
   </si>
   <si>
+    <t>ADSL.EOSSTT</t>
+  </si>
+  <si>
     <t>FRVDT</t>
   </si>
   <si>
     <t>Last Retrieval Date</t>
   </si>
   <si>
+    <t>ADSL.FRVDT</t>
+  </si>
+  <si>
     <t>ADSL.STUDYID</t>
   </si>
   <si>
@@ -1469,7 +1505,7 @@
     <t>C16358</t>
   </si>
   <si>
-    <t>Body Mass Index</t>
+    <t>Body Mass Index (kg/m^2)</t>
   </si>
   <si>
     <t>9</t>
@@ -1481,7 +1517,7 @@
     <t>C25157</t>
   </si>
   <si>
-    <t>Body Surface Area</t>
+    <t>Body Surface Area (m^2)</t>
   </si>
   <si>
     <t>C66741</t>
@@ -1545,7 +1581,7 @@
   </si>
   <si>
     <t>Set to [VS.VSTEST] for parameters from VS domain,
-else set to 'Body Mass Index(kg/m^2)', or 'Body Surface Area(m^2)' or ' Mean Arterial Pressure (mmHg)'</t>
+else set to 'Body Mass Index (kg/m^2)', or 'Body Surface Area (m^2)' or ' Mean Arterial Pressure (mmHg)'</t>
   </si>
   <si>
     <t>ADVS.PARAMCD</t>
@@ -1645,7 +1681,6 @@
   </si>
   <si>
     <t>For additional summary records, set to 'AVERAGE'.
-For additional End of Treatment records, set to 'LOV'.
 Else set to null.</t>
   </si>
   <si>
@@ -1770,6 +1805,12 @@
 Set to 'Y' to the latest and highest value (ordering by Analysis Date ADVS.ADT and Analysis Value ADVS.AVAL) by USUBJID, PARAMCD, AVISIT,  ATPT, DTYPE.</t>
   </si>
   <si>
+    <t>Algorithm for ADVS.ASEQ</t>
+  </si>
+  <si>
+    <t>Set to 1 for the first row for each Unique Subject Identifier [ADVS.USUBJID], then increase by one per row, after sorting by key variables.</t>
+  </si>
+  <si>
     <t>Algorithm for ADSL.TRTDUR</t>
   </si>
   <si>
@@ -1807,6 +1848,52 @@
   </si>
   <si>
     <t>TRTETMF= H if the entire time is imputed. TRTETMF = M if minutes and seconds are imputed. TRTETMF = S if only seconds are imputed.</t>
+  </si>
+  <si>
+    <t>if DM.AGE &lt; 18 ~ "&lt;18",
+    between(DM.AGE, 18, 64) ~ "18-64",
+    AGE &gt; 64 ~ "&gt;64",
+    TRUE ~ "Missing"</t>
+  </si>
+  <si>
+    <t>DM.RACE == "WHITE" ~ "White",
+    DM.RACE != "WHITE" ~ "Non-white",
+    TRUE ~ "Missing"</t>
+  </si>
+  <si>
+    <t>Set to number of days from ADSL.TRTSDT to ADSL.DTHDT</t>
+  </si>
+  <si>
+    <t>Set to duration in days from ADSL.TRTSDT to ADSL.DTHDT</t>
+  </si>
+  <si>
+    <t>if AE.AEOUT = "FATAL" set to AE.ADECOD; else if DS.DSDECOD = "DEATH" set to DS.DSTERM</t>
+  </si>
+  <si>
+    <t>Set to SDTM Domain that the Death was recorded</t>
+  </si>
+  <si>
+    <t>if is.na(ADSL.DTHDOM) ~ NA_character_,
+else if ADSL.DTHDOM == "AE" ~ "ADVERSE EVENT",
+else if str_detect(ADSL.DTHCAUS, "(PROGRESSIVE DISEASE|DISEASE RELAPSE)") ~ "PROGRESSIVE DISEASE",
+otherwise set ADSL.DTHDOM to "OTHER"</t>
+  </si>
+  <si>
+    <t>if DS.DSCAT == "DISPOSITION EVENT" &amp; DS.DSDECOD == "SCREEN FAILURE" then set ADSL.SCRFDT to DS.DSSTDT</t>
+  </si>
+  <si>
+    <t>if DS.DSCAT == "DISPOSITION EVENT" &amp; DS.DSDECOD != "SCREEN FAILURE" then set ADSL.EOSDT to DS.DSSTDT</t>
+  </si>
+  <si>
+    <t>if DS.DSDECOD %in% c("COMPLETED") ~ "COMPLETED", else if DS.DSDECOD %in% c("SCREEN FAILURE") ~ NA_character_,
+else if !is.na(DS.DSDECOD) ~ "DISCONTINUED", otherwise set to "ONGOING"</t>
+  </si>
+  <si>
+    <t>if  DS.DSCAT == "OTHER EVENT" &amp; DS.DSDECOD == "FINAL RETRIEVAL VISIT" then set FRVDT to DS.DSSTDT</t>
+  </si>
+  <si>
+    <t>if DM.COUNTRY %in% c("CAN", "USA") ~ "NA", !is.na(DM.COUNTRY) ~ "RoW",
+    TRUE ~ "Missing"</t>
   </si>
   <si>
     <t>Title</t>
@@ -1877,7 +1964,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1894,12 +1981,6 @@
         <fgColor rgb="FFBDD7EE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1913,7 +1994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1951,7 +2032,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2357,24 +2437,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="B2" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="C2" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2469,7 @@
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2489,8 +2569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129AE431-5806-471D-9C82-A144A32316F7}">
   <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="K90" sqref="A90:K90"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2724,6 +2804,12 @@
         <v>5</v>
       </c>
       <c r="L6" s="3"/>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="4">
@@ -2734,10 +2820,10 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -2746,9 +2832,12 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L7" s="3"/>
+      <c r="M7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="4">
@@ -2759,21 +2848,24 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F8" s="9">
         <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L8" s="3"/>
+      <c r="M8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="4">
@@ -2784,13 +2876,13 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
         <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
       </c>
       <c r="F9" s="9">
         <v>8</v>
@@ -2803,7 +2895,7 @@
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2815,10 +2907,10 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
         <v>48</v>
@@ -2830,14 +2922,14 @@
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2849,10 +2941,10 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
         <v>48</v>
@@ -2861,6 +2953,12 @@
         <v>3</v>
       </c>
       <c r="L11" s="3"/>
+      <c r="M11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="4">
@@ -2871,21 +2969,24 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" s="9">
         <v>8</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L12" s="3"/>
+      <c r="M12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="4">
@@ -2896,10 +2997,10 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
         <v>48</v>
@@ -2911,17 +3012,17 @@
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2933,32 +3034,32 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
         <v>48</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I14" t="s">
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2970,26 +3071,26 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
         <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -3001,21 +3102,27 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L16" s="3"/>
+      <c r="M16" t="s">
+        <v>69</v>
+      </c>
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4">
@@ -3026,21 +3133,24 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L17" s="3"/>
+      <c r="M17" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="4">
@@ -3051,29 +3161,29 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I18" t="s">
         <v>25</v>
       </c>
       <c r="K18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" t="s">
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3085,10 +3195,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
         <v>48</v>
@@ -3100,17 +3210,17 @@
         <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3122,29 +3232,29 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I20" t="s">
         <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" t="s">
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -3156,32 +3266,32 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
         <v>48</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I21" t="s">
         <v>25</v>
       </c>
       <c r="K21" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -3193,32 +3303,32 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -3230,16 +3340,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
         <v>48</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I23" t="s">
         <v>24</v>
@@ -3249,10 +3359,10 @@
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q23" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -3264,16 +3374,16 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E24" t="s">
         <v>48</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I24" t="s">
         <v>24</v>
@@ -3283,10 +3393,10 @@
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q24" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -3298,16 +3408,16 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I25" t="s">
         <v>24</v>
@@ -3317,10 +3427,10 @@
         <v>44</v>
       </c>
       <c r="P25" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q25" t="s">
         <v>138</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -3332,16 +3442,16 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E26" t="s">
         <v>48</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I26" t="s">
         <v>24</v>
@@ -3351,10 +3461,10 @@
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q26" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -3366,32 +3476,32 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E27" t="s">
         <v>48</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
         <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q27" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -3403,29 +3513,29 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I28" t="s">
         <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="Q28" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -3437,29 +3547,29 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
         <v>48</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
         <v>25</v>
       </c>
       <c r="K29" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O29" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -3471,26 +3581,26 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I30" t="s">
         <v>25</v>
       </c>
       <c r="K30" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -3502,29 +3612,29 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" s="9">
         <v>8</v>
       </c>
       <c r="H31" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I31" t="s">
         <v>25</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -3536,29 +3646,29 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F32" s="4">
         <v>8</v>
       </c>
       <c r="H32" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I32" t="s">
         <v>25</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O32" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3570,29 +3680,29 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F33" s="4">
         <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I33" t="s">
         <v>25</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3604,10 +3714,10 @@
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E34" t="s">
         <v>48</v>
@@ -3620,10 +3730,10 @@
       </c>
       <c r="L34" s="3"/>
       <c r="M34" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O34" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3635,29 +3745,29 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H35" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I35" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3669,29 +3779,29 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D36" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I36" t="s">
         <v>25</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O36" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3703,10 +3813,10 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D37" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E37" t="s">
         <v>48</v>
@@ -3719,10 +3829,10 @@
       </c>
       <c r="L37" s="3"/>
       <c r="M37" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O37" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3734,13 +3844,13 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D38" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F38" s="9">
         <v>8</v>
@@ -3750,10 +3860,10 @@
       </c>
       <c r="L38" s="3"/>
       <c r="M38" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O38" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3765,29 +3875,29 @@
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H39" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I39" t="s">
         <v>25</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O39" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3799,29 +3909,29 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E40" t="s">
         <v>48</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I40" t="s">
         <v>25</v>
       </c>
       <c r="K40" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3833,13 +3943,13 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F41" s="9">
         <v>8</v>
@@ -3849,9 +3959,11 @@
       </c>
       <c r="L41" s="3"/>
       <c r="M41" t="s">
-        <v>114</v>
-      </c>
-      <c r="O41" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="O41" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="4">
@@ -3862,13 +3974,13 @@
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F42" s="9">
         <v>8</v>
@@ -3878,9 +3990,11 @@
       </c>
       <c r="L42" s="3"/>
       <c r="M42" t="s">
-        <v>114</v>
-      </c>
-      <c r="O42" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="O42" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="4">
@@ -3891,10 +4005,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D43" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E43" t="s">
         <v>48</v>
@@ -3907,9 +4021,11 @@
       </c>
       <c r="L43" s="3"/>
       <c r="M43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O43" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="O43" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="4">
@@ -3920,10 +4036,10 @@
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D44" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
         <v>48</v>
@@ -3936,9 +4052,11 @@
       </c>
       <c r="L44" s="3"/>
       <c r="M44" t="s">
-        <v>114</v>
-      </c>
-      <c r="O44" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="O44" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="4">
@@ -3949,10 +4067,10 @@
         <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E45" t="s">
         <v>48</v>
@@ -3965,9 +4083,11 @@
       </c>
       <c r="L45" s="3"/>
       <c r="M45" t="s">
-        <v>114</v>
-      </c>
-      <c r="O45" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="O45" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="4">
@@ -3978,27 +4098,29 @@
         <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D46" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I46" t="s">
         <v>25</v>
       </c>
       <c r="M46" t="s">
-        <v>114</v>
-      </c>
-      <c r="O46" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="O46" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="4">
@@ -4009,27 +4131,29 @@
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D47" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H47" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I47" t="s">
         <v>25</v>
       </c>
       <c r="M47" t="s">
-        <v>114</v>
-      </c>
-      <c r="O47" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="O47" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="4">
@@ -4040,10 +4164,10 @@
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D48" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E48" t="s">
         <v>48</v>
@@ -4055,9 +4179,11 @@
         <v>25</v>
       </c>
       <c r="M48" t="s">
-        <v>114</v>
-      </c>
-      <c r="O48" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="O48" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="4">
@@ -4068,27 +4194,29 @@
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D49" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H49" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I49" t="s">
         <v>25</v>
       </c>
       <c r="M49" t="s">
-        <v>114</v>
-      </c>
-      <c r="O49" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="O49" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="4">
@@ -4117,7 +4245,7 @@
         <v>44</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4138,7 +4266,7 @@
         <v>48</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="I51" t="s">
         <v>24</v>
@@ -4147,7 +4275,7 @@
         <v>44</v>
       </c>
       <c r="P51" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4168,7 +4296,7 @@
         <v>48</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="I52" t="s">
         <v>25</v>
@@ -4177,7 +4305,7 @@
         <v>44</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4207,7 +4335,7 @@
         <v>44</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4219,26 +4347,26 @@
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D54" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="E54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I54" t="s">
         <v>25</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O54" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4250,16 +4378,16 @@
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E55" t="s">
         <v>48</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
@@ -4268,7 +4396,7 @@
         <v>44</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4289,7 +4417,7 @@
         <v>48</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
@@ -4298,7 +4426,7 @@
         <v>44</v>
       </c>
       <c r="P56" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4310,16 +4438,16 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>48</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
@@ -4328,7 +4456,7 @@
         <v>44</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4340,16 +4468,16 @@
         <v>19</v>
       </c>
       <c r="C58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" t="s">
         <v>72</v>
       </c>
-      <c r="D58" t="s">
-        <v>73</v>
-      </c>
-      <c r="E58" t="s">
-        <v>70</v>
-      </c>
       <c r="F58" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I58" t="s">
         <v>24</v>
@@ -4358,7 +4486,7 @@
         <v>44</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4370,10 +4498,10 @@
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E59" t="s">
         <v>48</v>
@@ -4388,7 +4516,7 @@
         <v>44</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4400,10 +4528,10 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E60" t="s">
         <v>48</v>
@@ -4415,14 +4543,14 @@
         <v>24</v>
       </c>
       <c r="K60" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" t="s">
         <v>44</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4434,29 +4562,29 @@
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E61" t="s">
         <v>48</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I61" t="s">
         <v>24</v>
       </c>
       <c r="K61" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" t="s">
         <v>44</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4468,10 +4596,10 @@
         <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E62" t="s">
         <v>48</v>
@@ -4483,14 +4611,14 @@
         <v>25</v>
       </c>
       <c r="K62" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" t="s">
         <v>44</v>
       </c>
       <c r="P62" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4502,29 +4630,29 @@
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
         <v>48</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I63" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" t="s">
         <v>44</v>
       </c>
       <c r="P63" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4536,29 +4664,29 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E64" t="s">
         <v>48</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I64" t="s">
         <v>25</v>
       </c>
       <c r="K64" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" t="s">
         <v>44</v>
       </c>
       <c r="P64" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4570,19 +4698,19 @@
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D65" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H65" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I65" t="s">
         <v>25</v>
@@ -4592,7 +4720,7 @@
         <v>44</v>
       </c>
       <c r="P65" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4604,19 +4732,19 @@
         <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E66" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F66" s="4">
         <v>8</v>
       </c>
       <c r="H66" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I66" t="s">
         <v>25</v>
@@ -4626,7 +4754,7 @@
         <v>44</v>
       </c>
       <c r="P66" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4638,19 +4766,19 @@
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D67" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H67" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I67" t="s">
         <v>25</v>
@@ -4660,7 +4788,7 @@
         <v>44</v>
       </c>
       <c r="P67" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4672,10 +4800,10 @@
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D68" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E68" t="s">
         <v>48</v>
@@ -4691,7 +4819,7 @@
         <v>44</v>
       </c>
       <c r="P68" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4703,10 +4831,10 @@
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D69" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="E69" t="s">
         <v>48</v>
@@ -4722,7 +4850,7 @@
         <v>44</v>
       </c>
       <c r="P69" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4734,10 +4862,10 @@
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D70" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E70" t="s">
         <v>48</v>
@@ -4753,7 +4881,7 @@
         <v>44</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4765,10 +4893,10 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D71" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="E71" t="s">
         <v>48</v>
@@ -4784,7 +4912,7 @@
         <v>44</v>
       </c>
       <c r="P71" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4796,10 +4924,10 @@
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D72" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E72" t="s">
         <v>48</v>
@@ -4815,7 +4943,7 @@
         <v>44</v>
       </c>
       <c r="P72" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4827,10 +4955,10 @@
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D73" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E73" t="s">
         <v>48</v>
@@ -4846,7 +4974,7 @@
         <v>44</v>
       </c>
       <c r="P73" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4858,10 +4986,10 @@
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D74" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="E74" t="s">
         <v>48</v>
@@ -4877,7 +5005,7 @@
         <v>44</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4889,13 +5017,13 @@
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D75" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E75" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F75" s="9">
         <v>8</v>
@@ -4908,7 +5036,7 @@
         <v>44</v>
       </c>
       <c r="P75" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4920,10 +5048,10 @@
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E76" t="s">
         <v>48</v>
@@ -4939,7 +5067,7 @@
         <v>44</v>
       </c>
       <c r="P76" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4951,10 +5079,10 @@
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D77" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E77" t="s">
         <v>48</v>
@@ -4970,7 +5098,7 @@
         <v>44</v>
       </c>
       <c r="P77" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4982,10 +5110,10 @@
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D78" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="E78" t="s">
         <v>48</v>
@@ -5001,38 +5129,38 @@
         <v>44</v>
       </c>
       <c r="P78" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" s="19" customFormat="1" ht="15">
-      <c r="A79" s="18">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="18" customFormat="1">
+      <c r="A79" s="17">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F79" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="I79" s="19" t="s">
+      <c r="C79" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I79" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L79" s="21"/>
-      <c r="M79" s="19" t="s">
+      <c r="L79" s="20"/>
+      <c r="M79" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="P79" s="19" t="s">
-        <v>261</v>
+      <c r="P79" s="18" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5044,13 +5172,13 @@
         <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D80" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="E80" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F80" s="9">
         <v>8</v>
@@ -5063,7 +5191,7 @@
         <v>44</v>
       </c>
       <c r="P80" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5075,10 +5203,10 @@
         <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="D81" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E81" t="s">
         <v>48</v>
@@ -5094,7 +5222,7 @@
         <v>44</v>
       </c>
       <c r="P81" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5106,13 +5234,13 @@
         <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D82" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="E82" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="F82" s="9">
         <v>25</v>
@@ -5125,7 +5253,7 @@
         <v>44</v>
       </c>
       <c r="P82" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5137,13 +5265,13 @@
         <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D83" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="E83" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F83" s="9">
         <v>8</v>
@@ -5156,7 +5284,7 @@
         <v>44</v>
       </c>
       <c r="P83" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5168,10 +5296,10 @@
         <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="D84" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="E84" t="s">
         <v>48</v>
@@ -5187,7 +5315,7 @@
         <v>44</v>
       </c>
       <c r="P84" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5199,13 +5327,13 @@
         <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="D85" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="E85" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F85" s="9">
         <v>8</v>
@@ -5218,7 +5346,7 @@
         <v>44</v>
       </c>
       <c r="P85" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5230,10 +5358,10 @@
         <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="D86" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="E86" t="s">
         <v>48</v>
@@ -5249,7 +5377,7 @@
         <v>44</v>
       </c>
       <c r="P86" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5261,16 +5389,16 @@
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="D87" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="E87" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I87" t="s">
         <v>25</v>
@@ -5280,7 +5408,7 @@
         <v>44</v>
       </c>
       <c r="P87" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5292,13 +5420,13 @@
         <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D88" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="E88" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F88" s="9">
         <v>8</v>
@@ -5311,7 +5439,7 @@
         <v>44</v>
       </c>
       <c r="P88" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5323,10 +5451,10 @@
         <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="D89" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="E89" t="s">
         <v>48</v>
@@ -5342,7 +5470,7 @@
         <v>44</v>
       </c>
       <c r="P89" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5354,10 +5482,10 @@
         <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="D90" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -5369,11 +5497,11 @@
         <v>24</v>
       </c>
       <c r="K90" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="L90" s="3"/>
       <c r="M90" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5385,13 +5513,13 @@
         <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="D91" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E91" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F91" s="9">
         <v>8</v>
@@ -5400,11 +5528,11 @@
         <v>25</v>
       </c>
       <c r="K91" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="L91" s="3"/>
       <c r="M91" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5416,10 +5544,10 @@
         <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D92" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="E92" t="s">
         <v>48</v>
@@ -5431,11 +5559,11 @@
         <v>24</v>
       </c>
       <c r="K92" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="L92" s="3"/>
       <c r="M92" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5447,23 +5575,23 @@
         <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="D93" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="E93" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F93" s="9">
         <v>8</v>
       </c>
       <c r="L93" s="3"/>
       <c r="M93" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O93" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5475,10 +5603,10 @@
         <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="D94" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="E94" t="s">
         <v>48</v>
@@ -5488,10 +5616,10 @@
       </c>
       <c r="L94" s="3"/>
       <c r="M94" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="O94" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5503,10 +5631,10 @@
         <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="D95" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E95" t="s">
         <v>48</v>
@@ -5516,10 +5644,10 @@
       </c>
       <c r="L95" s="3"/>
       <c r="M95" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O95" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5531,20 +5659,20 @@
         <v>19</v>
       </c>
       <c r="C96" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D96" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E96" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F96" s="9">
         <v>8</v>
       </c>
       <c r="L96" s="3"/>
       <c r="M96" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5556,23 +5684,23 @@
         <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="D97" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="E97" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F97" s="9">
         <v>8</v>
       </c>
       <c r="L97" s="3"/>
       <c r="M97" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O97" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5584,10 +5712,10 @@
         <v>19</v>
       </c>
       <c r="C98" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="D98" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="E98" t="s">
         <v>48</v>
@@ -5597,10 +5725,10 @@
       </c>
       <c r="L98" s="3"/>
       <c r="M98" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="O98" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5612,10 +5740,10 @@
         <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="D99" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="E99" t="s">
         <v>48</v>
@@ -5624,14 +5752,14 @@
         <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L99" s="3"/>
       <c r="M99" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O99" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5643,23 +5771,23 @@
         <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="D100" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="E100" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F100" s="9">
         <v>8</v>
       </c>
       <c r="L100" s="3"/>
       <c r="M100" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O100" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5671,23 +5799,23 @@
         <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D101" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="E101" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F101" s="9">
         <v>8</v>
       </c>
       <c r="L101" s="3"/>
       <c r="M101" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O101" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5699,10 +5827,10 @@
         <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="D102" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="E102" t="s">
         <v>48</v>
@@ -5712,10 +5840,10 @@
       </c>
       <c r="L102" s="3"/>
       <c r="M102" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O102" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -5727,23 +5855,23 @@
         <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="D103" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="E103" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F103" s="9">
         <v>8</v>
       </c>
       <c r="L103" s="3"/>
       <c r="M103" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="O103" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5755,23 +5883,23 @@
         <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="D104" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="E104" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F104" s="9">
         <v>8</v>
       </c>
       <c r="L104" s="3"/>
       <c r="M104" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="O104" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5783,10 +5911,10 @@
         <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D105" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="E105" t="s">
         <v>48</v>
@@ -5796,10 +5924,10 @@
       </c>
       <c r="L105" s="3"/>
       <c r="M105" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O105" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5811,10 +5939,10 @@
         <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D106" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="E106" t="s">
         <v>48</v>
@@ -5824,10 +5952,10 @@
       </c>
       <c r="L106" s="3"/>
       <c r="M106" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O106" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5839,23 +5967,23 @@
         <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D107" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="E107" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F107" s="9">
         <v>8</v>
       </c>
       <c r="L107" s="3"/>
       <c r="M107" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="O107" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5867,23 +5995,23 @@
         <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="D108" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="E108" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F108" s="9">
         <v>8</v>
       </c>
       <c r="L108" s="3"/>
       <c r="M108" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="O108" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -5895,23 +6023,23 @@
         <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="D109" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="E109" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F109" s="9">
         <v>8</v>
       </c>
       <c r="L109" s="3"/>
       <c r="M109" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O109" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -5923,23 +6051,23 @@
         <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="D110" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="E110" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F110" s="9">
         <v>8</v>
       </c>
       <c r="L110" s="3"/>
       <c r="M110" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O110" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -5951,10 +6079,10 @@
         <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D111" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="E111" t="s">
         <v>48</v>
@@ -5964,10 +6092,10 @@
       </c>
       <c r="L111" s="3"/>
       <c r="M111" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O111" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -5979,23 +6107,23 @@
         <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="D112" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="E112" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F112" s="9">
         <v>8</v>
       </c>
       <c r="L112" s="3"/>
       <c r="M112" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="O112" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -6007,10 +6135,10 @@
         <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="D113" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="E113" t="s">
         <v>48</v>
@@ -6020,10 +6148,10 @@
       </c>
       <c r="L113" s="3"/>
       <c r="M113" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O113" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -6035,23 +6163,23 @@
         <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D114" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E114" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F114" s="9">
         <v>8</v>
       </c>
       <c r="L114" s="3"/>
       <c r="M114" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="O114" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -6063,10 +6191,10 @@
         <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="D115" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E115" t="s">
         <v>48</v>
@@ -6076,10 +6204,10 @@
       </c>
       <c r="L115" s="3"/>
       <c r="M115" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O115" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -6091,10 +6219,10 @@
         <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="D116" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="E116" t="s">
         <v>48</v>
@@ -6104,10 +6232,10 @@
       </c>
       <c r="L116" s="3"/>
       <c r="M116" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O116" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -6119,10 +6247,10 @@
         <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="D117" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E117" t="s">
         <v>48</v>
@@ -6131,14 +6259,14 @@
         <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L117" s="3"/>
       <c r="M117" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O117" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -6150,10 +6278,10 @@
         <v>19</v>
       </c>
       <c r="C118" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D118" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="E118" t="s">
         <v>48</v>
@@ -6162,14 +6290,14 @@
         <v>1</v>
       </c>
       <c r="K118" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L118" s="3"/>
       <c r="M118" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="O118" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -6183,7 +6311,7 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="Z28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
@@ -6217,7 +6345,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -6286,8 +6414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBC456A-1389-4826-89DD-7A3DE90BCF75}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6303,13 +6431,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -6318,25 +6446,25 @@
         <v>31</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" s="16">
         <v>1</v>
@@ -6346,19 +6474,19 @@
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="15" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" s="16">
         <v>2</v>
@@ -6368,19 +6496,19 @@
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="15" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E4" s="16">
         <v>3</v>
@@ -6390,19 +6518,19 @@
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="15" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E5" s="16">
         <v>4</v>
@@ -6412,156 +6540,156 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="C6" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="G6" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="C7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="G7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="C8" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="G8" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="G9" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="G10" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="G11" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -6570,21 +6698,21 @@
         <v>61</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="G12" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
@@ -6593,98 +6721,98 @@
         <v>49</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="H15" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="H16" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="H17" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>61</v>
@@ -6693,15 +6821,15 @@
         <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
         <v>48</v>
@@ -6710,15 +6838,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
         <v>48</v>
@@ -6727,15 +6855,15 @@
         <v>2</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
@@ -6744,21 +6872,21 @@
         <v>3</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="H21" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -6767,18 +6895,18 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
@@ -6787,18 +6915,18 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E24" s="4">
         <v>3</v>
@@ -6809,10 +6937,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
         <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
       </c>
       <c r="D25" t="s">
         <v>48</v>
@@ -6821,15 +6949,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
         <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
@@ -6838,15 +6966,15 @@
         <v>2</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
         <v>67</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
       </c>
       <c r="D27" t="s">
         <v>48</v>
@@ -6855,18 +6983,18 @@
         <v>3</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
         <v>71</v>
       </c>
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -6875,18 +7003,18 @@
         <v>1</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
         <v>71</v>
       </c>
-      <c r="B29" t="s">
-        <v>69</v>
-      </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E29" s="4">
         <v>2</v>
@@ -6895,18 +7023,18 @@
         <v>2</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E30" s="4">
         <v>3</v>
@@ -6915,153 +7043,153 @@
         <v>3</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="G31" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="H31" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D32" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="G32" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="H32" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D33" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="G33" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="H33" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="G34" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="H34" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B35" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="D36" t="s">
         <v>48</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="D37" t="s">
         <v>48</v>
@@ -7070,127 +7198,127 @@
         <v>3</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B38" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="D38" t="s">
         <v>48</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B41" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="F41" s="4">
         <v>3</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B43" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="C43" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="G43" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="H43" t="s">
         <v>25</v>
@@ -7198,77 +7326,77 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B44" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="C44" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="G44" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="H44" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
+        <v>446</v>
+      </c>
+      <c r="B45" t="s">
+        <v>447</v>
+      </c>
+      <c r="C45" t="s">
+        <v>448</v>
+      </c>
+      <c r="D45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="G45" t="s">
         <v>434</v>
       </c>
-      <c r="B45" t="s">
+      <c r="H45" t="s">
         <v>435</v>
-      </c>
-      <c r="C45" t="s">
-        <v>436</v>
-      </c>
-      <c r="D45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="G45" t="s">
-        <v>422</v>
-      </c>
-      <c r="H45" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B46" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="C46" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="G46" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="H46" t="s">
         <v>24</v>
@@ -7276,22 +7404,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B47" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="C47" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="H47" t="s">
         <v>24</v>
@@ -7299,22 +7427,22 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="G48" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="H48" t="s">
         <v>24</v>
@@ -7322,22 +7450,22 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="G49" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="H49" t="s">
         <v>25</v>
@@ -7345,137 +7473,137 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B50" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="C50" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="D50" t="s">
         <v>48</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B51" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C51" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="G51" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B52" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C52" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="G52" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B53" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C53" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="G53" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B54" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C54" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D54" t="s">
         <v>48</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="G54" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B55" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C55" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
@@ -7484,24 +7612,24 @@
         <v>61</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="G55" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B56" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C56" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D56" t="s">
         <v>48</v>
@@ -7510,194 +7638,194 @@
         <v>49</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="G56" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B57" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C57" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D57" t="s">
         <v>48</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="G57" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B58" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C58" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="G58" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B59" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C59" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D59" t="s">
         <v>48</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="G59" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B60" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C60" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D60" t="s">
         <v>48</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="G60" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B61" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C61" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D61" t="s">
         <v>48</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="G61" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B62" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C62" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D62" t="s">
         <v>48</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="G62" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B63" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C63" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D63" t="s">
         <v>48</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="G63" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B64" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C64" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
@@ -7706,21 +7834,21 @@
         <v>61</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="G64" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B65" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C65" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D65" t="s">
         <v>48</v>
@@ -7729,170 +7857,170 @@
         <v>49</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="G65" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B66" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C66" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D66" t="s">
         <v>48</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="G66" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B67" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C67" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D67" t="s">
         <v>48</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="G67" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B68" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C68" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D68" t="s">
         <v>48</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="G68" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B69" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H69" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B70" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D70" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="H70" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B71" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D71" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="H71" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B72" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D72" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="H72" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B73" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>61</v>
@@ -7901,18 +8029,18 @@
         <v>61</v>
       </c>
       <c r="H73" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B74" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D74" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>49</v>
@@ -7921,67 +8049,67 @@
         <v>49</v>
       </c>
       <c r="H74" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D75" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="H75" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B76" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H76" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B77" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D77" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="H77" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -8009,70 +8137,70 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="B2" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="C2" t="s">
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="E2" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="E3" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="B4" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="E4" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -8083,7 +8211,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A27F77-A36A-4B0F-AB98-73EE4727DE22}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
@@ -8099,574 +8227,574 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.5">
+    <row r="2" spans="1:8" ht="30.75">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="B2" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="C2" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5">
       <c r="A3" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="C3" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C4" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C5" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C6" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C8" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B9" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C9" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B10" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C10" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B11" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C11" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B12" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C12" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="B13" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="C13" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="42.75">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="B14" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="C14" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.45">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C15" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="58.7" customHeight="1">
       <c r="A16" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B16" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="C16" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="42.75">
       <c r="A17" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B17" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C17" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.4">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B18" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="C18" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="91.15">
       <c r="A19" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B19" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C19" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="42.75">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30.75">
       <c r="A20" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B20" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="C20" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="57.2">
       <c r="A21" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B21" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="C21" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="57.2">
       <c r="A22" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B22" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="C22" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="128.44999999999999">
       <c r="A23" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B23" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="C23" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.5">
       <c r="A24" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="B24" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="C24" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="57.2">
       <c r="A25" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B25" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="C25" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="57.2">
       <c r="A26" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B26" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="C26" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B27" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="C27" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="42.75">
       <c r="A28" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B28" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C28" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B29" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="C29" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B30" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="C30" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="68.25" customHeight="1">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
       <c r="A31" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="B31" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C31" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.5">
       <c r="A32" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B32" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C32" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B33" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C33" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B34" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="C34" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="85.7">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="91.5">
       <c r="A35" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B35" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="C35" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="28.5">
       <c r="A36" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B36" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="C36" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="B37" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="C37" t="s">
-        <v>495</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>559</v>
+        <v>507</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>572</v>
       </c>
       <c r="C38" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -8677,94 +8805,276 @@
         <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="C42" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>568</v>
-      </c>
-      <c r="D46" t="s">
-        <v>569</v>
+        <v>507</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="D47" t="s">
-        <v>570</v>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" t="s">
+        <v>582</v>
+      </c>
+      <c r="D48" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
+        <v>507</v>
+      </c>
+      <c r="D49" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>507</v>
+      </c>
+      <c r="D50" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" t="s">
+        <v>507</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" t="s">
+        <v>507</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" t="s">
+        <v>507</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" t="s">
+        <v>507</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="57.2">
+      <c r="A55" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" t="s">
+        <v>507</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" t="s">
+        <v>507</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" t="s">
+        <v>507</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="28.5">
+      <c r="A58" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" t="s">
+        <v>507</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" t="s">
+        <v>507</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" t="s">
+        <v>507</v>
+      </c>
+      <c r="D60" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -8777,7 +9087,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -8790,13 +9100,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>42</v>
@@ -8809,12 +9119,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d9de82e3-6650-437c-811c-4330ac3163a7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="352660e0-d3e8-47c6-9ec5-fea43b473253">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9047,18 +9359,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d9de82e3-6650-437c-811c-4330ac3163a7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="352660e0-d3e8-47c6-9ec5-fea43b473253">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A2FCDB-4CEB-4560-BC24-5417B97B9546}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E58BEAF-C168-4A50-BC01-2C2CE605BA70}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9066,5 +9376,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E58BEAF-C168-4A50-BC01-2C2CE605BA70}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A2FCDB-4CEB-4560-BC24-5417B97B9546}"/>
 </file>
--- a/metadata/rpharma_specs.xlsx
+++ b/metadata/rpharma_specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://phuseaccount.sharepoint.com/sites/Pharmaverse-admiral/Shared Documents/RPharma2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bs832471\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{157F1F95-5780-4369-A8D1-F8AC4BE0C1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03308EDE-FB7F-4602-9BF7-8874DA61D20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14305" firstSheet="7" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14305" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="602">
   <si>
     <t>Attribute</t>
   </si>
@@ -1323,9 +1323,6 @@
   </si>
   <si>
     <t>White</t>
-  </si>
-  <si>
-    <t>Non-White</t>
   </si>
   <si>
     <t>NA</t>
@@ -1910,12 +1907,15 @@
   <si>
     <t>adrg.pdf</t>
   </si>
+  <si>
+    <t>Non-white</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2359,13 +2359,13 @@
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="74.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2428,33 +2428,33 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="62.375" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>599</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>600</v>
-      </c>
-      <c r="C2" t="s">
-        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -2472,19 +2472,19 @@
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="58.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="9" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="50.75" customWidth="1"/>
+    <col min="5" max="5" width="58.625" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="9" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2569,33 +2569,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129AE431-5806-471D-9C82-A144A32316F7}">
   <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A62" si="0">A2+1</f>
         <v>2</v>
@@ -2718,7 +2718,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2752,7 +2752,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2783,7 +2783,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2803,6 +2803,9 @@
       <c r="F6" s="9">
         <v>5</v>
       </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" t="s">
         <v>44</v>
@@ -2811,7 +2814,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2831,6 +2834,9 @@
       <c r="F7" s="9">
         <v>10</v>
       </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
       <c r="K7" t="s">
         <v>68</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2859,6 +2865,9 @@
       <c r="F8" s="9">
         <v>8</v>
       </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
       <c r="K8" t="s">
         <v>73</v>
       </c>
@@ -2867,7 +2876,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2898,7 +2907,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2932,7 +2941,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2952,6 +2961,9 @@
       <c r="F11" s="9">
         <v>3</v>
       </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" t="s">
         <v>69</v>
@@ -2960,7 +2972,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2980,6 +2992,9 @@
       <c r="F12" s="9">
         <v>8</v>
       </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
       <c r="K12" s="15" t="s">
         <v>87</v>
       </c>
@@ -2988,7 +3003,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3025,7 +3040,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3062,7 +3077,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3093,7 +3108,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3113,6 +3128,9 @@
       <c r="F16" s="9" t="s">
         <v>104</v>
       </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
       <c r="K16" t="s">
         <v>105</v>
       </c>
@@ -3124,7 +3142,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3144,6 +3162,9 @@
       <c r="F17" s="9" t="s">
         <v>100</v>
       </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
       <c r="K17" t="s">
         <v>109</v>
       </c>
@@ -3152,7 +3173,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3186,7 +3207,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3223,7 +3244,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3257,7 +3278,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3294,7 +3315,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f>A21+1</f>
         <v>21</v>
@@ -3331,7 +3352,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3365,7 +3386,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3399,7 +3420,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3433,7 +3454,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3467,7 +3488,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3504,7 +3525,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3538,7 +3559,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3572,7 +3593,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3603,7 +3624,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3637,7 +3658,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3671,7 +3692,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3705,7 +3726,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3736,7 +3757,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3770,7 +3791,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3804,7 +3825,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3835,7 +3856,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3866,7 +3887,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3900,7 +3921,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3934,7 +3955,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3965,7 +3986,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3996,7 +4017,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4027,7 +4048,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4058,7 +4079,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4089,7 +4110,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4122,7 +4143,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4155,7 +4176,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4185,7 +4206,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4218,7 +4239,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4248,7 +4269,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4278,7 +4299,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4308,7 +4329,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4338,7 +4359,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4369,7 +4390,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4399,7 +4420,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4429,7 +4450,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4459,7 +4480,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4489,7 +4510,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4519,7 +4540,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4553,7 +4574,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4587,7 +4608,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4621,7 +4642,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f t="shared" ref="A63:A118" si="1">A62+1</f>
         <v>62</v>
@@ -4655,7 +4676,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -4689,7 +4710,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -4723,7 +4744,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -4757,7 +4778,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -4791,7 +4812,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -4822,7 +4843,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4853,7 +4874,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4884,7 +4905,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4915,7 +4936,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4946,7 +4967,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4977,7 +4998,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -5008,7 +5029,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -5039,7 +5060,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -5070,7 +5091,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -5101,7 +5122,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -5132,7 +5153,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="18" customFormat="1">
+    <row r="79" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -5163,7 +5184,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -5194,7 +5215,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -5225,7 +5246,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -5256,7 +5277,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -5287,7 +5308,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -5318,7 +5339,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -5349,7 +5370,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -5380,7 +5401,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -5411,7 +5432,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -5442,7 +5463,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -5473,7 +5494,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -5504,7 +5525,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -5535,7 +5556,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -5566,7 +5587,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -5594,7 +5615,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -5622,7 +5643,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -5650,7 +5671,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -5675,7 +5696,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -5703,7 +5724,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -5731,7 +5752,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -5762,7 +5783,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -5790,7 +5811,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -5818,7 +5839,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -5846,7 +5867,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -5874,7 +5895,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -5902,7 +5923,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -5930,7 +5951,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -5958,7 +5979,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -5986,7 +6007,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -6014,7 +6035,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -6042,7 +6063,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -6070,7 +6091,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -6098,7 +6119,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -6126,7 +6147,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -6154,7 +6175,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -6182,7 +6203,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -6210,7 +6231,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -6238,7 +6259,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -6269,7 +6290,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -6311,30 +6332,30 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="Z28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" customWidth="1"/>
-    <col min="17" max="18" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="13" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="11.75" customWidth="1"/>
+    <col min="15" max="15" width="13.625" customWidth="1"/>
+    <col min="16" max="16" width="15.25" customWidth="1"/>
+    <col min="17" max="18" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -6404,7 +6425,7 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6414,22 +6435,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBC456A-1389-4826-89DD-7A3DE90BCF75}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
     <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="59.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>392</v>
       </c>
@@ -6455,7 +6476,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>87</v>
       </c>
@@ -6477,7 +6498,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>87</v>
       </c>
@@ -6499,7 +6520,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>87</v>
       </c>
@@ -6521,7 +6542,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>87</v>
       </c>
@@ -6543,7 +6564,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -6566,7 +6587,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -6589,7 +6610,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -6612,7 +6633,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -6635,7 +6656,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -6658,7 +6679,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -6681,7 +6702,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -6704,7 +6725,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -6724,7 +6745,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -6744,7 +6765,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -6764,7 +6785,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -6784,7 +6805,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -6804,7 +6825,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -6824,7 +6845,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -6841,7 +6862,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -6855,10 +6876,10 @@
         <v>2</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -6874,11 +6895,8 @@
       <c r="F21" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="H21" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -6895,10 +6913,10 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -6915,10 +6933,10 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -6934,8 +6952,11 @@
       <c r="F24" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="H24" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -6949,10 +6970,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -6966,10 +6987,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -6986,7 +7007,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -7003,10 +7024,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -7023,10 +7044,10 @@
         <v>2</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -7046,7 +7067,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -7054,7 +7075,7 @@
         <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
@@ -7063,16 +7084,16 @@
         <v>122</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G31" t="s">
         <v>427</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>428</v>
       </c>
-      <c r="H31" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -7080,7 +7101,7 @@
         <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D32" t="s">
         <v>48</v>
@@ -7089,16 +7110,16 @@
         <v>406</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G32" t="s">
         <v>430</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>431</v>
       </c>
-      <c r="H32" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -7106,7 +7127,7 @@
         <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D33" t="s">
         <v>48</v>
@@ -7115,16 +7136,16 @@
         <v>229</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G33" t="s">
         <v>433</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>434</v>
       </c>
-      <c r="H33" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -7132,7 +7153,7 @@
         <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
@@ -7141,21 +7162,21 @@
         <v>421</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G34" t="s">
         <v>436</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>437</v>
       </c>
-      <c r="H34" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>147</v>
       </c>
       <c r="B35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
@@ -7164,15 +7185,15 @@
         <v>122</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>147</v>
       </c>
       <c r="B36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D36" t="s">
         <v>48</v>
@@ -7181,15 +7202,15 @@
         <v>406</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D37" t="s">
         <v>48</v>
@@ -7198,32 +7219,32 @@
         <v>3</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>147</v>
       </c>
       <c r="B38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D38" t="s">
         <v>48</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
@@ -7235,15 +7256,15 @@
         <v>122</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D40" t="s">
         <v>72</v>
@@ -7255,58 +7276,58 @@
         <v>406</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
       <c r="B41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D41" t="s">
         <v>72</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F41" s="4">
         <v>3</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D42" t="s">
         <v>72</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>445</v>
+      </c>
+      <c r="B43" t="s">
         <v>446</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>447</v>
-      </c>
-      <c r="C43" t="s">
-        <v>448</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
@@ -7315,24 +7336,24 @@
         <v>122</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G43" t="s">
         <v>449</v>
-      </c>
-      <c r="G43" t="s">
-        <v>450</v>
       </c>
       <c r="H43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>445</v>
+      </c>
+      <c r="B44" t="s">
         <v>446</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>447</v>
-      </c>
-      <c r="C44" t="s">
-        <v>448</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
@@ -7341,24 +7362,24 @@
         <v>406</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G44" t="s">
+        <v>450</v>
+      </c>
+      <c r="H44" t="s">
         <v>451</v>
       </c>
-      <c r="H44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>445</v>
+      </c>
+      <c r="B45" t="s">
         <v>446</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>447</v>
-      </c>
-      <c r="C45" t="s">
-        <v>448</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
@@ -7367,24 +7388,24 @@
         <v>229</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G45" t="s">
         <v>433</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>434</v>
       </c>
-      <c r="H45" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>445</v>
+      </c>
+      <c r="B46" t="s">
         <v>446</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>447</v>
-      </c>
-      <c r="C46" t="s">
-        <v>448</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -7393,24 +7414,24 @@
         <v>421</v>
       </c>
       <c r="F46" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="G46" t="s">
         <v>453</v>
-      </c>
-      <c r="G46" t="s">
-        <v>454</v>
       </c>
       <c r="H46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>189</v>
       </c>
       <c r="B47" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C47" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -7419,18 +7440,18 @@
         <v>122</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
@@ -7439,21 +7460,21 @@
         <v>122</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="G48" t="s">
         <v>453</v>
-      </c>
-      <c r="G48" t="s">
-        <v>454</v>
       </c>
       <c r="H48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
@@ -7462,24 +7483,24 @@
         <v>406</v>
       </c>
       <c r="F49" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G49" t="s">
         <v>449</v>
-      </c>
-      <c r="G49" t="s">
-        <v>450</v>
       </c>
       <c r="H49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B50" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C50" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D50" t="s">
         <v>48</v>
@@ -7488,10 +7509,10 @@
         <v>122</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>307</v>
       </c>
@@ -7499,7 +7520,7 @@
         <v>306</v>
       </c>
       <c r="C51" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
@@ -7508,16 +7529,16 @@
         <v>122</v>
       </c>
       <c r="F51" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="G51" t="s">
         <v>459</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>307</v>
       </c>
@@ -7525,7 +7546,7 @@
         <v>306</v>
       </c>
       <c r="C52" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
@@ -7534,16 +7555,16 @@
         <v>406</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="G52" t="s">
         <v>462</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -7551,7 +7572,7 @@
         <v>306</v>
       </c>
       <c r="C53" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
@@ -7560,16 +7581,16 @@
         <v>229</v>
       </c>
       <c r="F53" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G53" t="s">
         <v>465</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>307</v>
       </c>
@@ -7577,7 +7598,7 @@
         <v>306</v>
       </c>
       <c r="C54" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D54" t="s">
         <v>48</v>
@@ -7586,16 +7607,16 @@
         <v>421</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="G54" t="s">
         <v>468</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>307</v>
       </c>
@@ -7603,7 +7624,7 @@
         <v>306</v>
       </c>
       <c r="C55" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
@@ -7612,16 +7633,16 @@
         <v>61</v>
       </c>
       <c r="F55" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="G55" t="s">
         <v>471</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>307</v>
       </c>
@@ -7629,7 +7650,7 @@
         <v>306</v>
       </c>
       <c r="C56" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D56" t="s">
         <v>48</v>
@@ -7638,16 +7659,16 @@
         <v>49</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="G56" t="s">
         <v>474</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>307</v>
       </c>
@@ -7655,25 +7676,25 @@
         <v>306</v>
       </c>
       <c r="C57" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D57" t="s">
         <v>48</v>
       </c>
       <c r="E57" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" t="s">
         <v>478</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>307</v>
       </c>
@@ -7681,7 +7702,7 @@
         <v>306</v>
       </c>
       <c r="C58" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
@@ -7690,16 +7711,16 @@
         <v>100</v>
       </c>
       <c r="F58" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="G58" t="s">
         <v>481</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>307</v>
       </c>
@@ -7707,25 +7728,25 @@
         <v>306</v>
       </c>
       <c r="C59" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D59" t="s">
         <v>48</v>
       </c>
       <c r="E59" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" t="s">
         <v>485</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>313</v>
       </c>
@@ -7733,7 +7754,7 @@
         <v>312</v>
       </c>
       <c r="C60" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D60" t="s">
         <v>48</v>
@@ -7742,13 +7763,13 @@
         <v>122</v>
       </c>
       <c r="F60" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="G60" t="s">
         <v>459</v>
       </c>
-      <c r="G60" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>313</v>
       </c>
@@ -7756,7 +7777,7 @@
         <v>312</v>
       </c>
       <c r="C61" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D61" t="s">
         <v>48</v>
@@ -7765,13 +7786,13 @@
         <v>406</v>
       </c>
       <c r="F61" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="G61" t="s">
         <v>462</v>
       </c>
-      <c r="G61" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>313</v>
       </c>
@@ -7779,7 +7800,7 @@
         <v>312</v>
       </c>
       <c r="C62" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D62" t="s">
         <v>48</v>
@@ -7788,13 +7809,13 @@
         <v>229</v>
       </c>
       <c r="F62" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G62" t="s">
         <v>465</v>
       </c>
-      <c r="G62" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>313</v>
       </c>
@@ -7802,7 +7823,7 @@
         <v>312</v>
       </c>
       <c r="C63" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D63" t="s">
         <v>48</v>
@@ -7811,13 +7832,13 @@
         <v>421</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="G63" t="s">
         <v>468</v>
       </c>
-      <c r="G63" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>313</v>
       </c>
@@ -7825,7 +7846,7 @@
         <v>312</v>
       </c>
       <c r="C64" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
@@ -7834,13 +7855,13 @@
         <v>61</v>
       </c>
       <c r="F64" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="G64" t="s">
         <v>471</v>
       </c>
-      <c r="G64" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>313</v>
       </c>
@@ -7848,7 +7869,7 @@
         <v>312</v>
       </c>
       <c r="C65" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D65" t="s">
         <v>48</v>
@@ -7857,13 +7878,13 @@
         <v>49</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="G65" t="s">
         <v>474</v>
       </c>
-      <c r="G65" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>313</v>
       </c>
@@ -7871,22 +7892,22 @@
         <v>312</v>
       </c>
       <c r="C66" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D66" t="s">
         <v>48</v>
       </c>
       <c r="E66" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="G66" t="s">
         <v>478</v>
       </c>
-      <c r="G66" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>313</v>
       </c>
@@ -7894,7 +7915,7 @@
         <v>312</v>
       </c>
       <c r="C67" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D67" t="s">
         <v>48</v>
@@ -7903,13 +7924,13 @@
         <v>100</v>
       </c>
       <c r="F67" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="G67" t="s">
         <v>481</v>
       </c>
-      <c r="G67" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>313</v>
       </c>
@@ -7917,22 +7938,22 @@
         <v>312</v>
       </c>
       <c r="C68" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D68" t="s">
         <v>48</v>
       </c>
       <c r="E68" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="G68" t="s">
         <v>485</v>
       </c>
-      <c r="G68" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>310</v>
       </c>
@@ -7949,10 +7970,10 @@
         <v>122</v>
       </c>
       <c r="H69" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>310</v>
       </c>
@@ -7969,10 +7990,10 @@
         <v>406</v>
       </c>
       <c r="H70" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>310</v>
       </c>
@@ -7989,10 +8010,10 @@
         <v>229</v>
       </c>
       <c r="H71" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>310</v>
       </c>
@@ -8009,10 +8030,10 @@
         <v>421</v>
       </c>
       <c r="H72" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>310</v>
       </c>
@@ -8029,10 +8050,10 @@
         <v>61</v>
       </c>
       <c r="H73" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>310</v>
       </c>
@@ -8049,10 +8070,10 @@
         <v>49</v>
       </c>
       <c r="H74" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>310</v>
       </c>
@@ -8063,16 +8084,16 @@
         <v>72</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="H75" t="s">
         <v>477</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H75" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>310</v>
       </c>
@@ -8089,10 +8110,10 @@
         <v>100</v>
       </c>
       <c r="H76" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>310</v>
       </c>
@@ -8103,13 +8124,13 @@
         <v>72</v>
       </c>
       <c r="E77" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="H77" t="s">
         <v>484</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="H77" t="s">
-        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -8123,19 +8144,19 @@
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>392</v>
       </c>
@@ -8146,61 +8167,61 @@
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>491</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E2" t="s">
         <v>492</v>
       </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>491</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>494</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E3" t="s">
         <v>495</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>494</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>497</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E4" t="s">
         <v>498</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>497</v>
-      </c>
-      <c r="E4" t="s">
-        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -8213,19 +8234,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A27F77-A36A-4B0F-AB98-73EE4727DE22}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="148.5703125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="46.25" customWidth="1"/>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="148.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>392</v>
       </c>
@@ -8233,543 +8254,543 @@
         <v>393</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30.75">
+    <row r="2" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" t="s">
         <v>505</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>506</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="D2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.5">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>509</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="C3" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>316</v>
       </c>
       <c r="B4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>316</v>
       </c>
       <c r="B5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>316</v>
       </c>
       <c r="B6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>316</v>
       </c>
       <c r="B7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>316</v>
       </c>
       <c r="B8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>316</v>
       </c>
       <c r="B9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>316</v>
       </c>
       <c r="B10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>316</v>
       </c>
       <c r="B11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>316</v>
       </c>
       <c r="B12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>319</v>
       </c>
       <c r="B13" t="s">
+        <v>521</v>
+      </c>
+      <c r="C13" t="s">
+        <v>506</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C13" t="s">
-        <v>507</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="42.75">
+    </row>
+    <row r="14" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>322</v>
       </c>
       <c r="B14" t="s">
+        <v>523</v>
+      </c>
+      <c r="C14" t="s">
+        <v>506</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C14" t="s">
-        <v>507</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="26.45">
+    </row>
+    <row r="15" spans="1:8" ht="26.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>327</v>
       </c>
       <c r="B15" t="s">
+        <v>525</v>
+      </c>
+      <c r="C15" t="s">
+        <v>506</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="C15" t="s">
-        <v>507</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="58.7" customHeight="1">
+    </row>
+    <row r="16" spans="1:8" ht="58.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>330</v>
       </c>
       <c r="B16" t="s">
+        <v>527</v>
+      </c>
+      <c r="C16" t="s">
+        <v>506</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C16" t="s">
-        <v>507</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="42.75">
+    </row>
+    <row r="17" spans="1:4" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>333</v>
       </c>
       <c r="B17" t="s">
+        <v>529</v>
+      </c>
+      <c r="C17" t="s">
+        <v>506</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C17" t="s">
-        <v>507</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39.4">
+    </row>
+    <row r="18" spans="1:4" ht="39.4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>336</v>
       </c>
       <c r="B18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C18" t="s">
+        <v>506</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C18" t="s">
-        <v>507</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="91.15">
+    </row>
+    <row r="19" spans="1:4" ht="91.05" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>339</v>
       </c>
       <c r="B19" t="s">
+        <v>533</v>
+      </c>
+      <c r="C19" t="s">
+        <v>506</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C19" t="s">
-        <v>507</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30.75">
+    </row>
+    <row r="20" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>342</v>
       </c>
       <c r="B20" t="s">
+        <v>535</v>
+      </c>
+      <c r="C20" t="s">
+        <v>506</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C20" t="s">
-        <v>507</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="57.2">
+    </row>
+    <row r="21" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>345</v>
       </c>
       <c r="B21" t="s">
+        <v>537</v>
+      </c>
+      <c r="C21" t="s">
+        <v>506</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C21" t="s">
-        <v>507</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="57.2">
+    </row>
+    <row r="22" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>348</v>
       </c>
       <c r="B22" t="s">
+        <v>539</v>
+      </c>
+      <c r="C22" t="s">
+        <v>506</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C22" t="s">
-        <v>507</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="128.44999999999999">
+    </row>
+    <row r="23" spans="1:4" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>351</v>
       </c>
       <c r="B23" t="s">
+        <v>541</v>
+      </c>
+      <c r="C23" t="s">
+        <v>506</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C23" t="s">
-        <v>507</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="28.5">
+    </row>
+    <row r="24" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>354</v>
       </c>
       <c r="B24" t="s">
+        <v>543</v>
+      </c>
+      <c r="C24" t="s">
+        <v>506</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C24" t="s">
-        <v>507</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="57.2">
+    </row>
+    <row r="25" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>357</v>
       </c>
       <c r="B25" t="s">
+        <v>545</v>
+      </c>
+      <c r="C25" t="s">
+        <v>506</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C25" t="s">
-        <v>507</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="57.2">
+    </row>
+    <row r="26" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>360</v>
       </c>
       <c r="B26" t="s">
+        <v>547</v>
+      </c>
+      <c r="C26" t="s">
+        <v>506</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C26" t="s">
-        <v>507</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>363</v>
       </c>
       <c r="B27" t="s">
+        <v>549</v>
+      </c>
+      <c r="C27" t="s">
+        <v>506</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C27" t="s">
-        <v>507</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="42.75">
+    </row>
+    <row r="28" spans="1:4" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>366</v>
       </c>
       <c r="B28" t="s">
+        <v>551</v>
+      </c>
+      <c r="C28" t="s">
+        <v>506</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C28" t="s">
-        <v>507</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>369</v>
       </c>
       <c r="B29" t="s">
+        <v>553</v>
+      </c>
+      <c r="C29" t="s">
+        <v>506</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C29" t="s">
-        <v>507</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>372</v>
       </c>
       <c r="B30" t="s">
+        <v>555</v>
+      </c>
+      <c r="C30" t="s">
+        <v>506</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>375</v>
       </c>
       <c r="B31" t="s">
+        <v>557</v>
+      </c>
+      <c r="C31" t="s">
+        <v>506</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C31" t="s">
-        <v>507</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.5">
+    </row>
+    <row r="32" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>378</v>
       </c>
       <c r="B32" t="s">
+        <v>559</v>
+      </c>
+      <c r="C32" t="s">
+        <v>506</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C32" t="s">
-        <v>507</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>381</v>
       </c>
       <c r="B33" t="s">
+        <v>561</v>
+      </c>
+      <c r="C33" t="s">
+        <v>506</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C33" t="s">
-        <v>507</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>384</v>
       </c>
       <c r="B34" t="s">
+        <v>563</v>
+      </c>
+      <c r="C34" t="s">
+        <v>506</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C34" t="s">
-        <v>507</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="91.5">
+    </row>
+    <row r="35" spans="1:4" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>387</v>
       </c>
       <c r="B35" t="s">
+        <v>565</v>
+      </c>
+      <c r="C35" t="s">
+        <v>506</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C35" t="s">
-        <v>507</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="28.5">
+    </row>
+    <row r="36" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>390</v>
       </c>
       <c r="B36" t="s">
+        <v>567</v>
+      </c>
+      <c r="C36" t="s">
+        <v>506</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C36" t="s">
-        <v>507</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>225</v>
       </c>
       <c r="B37" t="s">
+        <v>569</v>
+      </c>
+      <c r="C37" t="s">
+        <v>506</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C37" t="s">
-        <v>507</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>183</v>
       </c>
       <c r="B38" t="s">
+        <v>571</v>
+      </c>
+      <c r="C38" t="s">
+        <v>506</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="C38" t="s">
-        <v>507</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>154</v>
       </c>
@@ -8777,13 +8798,13 @@
         <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>148</v>
       </c>
@@ -8791,13 +8812,13 @@
         <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -8805,13 +8826,13 @@
         <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>177</v>
       </c>
@@ -8819,13 +8840,13 @@
         <v>177</v>
       </c>
       <c r="C42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>160</v>
       </c>
@@ -8833,13 +8854,13 @@
         <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -8847,13 +8868,13 @@
         <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -8861,13 +8882,13 @@
         <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>129</v>
       </c>
@@ -8875,13 +8896,13 @@
         <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>171</v>
       </c>
@@ -8889,13 +8910,13 @@
         <v>169</v>
       </c>
       <c r="C47" t="s">
+        <v>581</v>
+      </c>
+      <c r="D47" t="s">
         <v>582</v>
       </c>
-      <c r="D47" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -8903,13 +8924,13 @@
         <v>178</v>
       </c>
       <c r="C48" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D48" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -8917,13 +8938,13 @@
         <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D49" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -8931,13 +8952,13 @@
         <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D50" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>193</v>
       </c>
@@ -8945,13 +8966,13 @@
         <v>193</v>
       </c>
       <c r="C51" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>196</v>
       </c>
@@ -8959,13 +8980,13 @@
         <v>196</v>
       </c>
       <c r="C52" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>199</v>
       </c>
@@ -8973,13 +8994,13 @@
         <v>199</v>
       </c>
       <c r="C53" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>202</v>
       </c>
@@ -8987,13 +9008,13 @@
         <v>202</v>
       </c>
       <c r="C54" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="57.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>205</v>
       </c>
@@ -9001,13 +9022,13 @@
         <v>205</v>
       </c>
       <c r="C55" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>208</v>
       </c>
@@ -9015,13 +9036,13 @@
         <v>208</v>
       </c>
       <c r="C56" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>211</v>
       </c>
@@ -9029,13 +9050,13 @@
         <v>211</v>
       </c>
       <c r="C57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="28.5">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>214</v>
       </c>
@@ -9043,13 +9064,13 @@
         <v>214</v>
       </c>
       <c r="C58" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>217</v>
       </c>
@@ -9057,13 +9078,13 @@
         <v>217</v>
       </c>
       <c r="C59" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>228</v>
       </c>
@@ -9071,10 +9092,10 @@
         <v>228</v>
       </c>
       <c r="C60" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D60" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -9087,26 +9108,26 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="3" max="4" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="62.375" customWidth="1"/>
+    <col min="3" max="4" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>42</v>
@@ -9130,6 +9151,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010018943E1407CCF04989863CF0F432E8B2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="db7879c5843627d2d5018033e2f13957">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="352660e0-d3e8-47c6-9ec5-fea43b473253" xmlns:ns3="d9de82e3-6650-437c-811c-4330ac3163a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2446b3d32c0630b69da860c4e69f999" ns2:_="" ns3:_="">
     <xsd:import namespace="352660e0-d3e8-47c6-9ec5-fea43b473253"/>
@@ -9358,23 +9388,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E58BEAF-C168-4A50-BC01-2C2CE605BA70}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E58BEAF-C168-4A50-BC01-2C2CE605BA70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d9de82e3-6650-437c-811c-4330ac3163a7"/>
+    <ds:schemaRef ds:uri="352660e0-d3e8-47c6-9ec5-fea43b473253"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99401450-4116-472E-9386-888FD56A9AF4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A2FCDB-4CEB-4560-BC24-5417B97B9546}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A2FCDB-4CEB-4560-BC24-5417B97B9546}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99401450-4116-472E-9386-888FD56A9AF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="352660e0-d3e8-47c6-9ec5-fea43b473253"/>
+    <ds:schemaRef ds:uri="d9de82e3-6650-437c-811c-4330ac3163a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/metadata/rpharma_specs.xlsx
+++ b/metadata/rpharma_specs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bs832471\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rpharma-2024-ADaM-workshop\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03308EDE-FB7F-4602-9BF7-8874DA61D20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1816FBBB-1CCF-4C27-88B0-6D62188DD366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14305" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4157" yWindow="0" windowWidth="19562" windowHeight="10257" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="601">
   <si>
     <t>Attribute</t>
   </si>
@@ -440,9 +440,6 @@
     <t>Date of Randomization</t>
   </si>
   <si>
-    <t>date9.</t>
-  </si>
-  <si>
     <t>ADSL.RANDDT</t>
   </si>
   <si>
@@ -545,9 +542,6 @@
     <t>Time of First Exposure to Treatment</t>
   </si>
   <si>
-    <t>time8.</t>
-  </si>
-  <si>
     <t>ADSL.TRTSTM</t>
   </si>
   <si>
@@ -555,9 +549,6 @@
   </si>
   <si>
     <t>Datetime of First Exposure to Treatment</t>
-  </si>
-  <si>
-    <t>datetime20.</t>
   </si>
   <si>
     <t>ADSL.TRTSDTM</t>
@@ -1909,6 +1900,12 @@
   </si>
   <si>
     <t>Non-white</t>
+  </si>
+  <si>
+    <t>DATETIME20.</t>
+  </si>
+  <si>
+    <t>TIME8.</t>
   </si>
 </sst>
 </file>
@@ -2437,24 +2434,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -2569,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129AE431-5806-471D-9C82-A144A32316F7}">
   <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3336,7 +3333,7 @@
         <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I22" t="s">
         <v>25</v>
@@ -3346,7 +3343,7 @@
         <v>69</v>
       </c>
       <c r="O22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q22" t="s">
         <v>119</v>
@@ -3361,16 +3358,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s">
         <v>130</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="E23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="I23" t="s">
         <v>24</v>
@@ -3380,7 +3377,7 @@
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q23" t="s">
         <v>119</v>
@@ -3395,16 +3392,16 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" t="s">
         <v>134</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>136</v>
       </c>
       <c r="I24" t="s">
         <v>24</v>
@@ -3414,10 +3411,10 @@
         <v>44</v>
       </c>
       <c r="P24" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q24" t="s">
         <v>137</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -3429,16 +3426,16 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" t="s">
         <v>139</v>
       </c>
-      <c r="D25" t="s">
-        <v>140</v>
-      </c>
       <c r="E25" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I25" t="s">
         <v>24</v>
@@ -3448,10 +3445,10 @@
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -3463,16 +3460,16 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" t="s">
         <v>142</v>
       </c>
-      <c r="D26" t="s">
-        <v>143</v>
-      </c>
       <c r="E26" t="s">
         <v>48</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I26" t="s">
         <v>24</v>
@@ -3482,10 +3479,10 @@
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -3497,32 +3494,32 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" t="s">
         <v>145</v>
       </c>
-      <c r="D27" t="s">
-        <v>146</v>
-      </c>
       <c r="E27" t="s">
         <v>48</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I27" t="s">
         <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" t="s">
         <v>69</v>
       </c>
       <c r="O27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -3534,10 +3531,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" t="s">
         <v>149</v>
-      </c>
-      <c r="D28" t="s">
-        <v>150</v>
       </c>
       <c r="E28" t="s">
         <v>72</v>
@@ -3549,14 +3546,14 @@
         <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" t="s">
         <v>74</v>
       </c>
       <c r="Q28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -3568,29 +3565,29 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" t="s">
         <v>152</v>
       </c>
-      <c r="D29" t="s">
-        <v>153</v>
-      </c>
       <c r="E29" t="s">
         <v>48</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
         <v>25</v>
       </c>
       <c r="K29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" t="s">
         <v>69</v>
       </c>
       <c r="O29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -3602,10 +3599,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" t="s">
         <v>155</v>
-      </c>
-      <c r="D30" t="s">
-        <v>156</v>
       </c>
       <c r="E30" t="s">
         <v>72</v>
@@ -3617,7 +3614,7 @@
         <v>25</v>
       </c>
       <c r="K30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" t="s">
@@ -3633,10 +3630,10 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" t="s">
         <v>157</v>
-      </c>
-      <c r="D31" t="s">
-        <v>158</v>
       </c>
       <c r="E31" t="s">
         <v>72</v>
@@ -3645,7 +3642,7 @@
         <v>8</v>
       </c>
       <c r="H31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I31" t="s">
         <v>25</v>
@@ -3655,7 +3652,7 @@
         <v>69</v>
       </c>
       <c r="O31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -3667,10 +3664,10 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" t="s">
         <v>161</v>
-      </c>
-      <c r="D32" t="s">
-        <v>162</v>
       </c>
       <c r="E32" t="s">
         <v>72</v>
@@ -3679,7 +3676,7 @@
         <v>8</v>
       </c>
       <c r="H32" t="s">
-        <v>163</v>
+        <v>600</v>
       </c>
       <c r="I32" t="s">
         <v>25</v>
@@ -3689,7 +3686,7 @@
         <v>69</v>
       </c>
       <c r="O32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -3701,10 +3698,10 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E33" t="s">
         <v>72</v>
@@ -3713,7 +3710,7 @@
         <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>167</v>
+        <v>599</v>
       </c>
       <c r="I33" t="s">
         <v>25</v>
@@ -3723,7 +3720,7 @@
         <v>69</v>
       </c>
       <c r="O33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -3735,10 +3732,10 @@
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E34" t="s">
         <v>48</v>
@@ -3754,7 +3751,7 @@
         <v>69</v>
       </c>
       <c r="O34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -3766,10 +3763,10 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E35" t="s">
         <v>72</v>
@@ -3778,7 +3775,7 @@
         <v>100</v>
       </c>
       <c r="H35" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I35" t="s">
         <v>25</v>
@@ -3788,7 +3785,7 @@
         <v>69</v>
       </c>
       <c r="O35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -3800,10 +3797,10 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E36" t="s">
         <v>72</v>
@@ -3812,7 +3809,7 @@
         <v>100</v>
       </c>
       <c r="H36" t="s">
-        <v>167</v>
+        <v>599</v>
       </c>
       <c r="I36" t="s">
         <v>25</v>
@@ -3822,7 +3819,7 @@
         <v>69</v>
       </c>
       <c r="O36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -3834,10 +3831,10 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E37" t="s">
         <v>48</v>
@@ -3853,7 +3850,7 @@
         <v>69</v>
       </c>
       <c r="O37" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -3865,10 +3862,10 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E38" t="s">
         <v>72</v>
@@ -3884,7 +3881,7 @@
         <v>69</v>
       </c>
       <c r="O38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -3896,10 +3893,10 @@
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D39" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E39" t="s">
         <v>72</v>
@@ -3908,7 +3905,7 @@
         <v>100</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I39" t="s">
         <v>25</v>
@@ -3918,7 +3915,7 @@
         <v>69</v>
       </c>
       <c r="O39" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -3930,10 +3927,10 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D40" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E40" t="s">
         <v>48</v>
@@ -3945,14 +3942,14 @@
         <v>25</v>
       </c>
       <c r="K40" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -3964,10 +3961,10 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E41" t="s">
         <v>72</v>
@@ -3983,7 +3980,7 @@
         <v>69</v>
       </c>
       <c r="O41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -3995,10 +3992,10 @@
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E42" t="s">
         <v>72</v>
@@ -4014,7 +4011,7 @@
         <v>69</v>
       </c>
       <c r="O42" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -4026,10 +4023,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E43" t="s">
         <v>48</v>
@@ -4045,7 +4042,7 @@
         <v>69</v>
       </c>
       <c r="O43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -4057,10 +4054,10 @@
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D44" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E44" t="s">
         <v>48</v>
@@ -4076,7 +4073,7 @@
         <v>69</v>
       </c>
       <c r="O44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -4088,10 +4085,10 @@
         <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D45" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E45" t="s">
         <v>48</v>
@@ -4107,7 +4104,7 @@
         <v>69</v>
       </c>
       <c r="O45" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -4119,10 +4116,10 @@
         <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D46" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E46" t="s">
         <v>72</v>
@@ -4131,7 +4128,7 @@
         <v>100</v>
       </c>
       <c r="H46" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="I46" t="s">
         <v>25</v>
@@ -4140,7 +4137,7 @@
         <v>69</v>
       </c>
       <c r="O46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -4152,10 +4149,10 @@
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D47" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E47" t="s">
         <v>72</v>
@@ -4164,7 +4161,7 @@
         <v>100</v>
       </c>
       <c r="H47" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="I47" t="s">
         <v>25</v>
@@ -4173,7 +4170,7 @@
         <v>69</v>
       </c>
       <c r="O47" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -4185,10 +4182,10 @@
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E48" t="s">
         <v>48</v>
@@ -4203,7 +4200,7 @@
         <v>69</v>
       </c>
       <c r="O48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -4215,10 +4212,10 @@
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D49" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E49" t="s">
         <v>72</v>
@@ -4227,7 +4224,7 @@
         <v>100</v>
       </c>
       <c r="H49" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="I49" t="s">
         <v>25</v>
@@ -4236,7 +4233,7 @@
         <v>69</v>
       </c>
       <c r="O49" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -4266,7 +4263,7 @@
         <v>44</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -4287,7 +4284,7 @@
         <v>48</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I51" t="s">
         <v>24</v>
@@ -4296,7 +4293,7 @@
         <v>44</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -4317,7 +4314,7 @@
         <v>48</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I52" t="s">
         <v>25</v>
@@ -4326,7 +4323,7 @@
         <v>44</v>
       </c>
       <c r="P52" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -4356,7 +4353,7 @@
         <v>44</v>
       </c>
       <c r="P53" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -4368,10 +4365,10 @@
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D54" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E54" t="s">
         <v>72</v>
@@ -4387,7 +4384,7 @@
         <v>69</v>
       </c>
       <c r="O54" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -4402,13 +4399,13 @@
         <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E55" t="s">
         <v>48</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
@@ -4417,7 +4414,7 @@
         <v>44</v>
       </c>
       <c r="P55" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -4438,7 +4435,7 @@
         <v>48</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
@@ -4447,7 +4444,7 @@
         <v>44</v>
       </c>
       <c r="P56" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -4468,7 +4465,7 @@
         <v>48</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
@@ -4477,7 +4474,7 @@
         <v>44</v>
       </c>
       <c r="P57" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -4507,7 +4504,7 @@
         <v>44</v>
       </c>
       <c r="P58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -4537,7 +4534,7 @@
         <v>44</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -4571,7 +4568,7 @@
         <v>44</v>
       </c>
       <c r="P60" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -4605,7 +4602,7 @@
         <v>44</v>
       </c>
       <c r="P61" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -4639,7 +4636,7 @@
         <v>44</v>
       </c>
       <c r="P62" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -4651,29 +4648,29 @@
         <v>19</v>
       </c>
       <c r="C63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" t="s">
         <v>145</v>
       </c>
-      <c r="D63" t="s">
-        <v>146</v>
-      </c>
       <c r="E63" t="s">
         <v>48</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
         <v>24</v>
       </c>
       <c r="K63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" t="s">
         <v>44</v>
       </c>
       <c r="P63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -4685,29 +4682,29 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" t="s">
         <v>152</v>
       </c>
-      <c r="D64" t="s">
-        <v>153</v>
-      </c>
       <c r="E64" t="s">
         <v>48</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
         <v>25</v>
       </c>
       <c r="K64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" t="s">
         <v>44</v>
       </c>
       <c r="P64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -4719,10 +4716,10 @@
         <v>19</v>
       </c>
       <c r="C65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" t="s">
         <v>157</v>
-      </c>
-      <c r="D65" t="s">
-        <v>158</v>
       </c>
       <c r="E65" t="s">
         <v>72</v>
@@ -4731,7 +4728,7 @@
         <v>100</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I65" t="s">
         <v>25</v>
@@ -4741,7 +4738,7 @@
         <v>44</v>
       </c>
       <c r="P65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -4753,10 +4750,10 @@
         <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D66" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E66" t="s">
         <v>72</v>
@@ -4765,7 +4762,7 @@
         <v>8</v>
       </c>
       <c r="H66" t="s">
-        <v>167</v>
+        <v>599</v>
       </c>
       <c r="I66" t="s">
         <v>25</v>
@@ -4775,7 +4772,7 @@
         <v>44</v>
       </c>
       <c r="P66" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -4787,10 +4784,10 @@
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D67" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E67" t="s">
         <v>72</v>
@@ -4799,7 +4796,7 @@
         <v>100</v>
       </c>
       <c r="H67" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I67" t="s">
         <v>25</v>
@@ -4809,7 +4806,7 @@
         <v>44</v>
       </c>
       <c r="P67" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -4821,10 +4818,10 @@
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E68" t="s">
         <v>48</v>
@@ -4840,7 +4837,7 @@
         <v>44</v>
       </c>
       <c r="P68" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -4852,10 +4849,10 @@
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D69" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E69" t="s">
         <v>48</v>
@@ -4871,7 +4868,7 @@
         <v>44</v>
       </c>
       <c r="P69" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -4883,10 +4880,10 @@
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D70" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E70" t="s">
         <v>48</v>
@@ -4902,7 +4899,7 @@
         <v>44</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -4914,10 +4911,10 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D71" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E71" t="s">
         <v>48</v>
@@ -4933,7 +4930,7 @@
         <v>44</v>
       </c>
       <c r="P71" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -4945,10 +4942,10 @@
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D72" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E72" t="s">
         <v>48</v>
@@ -4964,7 +4961,7 @@
         <v>44</v>
       </c>
       <c r="P72" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -4976,10 +4973,10 @@
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D73" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E73" t="s">
         <v>48</v>
@@ -4995,7 +4992,7 @@
         <v>44</v>
       </c>
       <c r="P73" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -5007,10 +5004,10 @@
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D74" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E74" t="s">
         <v>48</v>
@@ -5026,7 +5023,7 @@
         <v>44</v>
       </c>
       <c r="P74" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -5038,13 +5035,13 @@
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D75" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E75" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F75" s="9">
         <v>8</v>
@@ -5057,7 +5054,7 @@
         <v>44</v>
       </c>
       <c r="P75" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -5069,10 +5066,10 @@
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D76" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E76" t="s">
         <v>48</v>
@@ -5088,7 +5085,7 @@
         <v>44</v>
       </c>
       <c r="P76" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -5100,10 +5097,10 @@
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D77" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E77" t="s">
         <v>48</v>
@@ -5119,7 +5116,7 @@
         <v>44</v>
       </c>
       <c r="P77" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -5131,10 +5128,10 @@
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D78" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E78" t="s">
         <v>48</v>
@@ -5150,7 +5147,7 @@
         <v>44</v>
       </c>
       <c r="P78" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5162,10 +5159,10 @@
         <v>19</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E79" s="18" t="s">
         <v>48</v>
@@ -5181,7 +5178,7 @@
         <v>44</v>
       </c>
       <c r="P79" s="18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -5193,10 +5190,10 @@
         <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D80" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E80" t="s">
         <v>72</v>
@@ -5212,7 +5209,7 @@
         <v>44</v>
       </c>
       <c r="P80" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -5224,10 +5221,10 @@
         <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D81" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E81" t="s">
         <v>48</v>
@@ -5243,7 +5240,7 @@
         <v>44</v>
       </c>
       <c r="P81" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -5255,13 +5252,13 @@
         <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D82" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E82" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F82" s="9">
         <v>25</v>
@@ -5274,7 +5271,7 @@
         <v>44</v>
       </c>
       <c r="P82" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -5286,10 +5283,10 @@
         <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D83" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E83" t="s">
         <v>72</v>
@@ -5305,7 +5302,7 @@
         <v>44</v>
       </c>
       <c r="P83" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -5317,10 +5314,10 @@
         <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D84" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E84" t="s">
         <v>48</v>
@@ -5336,7 +5333,7 @@
         <v>44</v>
       </c>
       <c r="P84" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -5348,10 +5345,10 @@
         <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D85" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E85" t="s">
         <v>72</v>
@@ -5367,7 +5364,7 @@
         <v>44</v>
       </c>
       <c r="P85" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -5379,10 +5376,10 @@
         <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D86" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E86" t="s">
         <v>48</v>
@@ -5398,7 +5395,7 @@
         <v>44</v>
       </c>
       <c r="P86" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -5410,10 +5407,10 @@
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D87" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E87" t="s">
         <v>72</v>
@@ -5429,7 +5426,7 @@
         <v>44</v>
       </c>
       <c r="P87" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -5441,10 +5438,10 @@
         <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D88" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E88" t="s">
         <v>72</v>
@@ -5460,7 +5457,7 @@
         <v>44</v>
       </c>
       <c r="P88" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -5472,10 +5469,10 @@
         <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D89" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E89" t="s">
         <v>48</v>
@@ -5491,7 +5488,7 @@
         <v>44</v>
       </c>
       <c r="P89" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -5503,10 +5500,10 @@
         <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D90" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -5518,7 +5515,7 @@
         <v>24</v>
       </c>
       <c r="K90" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L90" s="3"/>
       <c r="M90" t="s">
@@ -5534,10 +5531,10 @@
         <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D91" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E91" t="s">
         <v>72</v>
@@ -5549,7 +5546,7 @@
         <v>25</v>
       </c>
       <c r="K91" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L91" s="3"/>
       <c r="M91" t="s">
@@ -5565,10 +5562,10 @@
         <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D92" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E92" t="s">
         <v>48</v>
@@ -5580,7 +5577,7 @@
         <v>24</v>
       </c>
       <c r="K92" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L92" s="3"/>
       <c r="M92" t="s">
@@ -5596,13 +5593,13 @@
         <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D93" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E93" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F93" s="9">
         <v>8</v>
@@ -5612,7 +5609,7 @@
         <v>69</v>
       </c>
       <c r="O93" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -5624,10 +5621,10 @@
         <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D94" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E94" t="s">
         <v>48</v>
@@ -5640,7 +5637,7 @@
         <v>74</v>
       </c>
       <c r="O94" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -5652,10 +5649,10 @@
         <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D95" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E95" t="s">
         <v>48</v>
@@ -5668,7 +5665,7 @@
         <v>69</v>
       </c>
       <c r="O95" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -5680,10 +5677,10 @@
         <v>19</v>
       </c>
       <c r="C96" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D96" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E96" t="s">
         <v>72</v>
@@ -5705,13 +5702,13 @@
         <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D97" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E97" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F97" s="9">
         <v>8</v>
@@ -5721,7 +5718,7 @@
         <v>69</v>
       </c>
       <c r="O97" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -5733,10 +5730,10 @@
         <v>19</v>
       </c>
       <c r="C98" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D98" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E98" t="s">
         <v>48</v>
@@ -5749,7 +5746,7 @@
         <v>74</v>
       </c>
       <c r="O98" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -5761,10 +5758,10 @@
         <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D99" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E99" t="s">
         <v>48</v>
@@ -5780,7 +5777,7 @@
         <v>69</v>
       </c>
       <c r="O99" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -5792,13 +5789,13 @@
         <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D100" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E100" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F100" s="9">
         <v>8</v>
@@ -5808,7 +5805,7 @@
         <v>69</v>
       </c>
       <c r="O100" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -5820,13 +5817,13 @@
         <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D101" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E101" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F101" s="9">
         <v>8</v>
@@ -5836,7 +5833,7 @@
         <v>69</v>
       </c>
       <c r="O101" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -5848,10 +5845,10 @@
         <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D102" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E102" t="s">
         <v>48</v>
@@ -5864,7 +5861,7 @@
         <v>69</v>
       </c>
       <c r="O102" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -5876,13 +5873,13 @@
         <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D103" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E103" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F103" s="9">
         <v>8</v>
@@ -5892,7 +5889,7 @@
         <v>74</v>
       </c>
       <c r="O103" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -5904,13 +5901,13 @@
         <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D104" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E104" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F104" s="9">
         <v>8</v>
@@ -5920,7 +5917,7 @@
         <v>74</v>
       </c>
       <c r="O104" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -5932,10 +5929,10 @@
         <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D105" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E105" t="s">
         <v>48</v>
@@ -5948,7 +5945,7 @@
         <v>69</v>
       </c>
       <c r="O105" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -5960,10 +5957,10 @@
         <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D106" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E106" t="s">
         <v>48</v>
@@ -5976,7 +5973,7 @@
         <v>69</v>
       </c>
       <c r="O106" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -5988,13 +5985,13 @@
         <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D107" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E107" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F107" s="9">
         <v>8</v>
@@ -6004,7 +6001,7 @@
         <v>74</v>
       </c>
       <c r="O107" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -6016,13 +6013,13 @@
         <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D108" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E108" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F108" s="9">
         <v>8</v>
@@ -6032,7 +6029,7 @@
         <v>74</v>
       </c>
       <c r="O108" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -6044,10 +6041,10 @@
         <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D109" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E109" t="s">
         <v>72</v>
@@ -6060,7 +6057,7 @@
         <v>69</v>
       </c>
       <c r="O109" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -6072,10 +6069,10 @@
         <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D110" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E110" t="s">
         <v>72</v>
@@ -6088,7 +6085,7 @@
         <v>69</v>
       </c>
       <c r="O110" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -6100,10 +6097,10 @@
         <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D111" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E111" t="s">
         <v>48</v>
@@ -6116,7 +6113,7 @@
         <v>69</v>
       </c>
       <c r="O111" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -6128,10 +6125,10 @@
         <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D112" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E112" t="s">
         <v>72</v>
@@ -6144,7 +6141,7 @@
         <v>74</v>
       </c>
       <c r="O112" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -6156,10 +6153,10 @@
         <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D113" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E113" t="s">
         <v>48</v>
@@ -6172,7 +6169,7 @@
         <v>69</v>
       </c>
       <c r="O113" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -6184,10 +6181,10 @@
         <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D114" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E114" t="s">
         <v>72</v>
@@ -6200,7 +6197,7 @@
         <v>74</v>
       </c>
       <c r="O114" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -6212,10 +6209,10 @@
         <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D115" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E115" t="s">
         <v>48</v>
@@ -6228,7 +6225,7 @@
         <v>69</v>
       </c>
       <c r="O115" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -6240,10 +6237,10 @@
         <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D116" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E116" t="s">
         <v>48</v>
@@ -6256,7 +6253,7 @@
         <v>69</v>
       </c>
       <c r="O116" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -6268,10 +6265,10 @@
         <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D117" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E117" t="s">
         <v>48</v>
@@ -6287,7 +6284,7 @@
         <v>69</v>
       </c>
       <c r="O117" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
@@ -6299,10 +6296,10 @@
         <v>19</v>
       </c>
       <c r="C118" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D118" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E118" t="s">
         <v>48</v>
@@ -6318,7 +6315,7 @@
         <v>69</v>
       </c>
       <c r="O118" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -6366,7 +6363,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -6435,7 +6432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBC456A-1389-4826-89DD-7A3DE90BCF75}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -6452,13 +6449,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>33</v>
@@ -6467,13 +6464,13 @@
         <v>31</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -6495,7 +6492,7 @@
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="15" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6517,7 +6514,7 @@
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="15" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6539,7 +6536,7 @@
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="15" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6561,7 +6558,7 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6569,10 +6566,10 @@
         <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -6581,10 +6578,10 @@
         <v>122</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -6592,22 +6589,22 @@
         <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>406</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -6615,22 +6612,22 @@
         <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C8" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -6641,7 +6638,7 @@
         <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
@@ -6650,10 +6647,10 @@
         <v>122</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -6664,19 +6661,19 @@
         <v>94</v>
       </c>
       <c r="C10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="G10" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -6687,19 +6684,19 @@
         <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G11" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -6710,7 +6707,7 @@
         <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -6719,10 +6716,10 @@
         <v>61</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G12" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -6733,7 +6730,7 @@
         <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
@@ -6742,7 +6739,7 @@
         <v>49</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -6762,7 +6759,7 @@
         <v>122</v>
       </c>
       <c r="H14" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -6776,13 +6773,13 @@
         <v>72</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -6796,13 +6793,13 @@
         <v>72</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H16" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -6816,13 +6813,13 @@
         <v>72</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -6842,7 +6839,7 @@
         <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -6859,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -6876,7 +6873,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -6893,7 +6890,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -6913,7 +6910,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6933,7 +6930,7 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -6953,7 +6950,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -6970,7 +6967,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -6987,7 +6984,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -7004,7 +7001,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -7024,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -7044,7 +7041,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -7064,7 +7061,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -7075,7 +7072,7 @@
         <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D31" t="s">
         <v>48</v>
@@ -7084,13 +7081,13 @@
         <v>122</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G31" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H31" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -7101,22 +7098,22 @@
         <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D32" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G32" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H32" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -7127,22 +7124,22 @@
         <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D33" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G33" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H33" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -7153,30 +7150,30 @@
         <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G34" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H34" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
@@ -7185,32 +7182,32 @@
         <v>122</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D36" t="s">
         <v>48</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D37" t="s">
         <v>48</v>
@@ -7219,32 +7216,32 @@
         <v>3</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D38" t="s">
         <v>48</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D39" t="s">
         <v>72</v>
@@ -7256,78 +7253,78 @@
         <v>122</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D40" t="s">
         <v>72</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D41" t="s">
         <v>72</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F41" s="4">
         <v>3</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D42" t="s">
         <v>72</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B43" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C43" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
@@ -7336,10 +7333,10 @@
         <v>122</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G43" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H43" t="s">
         <v>25</v>
@@ -7347,77 +7344,77 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B44" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C44" t="s">
+        <v>444</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G44" t="s">
         <v>447</v>
       </c>
-      <c r="D44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="G44" t="s">
-        <v>450</v>
-      </c>
       <c r="H44" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B45" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C45" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G45" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H45" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B46" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C46" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G46" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H46" t="s">
         <v>24</v>
@@ -7425,13 +7422,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B47" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C47" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -7440,7 +7437,7 @@
         <v>122</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H47" t="s">
         <v>24</v>
@@ -7451,7 +7448,7 @@
         <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
@@ -7460,10 +7457,10 @@
         <v>122</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G48" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H48" t="s">
         <v>24</v>
@@ -7474,19 +7471,19 @@
         <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G49" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H49" t="s">
         <v>25</v>
@@ -7494,13 +7491,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B50" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C50" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D50" t="s">
         <v>48</v>
@@ -7509,18 +7506,18 @@
         <v>122</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C51" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
@@ -7529,102 +7526,102 @@
         <v>122</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G51" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C52" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G52" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B53" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C53" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G53" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B54" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C54" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D54" t="s">
         <v>48</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G54" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B55" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C55" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
@@ -7633,24 +7630,24 @@
         <v>61</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G55" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B56" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C56" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D56" t="s">
         <v>48</v>
@@ -7659,50 +7656,50 @@
         <v>49</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G56" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B57" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C57" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D57" t="s">
         <v>48</v>
       </c>
       <c r="E57" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="G57" t="s">
+        <v>475</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G57" t="s">
-        <v>478</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B58" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C58" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
@@ -7711,50 +7708,50 @@
         <v>100</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G58" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B59" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C59" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D59" t="s">
         <v>48</v>
       </c>
       <c r="E59" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="G59" t="s">
+        <v>482</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="G59" t="s">
-        <v>485</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B60" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C60" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D60" t="s">
         <v>48</v>
@@ -7763,90 +7760,90 @@
         <v>122</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G60" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B61" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C61" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D61" t="s">
         <v>48</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G61" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B62" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C62" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D62" t="s">
         <v>48</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G62" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B63" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C63" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D63" t="s">
         <v>48</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G63" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B64" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C64" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
@@ -7855,21 +7852,21 @@
         <v>61</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G64" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B65" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C65" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D65" t="s">
         <v>48</v>
@@ -7878,44 +7875,44 @@
         <v>49</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G65" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B66" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C66" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D66" t="s">
         <v>48</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G66" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B67" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C67" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D67" t="s">
         <v>48</v>
@@ -7924,41 +7921,41 @@
         <v>100</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G67" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B68" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D68" t="s">
         <v>48</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G68" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B69" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D69" t="s">
         <v>72</v>
@@ -7970,75 +7967,75 @@
         <v>122</v>
       </c>
       <c r="H69" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B70" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D70" t="s">
         <v>72</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H70" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B71" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D71" t="s">
         <v>72</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H71" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B72" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D72" t="s">
         <v>72</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H72" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B73" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D73" t="s">
         <v>72</v>
@@ -8050,15 +8047,15 @@
         <v>61</v>
       </c>
       <c r="H73" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B74" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D74" t="s">
         <v>72</v>
@@ -8070,35 +8067,35 @@
         <v>49</v>
       </c>
       <c r="H74" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D75" t="s">
         <v>72</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H75" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B76" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D76" t="s">
         <v>72</v>
@@ -8110,27 +8107,27 @@
         <v>100</v>
       </c>
       <c r="H76" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B77" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D77" t="s">
         <v>72</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H77" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -8158,70 +8155,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C2" t="s">
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -8248,25 +8245,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>42</v>
@@ -8274,660 +8271,660 @@
     </row>
     <row r="2" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>504</v>
-      </c>
-      <c r="B2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C2" t="s">
-        <v>506</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="C6" t="s">
-        <v>506</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B9" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C12" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C13" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B14" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B15" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="58.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B16" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C16" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B17" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C17" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B18" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="91.05" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B19" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C19" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B20" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C20" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B22" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C22" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B23" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C23" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B24" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C24" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B25" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B26" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C26" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B27" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C27" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B28" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C28" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B29" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C29" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B30" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C30" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B31" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C31" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B32" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C32" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B33" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C33" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B34" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C34" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B35" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C35" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B36" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C36" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B37" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C37" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B38" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C38" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C42" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C47" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D47" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D48" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -8938,10 +8935,10 @@
         <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D49" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -8952,150 +8949,150 @@
         <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D50" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C51" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C52" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B53" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C53" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B54" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C54" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C55" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B56" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C56" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C57" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C59" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B60" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C60" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D60" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -9121,13 +9118,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>42</v>
@@ -9140,26 +9137,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d9de82e3-6650-437c-811c-4330ac3163a7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="352660e0-d3e8-47c6-9ec5-fea43b473253">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010018943E1407CCF04989863CF0F432E8B2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="db7879c5843627d2d5018033e2f13957">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="352660e0-d3e8-47c6-9ec5-fea43b473253" xmlns:ns3="d9de82e3-6650-437c-811c-4330ac3163a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2446b3d32c0630b69da860c4e69f999" ns2:_="" ns3:_="">
     <xsd:import namespace="352660e0-d3e8-47c6-9ec5-fea43b473253"/>
@@ -9388,32 +9365,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E58BEAF-C168-4A50-BC01-2C2CE605BA70}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d9de82e3-6650-437c-811c-4330ac3163a7"/>
-    <ds:schemaRef ds:uri="352660e0-d3e8-47c6-9ec5-fea43b473253"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A2FCDB-4CEB-4560-BC24-5417B97B9546}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d9de82e3-6650-437c-811c-4330ac3163a7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="352660e0-d3e8-47c6-9ec5-fea43b473253">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99401450-4116-472E-9386-888FD56A9AF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9430,4 +9402,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A2FCDB-4CEB-4560-BC24-5417B97B9546}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E58BEAF-C168-4A50-BC01-2C2CE605BA70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d9de82e3-6650-437c-811c-4330ac3163a7"/>
+    <ds:schemaRef ds:uri="352660e0-d3e8-47c6-9ec5-fea43b473253"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>